--- a/Covid-19.xlsx
+++ b/Covid-19.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="580" windowWidth="22880" windowHeight="13420" tabRatio="500"/>
+    <workbookView xWindow="3980" yWindow="1580" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$3:$N$15</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$M$3</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="193">
   <si>
     <t>Mã số BN</t>
   </si>
@@ -113,9 +117,6 @@
     <t>Ngày mắc</t>
   </si>
   <si>
-    <t>Việt Nam</t>
-  </si>
-  <si>
     <t>Hà Nội</t>
   </si>
   <si>
@@ -326,9 +327,6 @@
     <t>tiếp xúc BN34</t>
   </si>
   <si>
-    <t>HDV DL</t>
-  </si>
-  <si>
     <t>BN46</t>
   </si>
   <si>
@@ -393,16 +391,236 @@
   </si>
   <si>
     <t>Séc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>em gái BN06</t>
+  </si>
+  <si>
+    <t>Dì BN06</t>
+  </si>
+  <si>
+    <t>Mẹ BN06</t>
+  </si>
+  <si>
+    <t>bố BN06</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>đến nhà BN06</t>
+  </si>
+  <si>
+    <t>BN Thuấn</t>
+  </si>
+  <si>
+    <t>BN Thảo Tiên</t>
+  </si>
+  <si>
+    <t>Lây BN Anh ở ĐN trên VN0054</t>
+  </si>
+  <si>
+    <t>HDV DL TX BN UK VN0054</t>
+  </si>
+  <si>
+    <t>Từ Pháp về</t>
+  </si>
+  <si>
+    <t>BV dã chiến Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Tây Ban Nha</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Quốc gia</t>
+  </si>
+  <si>
+    <t>ghi chú</t>
+  </si>
+  <si>
+    <t>cả nước</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>dân số (triệu)</t>
+  </si>
+  <si>
+    <t>Đan Mạch</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>BN54</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>BN55</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>VN0018</t>
+  </si>
+  <si>
+    <t>VN0018 từ Paris đến NB ngày 14/3</t>
+  </si>
+  <si>
+    <t>BN56</t>
+  </si>
+  <si>
+    <t>BN57</t>
+  </si>
+  <si>
+    <t>VN0054 ngày 9/3 London HN</t>
+  </si>
+  <si>
+    <t>VNN0054 Từ London -HN về 9/3</t>
+  </si>
+  <si>
+    <t>tổng</t>
+  </si>
+  <si>
+    <t>2 Anh</t>
+  </si>
+  <si>
+    <t>3 Anh</t>
+  </si>
+  <si>
+    <t>3 Anh, 1 Iceland</t>
+  </si>
+  <si>
+    <t>2 TQ, 1 Mỹ, 1 Séc, 1 Latvia</t>
+  </si>
+  <si>
+    <t>nước ngoài</t>
+  </si>
+  <si>
+    <t>TỔNG</t>
+  </si>
+  <si>
+    <t>BN58</t>
+  </si>
+  <si>
+    <t>BN59</t>
+  </si>
+  <si>
+    <t>BN60</t>
+  </si>
+  <si>
+    <t>BV Bệnh Nhiệt đới TƯ</t>
+  </si>
+  <si>
+    <t>du học sinh Pháp</t>
+  </si>
+  <si>
+    <t>Tiếp viên 0054 ngày 2/3</t>
+  </si>
+  <si>
+    <t>Pháp</t>
+  </si>
+  <si>
+    <t>1 Anh, 1 Đức, 1 Pháp</t>
+  </si>
+  <si>
+    <t>BN61</t>
+  </si>
+  <si>
+    <t>Ninh Thuận</t>
+  </si>
+  <si>
+    <t>BV đa khoa Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Từ Phú Quốc về TPHCM; TK 162, QH 1521 và QH 1524.</t>
+  </si>
+  <si>
+    <t>QR970 Doha, HN ngày 10/3</t>
+  </si>
+  <si>
+    <t>QR970</t>
+  </si>
+  <si>
+    <t>VJ 826, Malaysia - HCM, 4/3</t>
+  </si>
+  <si>
+    <t>VJ826</t>
+  </si>
+  <si>
+    <t>BN62</t>
+  </si>
+  <si>
+    <t>VN-Thuỵ điển Uông Bí</t>
+  </si>
+  <si>
+    <t>BN63</t>
+  </si>
+  <si>
+    <t>Du học sinh Anh, nhà HN</t>
+  </si>
+  <si>
+    <t>TG564</t>
+  </si>
+  <si>
+    <t>BN64</t>
+  </si>
+  <si>
+    <t>EK392</t>
+  </si>
+  <si>
+    <t>BV Dã chiến Củ Chi</t>
+  </si>
+  <si>
+    <t>Từ Thụy Sĩ, qua Dubai về TP.HCM</t>
+  </si>
+  <si>
+    <t>BN65</t>
+  </si>
+  <si>
+    <t>BV Dã chiến Củ chi</t>
+  </si>
+  <si>
+    <t>Tiếp xúc với BN45 và Bn48</t>
+  </si>
+  <si>
+    <t>BN66</t>
+  </si>
+  <si>
+    <t>BR 395</t>
+  </si>
+  <si>
+    <t>ghế 6G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,6 +642,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="4">
@@ -493,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,11 +786,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -588,6 +824,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -726,9 +971,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF1F86FF"/>
       <color rgb="FF00F6C1"/>
       <color rgb="FFF28400"/>
-      <color rgb="FF1F86FF"/>
       <color rgb="FFB7FF00"/>
       <color rgb="FF9D95FF"/>
       <color rgb="FFFEFD9C"/>
@@ -743,14 +988,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:K55" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="B2:K55"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Mã số BN" dataDxfId="9"/>
-    <tableColumn id="2" name="Tuổi" dataDxfId="8"/>
-    <tableColumn id="3" name="Giới tính" dataDxfId="7"/>
-    <tableColumn id="4" name="Quốc tịch" dataDxfId="6"/>
-    <tableColumn id="5" name="Nơi mắc" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:L68" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="B2:L68"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Mã số BN" dataDxfId="10"/>
+    <tableColumn id="2" name="Tuổi" dataDxfId="9"/>
+    <tableColumn id="3" name="Giới tính" dataDxfId="8"/>
+    <tableColumn id="4" name="Quốc tịch" dataDxfId="7"/>
+    <tableColumn id="5" name="Nơi mắc" dataDxfId="6"/>
+    <tableColumn id="11" name="F " dataDxfId="5"/>
     <tableColumn id="6" name="Hạng bay" dataDxfId="4"/>
     <tableColumn id="7" name="Chuyến bay" dataDxfId="3"/>
     <tableColumn id="8" name="Ngày mắc" dataDxfId="2"/>
@@ -1024,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K55"/>
+  <dimension ref="B1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="143" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A55" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="136" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1037,17 +1283,34 @@
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.83203125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="17.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="8"/>
+      <c r="S1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1055,447 +1318,672 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="15">
         <v>66</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="18">
+      <c r="I3" s="15"/>
+      <c r="J3" s="18">
         <v>43852</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" s="28"/>
+      <c r="S3" s="27"/>
+    </row>
+    <row r="4" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="15">
         <v>28</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="18">
+      <c r="I4" s="15"/>
+      <c r="J4" s="18">
         <v>43853</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="16">
+        <f t="shared" ref="N4:N16" si="0">COUNTIF(F$3:F$69,M4)</f>
+        <v>15</v>
+      </c>
+      <c r="O4" s="28">
+        <v>3</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="S4" s="27"/>
+    </row>
+    <row r="5" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="15">
         <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="18">
+      <c r="I5" s="15"/>
+      <c r="J5" s="18">
         <v>43862</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S5" s="27"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="13">
         <v>25</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14">
+        <v>43862</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14">
-        <v>43862</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="24"/>
+      <c r="M6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O6" s="28"/>
+      <c r="S6" s="26">
+        <v>43900</v>
+      </c>
+      <c r="T6" t="s">
+        <v>141</v>
+      </c>
+      <c r="U6">
+        <v>60</v>
+      </c>
+      <c r="W6" s="25">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="13">
         <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="14">
+      <c r="I7" s="13"/>
+      <c r="J7" s="14">
         <v>43860</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="24"/>
+      <c r="M7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O7" s="28">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>159</v>
+      </c>
+      <c r="S7" s="26">
+        <v>43902</v>
+      </c>
+      <c r="T7" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="13">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="14">
+      <c r="I8" s="13"/>
+      <c r="J8" s="14">
         <v>43860</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="24"/>
+      <c r="M8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O8" s="28">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="13">
         <v>73</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="14">
+      <c r="I9" s="13"/>
+      <c r="J9" s="14">
         <v>43861</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O9" s="28">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="13">
         <v>29</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="14">
+      <c r="I10" s="13"/>
+      <c r="J10" s="14">
         <v>43864</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="K10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="24"/>
+      <c r="M10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="28">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S10" s="26">
+        <v>43906</v>
+      </c>
+      <c r="T10" t="s">
+        <v>136</v>
+      </c>
+      <c r="U10">
+        <v>46</v>
+      </c>
+      <c r="V10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13">
         <v>30</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="14">
+      <c r="I11" s="13"/>
+      <c r="J11" s="14">
         <v>43865</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="24"/>
+      <c r="M11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O11" s="28">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="13">
         <v>42</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="14">
+      <c r="I12" s="13"/>
+      <c r="J12" s="14">
         <v>43865</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="K12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="28">
+        <v>3</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="13">
         <v>49</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14">
+        <v>43867</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14">
-        <v>43867</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="13">
         <v>16</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14">
+        <v>43867</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14">
-        <v>43867</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="13">
         <v>29</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="14">
+      <c r="I15" s="13"/>
+      <c r="J15" s="14">
         <v>43868</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="13">
         <v>55</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14">
+        <v>43870</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14">
-        <v>43870</v>
-      </c>
-      <c r="J16" s="13" t="s">
+      <c r="L16" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14">
+        <v>43872</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
+      <c r="L17" s="24"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14">
-        <v>43872</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="C18" s="13">
         <v>50</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14">
+        <v>43873</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14">
-        <v>43873</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
@@ -1503,29 +1991,30 @@
         <v>26</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="17">
         <v>43896</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="K19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1533,25 +2022,37 @@
         <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4">
+        <v>43897</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4">
-        <v>43897</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="24"/>
+      <c r="M20" t="s">
+        <v>161</v>
+      </c>
+      <c r="N20">
+        <f>SUM(N4:N19)</f>
+        <v>66</v>
+      </c>
+      <c r="O20" s="1">
+        <f>SUM(O4:O19)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1559,27 +2060,28 @@
         <v>64</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4">
+        <v>122</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4">
         <v>43897</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1587,27 +2089,28 @@
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4">
+        <v>122</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4">
         <v>43897</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1615,29 +2118,32 @@
         <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="4">
         <v>43898</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>5</v>
       </c>
@@ -1645,29 +2151,32 @@
         <v>60</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="6">
         <v>43898</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1675,29 +2184,32 @@
         <v>66</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="6">
         <v>43898</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
@@ -1705,59 +2217,65 @@
         <v>58</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="6">
         <v>43898</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="6">
         <v>43898</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
@@ -1765,29 +2283,32 @@
         <v>50</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="6">
         <v>43898</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
@@ -1795,29 +2316,32 @@
         <v>67</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="6">
         <v>43898</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
@@ -1825,29 +2349,32 @@
         <v>74</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="6">
         <v>43898</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>12</v>
       </c>
@@ -1855,29 +2382,32 @@
         <v>58</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="6">
         <v>43898</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
@@ -1885,633 +2415,1119 @@
         <v>60</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="6">
         <v>43898</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="24"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="5">
         <v>49</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="6">
         <v>43899</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="24"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="5">
         <v>24</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="6">
+        <v>43900</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6">
-        <v>43900</v>
-      </c>
-      <c r="J34" s="5" t="s">
+      <c r="L34" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C35" s="5">
         <v>58</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="6">
+        <v>42</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="6">
         <v>43900</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="C36" s="19">
         <v>51</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20">
+        <v>43900</v>
+      </c>
+      <c r="K36" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20">
-        <v>43900</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="13">
         <v>28</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="14">
+      <c r="I37" s="13"/>
+      <c r="J37" s="14">
         <v>43901</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="K37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="13">
         <v>64</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14">
+        <v>43901</v>
+      </c>
+      <c r="K38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14">
-        <v>43901</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="24"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="13">
         <v>37</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14">
+        <v>43901</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="L39" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14">
-        <v>43901</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" s="24"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="C40" s="13">
         <v>28</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14">
+        <v>43901</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="L40" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14">
-        <v>43901</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="13">
         <v>26</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H41" s="13"/>
-      <c r="I41" s="14">
+      <c r="I41" s="13"/>
+      <c r="J41" s="14">
         <v>43902</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="K41" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="13">
         <v>2</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14">
+        <v>43902</v>
+      </c>
+      <c r="K42" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14">
-        <v>43902</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="24"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="13">
         <v>59</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14">
+        <v>43902</v>
+      </c>
+      <c r="K43" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14">
-        <v>43902</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" s="24"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="13">
         <v>28</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14">
+        <v>43902</v>
+      </c>
+      <c r="K44" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14">
-        <v>43902</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="24"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="13">
         <v>47</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="14">
+        <v>43902</v>
+      </c>
+      <c r="K45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="L45" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14">
-        <v>43902</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="13">
         <v>13</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14">
+        <v>43902</v>
+      </c>
+      <c r="K46" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="L46" s="24"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14">
-        <v>43902</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K46" s="24"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="C47" s="13">
         <v>25</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G47" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="14">
+        <v>43903</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14">
-        <v>43903</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="C48" s="13">
         <v>30</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14">
+        <v>121</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="14">
         <v>43903</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="K48" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K48" s="24"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="13">
         <v>43</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G49" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="14">
+        <v>43903</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="24"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14">
-        <v>43903</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="13">
         <v>31</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14">
+        <v>122</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14">
         <v>43904</v>
       </c>
-      <c r="J50" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="24"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" s="24"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" s="13">
         <v>71</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G51" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="14">
+      <c r="I51" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="14">
         <v>43904</v>
       </c>
-      <c r="J51" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C52" s="13">
         <v>50</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14">
+        <v>121</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14">
         <v>43904</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="K52" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="24"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C53" s="13">
         <v>22</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="H53" s="13"/>
-      <c r="I53" s="14">
+      <c r="I53" s="13"/>
+      <c r="J53" s="14">
         <v>43904</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="K53" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K53" s="24"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="24"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54" s="13">
         <v>24</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="H54" s="13"/>
-      <c r="I54" s="14">
+      <c r="I54" s="13"/>
+      <c r="J54" s="14">
         <v>43904</v>
       </c>
-      <c r="J54" s="13"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L54" s="24"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" s="13">
         <v>53</v>
       </c>
       <c r="D55" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J55" s="14">
+        <v>43904</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="13">
         <v>33</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="14">
-        <v>43904</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K55" s="24"/>
+      <c r="D56" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14">
+        <v>43905</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="13">
+        <v>35</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J57" s="14">
+        <v>43905</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="13">
+        <v>30</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="14">
+        <v>43905</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="24"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="13">
+        <v>66</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="14">
+        <v>43905</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="13">
+        <v>26</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14">
+        <v>43906</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="L60" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="13">
+        <v>30</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="14">
+        <v>43906</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="13">
+        <v>29</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="14">
+        <v>43906</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="24"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="13">
+        <v>42</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J63" s="14">
+        <v>43906</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="13">
+        <v>18</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14">
+        <v>43907</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L64" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" s="13">
+        <v>20</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J65" s="14">
+        <v>43907</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="24"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="13">
+        <v>36</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="J66" s="14">
+        <v>43907</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="L66" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="13">
+        <v>28</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14">
+        <v>43907</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="L67" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="13">
+        <v>21</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J68" s="14">
+        <v>43907</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="M4:N16">
+    <sortCondition descending="1" ref="N4:N16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Covid-19.xlsx
+++ b/Covid-19.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="1580" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$3:$N$15</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$M$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$F$101</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$M$2</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="193">
-  <si>
-    <t>Mã số BN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="255">
   <si>
     <t>Tuổi</t>
   </si>
@@ -375,9 +372,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Huế</t>
-  </si>
-  <si>
     <t>BN50</t>
   </si>
   <si>
@@ -498,27 +492,6 @@
     <t>VNN0054 Từ London -HN về 9/3</t>
   </si>
   <si>
-    <t>tổng</t>
-  </si>
-  <si>
-    <t>2 Anh</t>
-  </si>
-  <si>
-    <t>3 Anh</t>
-  </si>
-  <si>
-    <t>3 Anh, 1 Iceland</t>
-  </si>
-  <si>
-    <t>2 TQ, 1 Mỹ, 1 Séc, 1 Latvia</t>
-  </si>
-  <si>
-    <t>nước ngoài</t>
-  </si>
-  <si>
-    <t>TỔNG</t>
-  </si>
-  <si>
     <t>BN58</t>
   </si>
   <si>
@@ -540,9 +513,6 @@
     <t>Pháp</t>
   </si>
   <si>
-    <t>1 Anh, 1 Đức, 1 Pháp</t>
-  </si>
-  <si>
     <t>BN61</t>
   </si>
   <si>
@@ -570,9 +540,6 @@
     <t>BN62</t>
   </si>
   <si>
-    <t>VN-Thuỵ điển Uông Bí</t>
-  </si>
-  <si>
     <t>BN63</t>
   </si>
   <si>
@@ -610,6 +577,225 @@
   </si>
   <si>
     <t>ghế 6G</t>
+  </si>
+  <si>
+    <t>Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t>lễ hội Hồi giáo</t>
+  </si>
+  <si>
+    <t>BN67</t>
+  </si>
+  <si>
+    <t>lễ hội hồi giáo</t>
+  </si>
+  <si>
+    <t>BN68</t>
+  </si>
+  <si>
+    <t>BN69</t>
+  </si>
+  <si>
+    <t>SU290</t>
+  </si>
+  <si>
+    <t>BN70</t>
+  </si>
+  <si>
+    <t>TK164</t>
+  </si>
+  <si>
+    <t>Từ Anh về Nội Bài</t>
+  </si>
+  <si>
+    <t>BN71</t>
+  </si>
+  <si>
+    <t>BN72</t>
+  </si>
+  <si>
+    <t>Bạn gái BN60</t>
+  </si>
+  <si>
+    <t>BN73</t>
+  </si>
+  <si>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>TTYT Thanh Miện</t>
+  </si>
+  <si>
+    <t>quê Hải Dương</t>
+  </si>
+  <si>
+    <t>BV đa khoa tỉnh Bắc Ninh</t>
+  </si>
+  <si>
+    <t>BN74</t>
+  </si>
+  <si>
+    <t>BN75</t>
+  </si>
+  <si>
+    <t>VN50</t>
+  </si>
+  <si>
+    <t>Anh về TP.HCM</t>
+  </si>
+  <si>
+    <t>BN76</t>
+  </si>
+  <si>
+    <t>TK162</t>
+  </si>
+  <si>
+    <t>Thổ Nhĩ Kỳ - TPHCM ngày 10/3</t>
+  </si>
+  <si>
+    <t>BN77</t>
+  </si>
+  <si>
+    <t>QR976</t>
+  </si>
+  <si>
+    <t>Từ Anh về HN 17/3</t>
+  </si>
+  <si>
+    <t>BN78</t>
+  </si>
+  <si>
+    <t>EK394</t>
+  </si>
+  <si>
+    <t>Từ Anh về HN ngày 17/3</t>
+  </si>
+  <si>
+    <t>BN79</t>
+  </si>
+  <si>
+    <t>quê Bạc Liêu</t>
+  </si>
+  <si>
+    <t>Bn80</t>
+  </si>
+  <si>
+    <t>con BN79</t>
+  </si>
+  <si>
+    <t>BV Dã Chiến Củ Chi</t>
+  </si>
+  <si>
+    <t>Từ Anh về TP.HCM ngày 14/3</t>
+  </si>
+  <si>
+    <t>BN81</t>
+  </si>
+  <si>
+    <t>quê Kon Tum</t>
+  </si>
+  <si>
+    <t>EF258</t>
+  </si>
+  <si>
+    <t>BN82</t>
+  </si>
+  <si>
+    <t>EK30</t>
+  </si>
+  <si>
+    <t>Từ Anh về TP.HCM ngày 15/3</t>
+  </si>
+  <si>
+    <t>Từ Pháp về TP.HCM 15/3</t>
+  </si>
+  <si>
+    <t>BN83</t>
+  </si>
+  <si>
+    <t>Từ Thổ Nhĩ Kỳ - TP.HCM 15/3</t>
+  </si>
+  <si>
+    <t>BN84</t>
+  </si>
+  <si>
+    <t>Từ Anh - Nội Bài 18/3</t>
+  </si>
+  <si>
+    <t>BN85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BV Bệnh nhiệt đới TƯ </t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Từ Anh - Nội Bài 9/3</t>
+  </si>
+  <si>
+    <t>BN86</t>
+  </si>
+  <si>
+    <t>Điều dưỡng BM, đi Côn Đảo 6/3</t>
+  </si>
+  <si>
+    <t>BN87</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bạch Mai</t>
+  </si>
+  <si>
+    <t>Bạch Mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN88 </t>
+  </si>
+  <si>
+    <t>Từ Anh về 12/3</t>
+  </si>
+  <si>
+    <t>BN89</t>
+  </si>
+  <si>
+    <t>NH831</t>
+  </si>
+  <si>
+    <t>BN90</t>
+  </si>
+  <si>
+    <t>BN91</t>
+  </si>
+  <si>
+    <t>phi công VNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/3 cách ly tập trung all </t>
+  </si>
+  <si>
+    <t>15/3 Cách ly tập trung 31 nước</t>
+  </si>
+  <si>
+    <t>28/2 Cách ly tập trung Ý, Iran</t>
+  </si>
+  <si>
+    <t>BN92</t>
+  </si>
+  <si>
+    <t>quê Lâm Đồng</t>
+  </si>
+  <si>
+    <t>BN93</t>
+  </si>
+  <si>
+    <t>Du học sinh Hungary</t>
+  </si>
+  <si>
+    <t>BN94</t>
+  </si>
+  <si>
+    <t>quê Bắc Giang</t>
   </si>
 </sst>
 </file>
@@ -649,7 +835,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +851,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -795,10 +993,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,10 +1200,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:L68" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="B2:L68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:L97" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="B2:L97"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Mã số BN" dataDxfId="10"/>
+    <tableColumn id="1" name="T" dataDxfId="10"/>
     <tableColumn id="2" name="Tuổi" dataDxfId="9"/>
     <tableColumn id="3" name="Giới tính" dataDxfId="8"/>
     <tableColumn id="4" name="Quốc tịch" dataDxfId="7"/>
@@ -1270,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W68"/>
+  <dimension ref="B1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A55" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="136" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="136" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1494,8 @@
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
@@ -1297,54 +1510,63 @@
     <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
+      <c r="M1">
+        <v>14</v>
+      </c>
+      <c r="N1">
+        <f>SUM(N3:N19)</f>
+        <v>94</v>
+      </c>
       <c r="S1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" t="s">
         <v>137</v>
-      </c>
-      <c r="T1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>4</v>
-      </c>
       <c r="L2" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="10"/>
+        <v>112</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="N2" s="10"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
@@ -1352,22 +1574,22 @@
     </row>
     <row r="3" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="15">
         <v>66</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -1375,39 +1597,38 @@
         <v>43852</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="23"/>
-      <c r="M3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>160</v>
-      </c>
+      <c r="M3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="29">
+        <f t="shared" ref="N3:N16" si="0">COUNTIF(F$3:F$200,M3)</f>
+        <v>29</v>
+      </c>
+      <c r="O3" s="37"/>
       <c r="P3" s="28"/>
       <c r="S3" s="27"/>
     </row>
     <row r="4" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="15">
         <v>28</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1415,40 +1636,36 @@
         <v>43853</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" s="23"/>
-      <c r="M4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="16">
-        <f t="shared" ref="N4:N16" si="0">COUNTIF(F$3:F$69,M4)</f>
-        <v>15</v>
-      </c>
-      <c r="O4" s="28">
-        <v>3</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>169</v>
-      </c>
+      <c r="M4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="29">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
       <c r="S4" s="27"/>
     </row>
     <row r="5" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="15">
         <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -1456,13 +1673,13 @@
         <v>43862</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="16">
+        <v>67</v>
+      </c>
+      <c r="N5" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1470,20 +1687,20 @@
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="13">
         <v>25</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -1491,22 +1708,23 @@
         <v>43862</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="M6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="O6" s="28"/>
+      <c r="P6"/>
       <c r="S6" s="26">
         <v>43900</v>
       </c>
       <c r="T6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U6">
         <v>60</v>
@@ -1517,20 +1735,20 @@
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="13">
         <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1538,48 +1756,42 @@
         <v>43860</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="16">
+      <c r="M7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="29">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O7" s="28">
-        <v>5</v>
-      </c>
-      <c r="P7" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="S7" s="26">
         <v>43902</v>
       </c>
       <c r="T7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="13">
         <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -1587,41 +1799,36 @@
         <v>43860</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="16">
+        <v>38</v>
+      </c>
+      <c r="N8" s="29">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O8" s="28">
         <v>4</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="13">
         <v>73</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -1629,39 +1836,34 @@
         <v>43861</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="16">
+        <v>41</v>
+      </c>
+      <c r="N9" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O9" s="28">
-        <v>2</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="13">
         <v>29</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -1669,51 +1871,46 @@
         <v>43864</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="M10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="29">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O10" s="28">
         <v>2</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="O10" s="28"/>
       <c r="S10" s="26">
         <v>43906</v>
       </c>
       <c r="T10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U10">
         <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="13">
         <v>30</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1721,39 +1918,34 @@
         <v>43865</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="16">
+        <v>39</v>
+      </c>
+      <c r="N11" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O11" s="28">
-        <v>2</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="13">
         <v>42</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -1761,41 +1953,36 @@
         <v>43865</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N12" s="16">
+        <v>182</v>
+      </c>
+      <c r="N12" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O12" s="28">
-        <v>3</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="13">
         <v>49</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -1803,36 +1990,36 @@
         <v>43867</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="16">
+        <v>123</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="N13" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="28"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="13">
         <v>16</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -1840,15 +2027,15 @@
         <v>43867</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="16">
+        <v>121</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1856,20 +2043,20 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="13">
         <v>29</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -1877,33 +2064,33 @@
         <v>43868</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="16">
+      <c r="M15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="13">
         <v>55</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -1911,13 +2098,13 @@
         <v>43870</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>171</v>
+        <v>127</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="N16" s="29">
         <f t="shared" si="0"/>
@@ -1926,20 +2113,20 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1947,29 +2134,29 @@
         <v>43872</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="24"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="3"/>
       <c r="O17" s="13"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="13">
         <v>50</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1977,87 +2164,71 @@
         <v>43873</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>126</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="36">
+        <v>43889</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="16">
         <v>26</v>
       </c>
-      <c r="C19" s="16">
-        <v>26</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="17">
+      <c r="D20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="17">
         <v>43896</v>
       </c>
-      <c r="K19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="3">
-        <v>27</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4">
-        <v>43897</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>33</v>
+      <c r="K20" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="L20" s="24"/>
-      <c r="M20" t="s">
-        <v>161</v>
-      </c>
-      <c r="N20">
-        <f>SUM(N4:N19)</f>
-        <v>66</v>
-      </c>
-      <c r="O20" s="1">
-        <f>SUM(O4:O19)</f>
-        <v>21</v>
-      </c>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>31</v>
@@ -2067,36 +2238,34 @@
         <v>28</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4">
         <v>43897</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="3">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="3"/>
@@ -2104,10 +2273,10 @@
         <v>43897</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
@@ -2115,322 +2284,318 @@
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="4">
+        <v>43897</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="4">
         <v>43898</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5">
-        <v>60</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="6">
-        <v>43898</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="24"/>
+      <c r="K24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="5">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" s="6">
         <v>43898</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" s="24"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="5">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" s="6">
         <v>43898</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L26" s="24"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" s="5">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" s="6">
         <v>43898</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="I28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" s="6">
         <v>43898</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L28" s="24"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" s="5">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J29" s="6">
         <v>43898</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L29" s="24"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J30" s="6">
         <v>43898</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L30" s="24"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C31" s="5">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" s="6">
         <v>43898</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L31" s="24"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5">
+        <v>58</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="5">
-        <v>60</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" s="6">
         <v>43898</v>
@@ -2442,215 +2607,217 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C33" s="5">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" s="6">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L33" s="24"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34" s="5">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F34" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="J34" s="6">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>131</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L34" s="24"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C35" s="5">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="5"/>
       <c r="J35" s="6">
         <v>43900</v>
       </c>
       <c r="K35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="5">
+        <v>58</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="6">
+        <v>43900</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="24"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
+      <c r="C37" s="19">
+        <v>51</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="19">
-        <v>51</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19" t="s">
+      <c r="G37" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20">
+        <v>43900</v>
+      </c>
+      <c r="K37" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20">
-        <v>43900</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" s="24"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="13">
-        <v>28</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14">
-        <v>43901</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>132</v>
-      </c>
+      <c r="L37" s="24"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" s="13">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>82</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="14">
         <v>43901</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C39" s="13">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="14">
         <v>43901</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -2658,435 +2825,439 @@
         <v>84</v>
       </c>
       <c r="C40" s="13">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="14">
         <v>43901</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C41" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="14">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="13">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>107</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="14">
         <v>43902</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L42" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="13">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="14">
         <v>43902</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L43" s="24"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C44" s="13">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="14">
         <v>43902</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L44" s="24"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="13">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="14">
         <v>43902</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>112</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L45" s="24"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="13">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="14">
         <v>43902</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L46" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="L46" s="24" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" s="13">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="14">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L47" s="24"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C48" s="13">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="14">
         <v>43903</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="24" t="s">
-        <v>154</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L48" s="24"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C49" s="13">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="14">
         <v>43903</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="L49" s="24" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C50" s="13">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="14">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="L50" s="24"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C51" s="13">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>14</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E51" s="13"/>
       <c r="F51" s="13" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>36</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="I51" s="13"/>
       <c r="J51" s="14">
         <v>43904</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L51" s="24" t="s">
-        <v>111</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L51" s="24"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C52" s="13">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="F52" s="13" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I52" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="J52" s="14">
         <v>43904</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C53" s="13">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H53" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="I53" s="13"/>
       <c r="J53" s="14">
         <v>43904</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C54" s="13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -3094,154 +3265,152 @@
         <v>43904</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="L54" s="24"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C55" s="13">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>119</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H55" s="13"/>
-      <c r="I55" s="13" t="s">
-        <v>175</v>
-      </c>
+      <c r="I55" s="13"/>
       <c r="J55" s="14">
         <v>43904</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>174</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="L55" s="24"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C56" s="13">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="I56" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="J56" s="14">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L56" s="24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C57" s="13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H57" s="13"/>
-      <c r="I57" s="13" t="s">
-        <v>149</v>
-      </c>
+      <c r="I57" s="13"/>
       <c r="J57" s="14">
         <v>43905</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="L57" s="24" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C58" s="13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
+      <c r="I58" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="J58" s="14">
         <v>43905</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="L58" s="24" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C59" s="13">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -3249,284 +3418,1181 @@
         <v>43905</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L59" s="24" t="s">
-        <v>153</v>
+        <v>20</v>
+      </c>
+      <c r="L59" s="35" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C60" s="13">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E60" s="13"/>
+      <c r="E60" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="F60" s="13" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="14">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="L60" s="24" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C61" s="13">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H61" s="13"/>
-      <c r="I61" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="I61" s="13"/>
       <c r="J61" s="14">
         <v>43906</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="L61" s="24" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C62" s="13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>168</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E62" s="13"/>
       <c r="F62" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="I62" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="J62" s="14">
         <v>43906</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="L62" s="24" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C63" s="13">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="F63" s="13" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H63" s="13"/>
-      <c r="I63" s="13" t="s">
-        <v>177</v>
-      </c>
+      <c r="I63" s="13"/>
       <c r="J63" s="14">
         <v>43906</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="L63" s="31" t="s">
-        <v>176</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L63" s="24"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="13" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C64" s="13">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="J64" s="14">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="L64" s="24" t="s">
-        <v>181</v>
+        <v>162</v>
+      </c>
+      <c r="L64" s="30" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C65" s="13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H65" s="13"/>
-      <c r="I65" s="13" t="s">
-        <v>182</v>
-      </c>
+      <c r="I65" s="13"/>
       <c r="J65" s="14">
         <v>43907</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="L65" s="24" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C66" s="13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="J66" s="14">
         <v>43907</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="L66" s="24" t="s">
-        <v>186</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L66" s="24"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="13" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C67" s="13">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
+      <c r="I67" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="J67" s="14">
         <v>43907</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L67" s="24" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C68" s="13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H68" s="13"/>
-      <c r="I68" s="13" t="s">
-        <v>191</v>
-      </c>
+      <c r="I68" s="13"/>
       <c r="J68" s="14">
         <v>43907</v>
       </c>
       <c r="K68" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="L68" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="13">
+        <v>21</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="J69" s="14">
+        <v>43907</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="13">
+        <v>36</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="L68" s="13" t="s">
+      <c r="I70" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J70" s="14">
+        <v>43908</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="L70" s="24"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="13">
+        <v>41</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14">
+        <v>43908</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71" s="24"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="13">
+        <v>30</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="J72" s="14">
+        <v>43908</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="24"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="13">
+        <v>19</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J73" s="14">
+        <v>43908</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="13" t="s">
         <v>192</v>
       </c>
+      <c r="C74" s="13">
+        <v>19</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J74" s="14">
+        <v>43908</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="13">
+        <v>25</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="14">
+        <v>43908</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="13">
+        <v>11</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" s="34">
+        <v>43899</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J76" s="14">
+        <v>43908</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="L76" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="13">
+        <v>23</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14">
+        <v>43908</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="L77" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="13">
+        <v>40</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="J78" s="14">
+        <v>43908</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L78" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" s="13">
+        <v>52</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="J79" s="14">
+        <v>43908</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="13">
+        <v>25</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J80" s="14">
+        <v>43909</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="13">
+        <v>22</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J81" s="14">
+        <v>43909</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="13">
+        <v>48</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J82" s="14">
+        <v>43909</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="L82" s="24"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C83" s="13">
+        <v>18</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J83" s="14">
+        <v>43909</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L83" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="13">
+        <v>20</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84" s="14">
+        <v>43909</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L84" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="13">
+        <v>16</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J85" s="14">
+        <v>43909</v>
+      </c>
+      <c r="K85" s="13"/>
+      <c r="L85" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="13">
+        <v>50</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="J86" s="14">
+        <v>43909</v>
+      </c>
+      <c r="K86" s="13"/>
+      <c r="L86" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" s="13">
+        <v>21</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J87" s="14">
+        <v>43909</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="L87" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="13">
+        <v>20</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J88" s="14">
+        <v>43909</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" s="13">
+        <v>54</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I89" s="13"/>
+      <c r="J89" s="14">
+        <v>43910</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="13">
+        <v>34</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I90" s="13"/>
+      <c r="J90" s="14">
+        <v>43910</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L90" s="24"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" s="13">
+        <v>25</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="14">
+        <v>43910</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L91" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" s="13">
+        <v>22</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J92" s="14">
+        <v>43910</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L92" s="24"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" s="13">
+        <v>21</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J93" s="14">
+        <v>43910</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="L93" s="24"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B94" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" s="13">
+        <v>43</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I94" s="13"/>
+      <c r="J94" s="14">
+        <v>43910</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L94" s="24"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B95" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" s="13">
+        <v>21</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J95" s="14">
+        <v>43911</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="L95" s="35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B96" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" s="13">
+        <v>20</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="J96" s="14">
+        <v>43911</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" s="24"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B97" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" s="13">
+        <v>64</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="J97" s="14">
+        <v>43911</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="M4:N16">
-    <sortCondition descending="1" ref="N4:N16"/>
+  <sortState ref="M3:N16">
+    <sortCondition descending="1" ref="N3:N16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Covid-19.xlsx
+++ b/Covid-19.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DU LIEU/Dropbox/"/>
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$F$101</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$F$122</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$N$2</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="315">
   <si>
     <t>Tuổi</t>
   </si>
@@ -576,9 +576,6 @@
     <t>BR 395</t>
   </si>
   <si>
-    <t>ghế 6G</t>
-  </si>
-  <si>
     <t>Thừa Thiên Huế</t>
   </si>
   <si>
@@ -627,9 +624,6 @@
     <t>TTYT Thanh Miện</t>
   </si>
   <si>
-    <t>quê Hải Dương</t>
-  </si>
-  <si>
     <t>BV đa khoa tỉnh Bắc Ninh</t>
   </si>
   <si>
@@ -729,9 +723,6 @@
     <t xml:space="preserve">BV Bệnh nhiệt đới TƯ </t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Từ Anh - Nội Bài 9/3</t>
   </si>
   <si>
@@ -771,9 +762,6 @@
     <t>phi công VNA</t>
   </si>
   <si>
-    <t xml:space="preserve">21/3 cách ly tập trung all </t>
-  </si>
-  <si>
     <t>15/3 Cách ly tập trung 31 nước</t>
   </si>
   <si>
@@ -796,6 +784,198 @@
   </si>
   <si>
     <t>quê Bắc Giang</t>
+  </si>
+  <si>
+    <t>du học sinh Anh</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>quê Phú Thọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/3 cách ly tập trung all </t>
+  </si>
+  <si>
+    <t>BN95</t>
+  </si>
+  <si>
+    <t>BN96</t>
+  </si>
+  <si>
+    <t>BN97</t>
+  </si>
+  <si>
+    <t>BN98</t>
+  </si>
+  <si>
+    <t>BN99</t>
+  </si>
+  <si>
+    <t>AF258</t>
+  </si>
+  <si>
+    <t>Bar Buddha BN91</t>
+  </si>
+  <si>
+    <t>Quận 12</t>
+  </si>
+  <si>
+    <t>từ Pháp về</t>
+  </si>
+  <si>
+    <t>TỔNG</t>
+  </si>
+  <si>
+    <t>Nước ngoài</t>
+  </si>
+  <si>
+    <t>Lquan nước ngoài</t>
+  </si>
+  <si>
+    <t>Nc ngoài</t>
+  </si>
+  <si>
+    <t>BN51</t>
+  </si>
+  <si>
+    <t>du học sinh</t>
+  </si>
+  <si>
+    <t>Đi Mỹ, Canad, Đài Loan - VN</t>
+  </si>
+  <si>
+    <t>Từ Anh về</t>
+  </si>
+  <si>
+    <t>đi Mỹ, Nhật -VN</t>
+  </si>
+  <si>
+    <t>Tây Ban Nha - VN</t>
+  </si>
+  <si>
+    <t>BN100</t>
+  </si>
+  <si>
+    <t>AK524</t>
+  </si>
+  <si>
+    <t>Từ Malaysia</t>
+  </si>
+  <si>
+    <t>BN101</t>
+  </si>
+  <si>
+    <t>Đồng Tháp</t>
+  </si>
+  <si>
+    <t>quê Vũng Tàu</t>
+  </si>
+  <si>
+    <t>VN0050</t>
+  </si>
+  <si>
+    <t>Khu Cách ly Đồng Tháp</t>
+  </si>
+  <si>
+    <t>Từ Anh về Cần Thơ ngày 18/3</t>
+  </si>
+  <si>
+    <t>BN102</t>
+  </si>
+  <si>
+    <t>quê Hà Nội</t>
+  </si>
+  <si>
+    <t>BN103</t>
+  </si>
+  <si>
+    <t>quê TP.HCM</t>
+  </si>
+  <si>
+    <t>BN104</t>
+  </si>
+  <si>
+    <t>Khu cách ly Đồng Tháp</t>
+  </si>
+  <si>
+    <t>BN105</t>
+  </si>
+  <si>
+    <t>AK575</t>
+  </si>
+  <si>
+    <t>Từ Malaysia về Cần Thơ 18/3</t>
+  </si>
+  <si>
+    <t>Khu Cách ly Trà Vinh</t>
+  </si>
+  <si>
+    <t>Trà Vinh</t>
+  </si>
+  <si>
+    <t>quê An Giang</t>
+  </si>
+  <si>
+    <t>BN106</t>
+  </si>
+  <si>
+    <t>BN107</t>
+  </si>
+  <si>
+    <t>con gái BN86</t>
+  </si>
+  <si>
+    <t>BN108</t>
+  </si>
+  <si>
+    <t>DHS UK về ngày 18/3 (ghế 3K), xn lần 1 âm tính, lúc đầu cách ly tại KS. Hoà Bình, Hoàn Kiếm</t>
+  </si>
+  <si>
+    <t>BN109</t>
+  </si>
+  <si>
+    <t>TG560</t>
+  </si>
+  <si>
+    <t>giảng viên UK, về 15/3 (transit Bangkok, ghế 37E), xn lần 1 âm tính, lúc đầu cách ly tại Trường QS. Thị xã Sơn Tây.</t>
+  </si>
+  <si>
+    <t>BN110</t>
+  </si>
+  <si>
+    <t>JL571</t>
+  </si>
+  <si>
+    <t>DHS Mỹ, về 19/3 (transit Nhật, ghế 1A), tiếp xúc F0 Mỹ 8/3.</t>
+  </si>
+  <si>
+    <t>BN111</t>
+  </si>
+  <si>
+    <t>quê Nam Định</t>
+  </si>
+  <si>
+    <t>VN018</t>
+  </si>
+  <si>
+    <t>DHS Pháp, về 18/3 (ghế 36D)</t>
+  </si>
+  <si>
+    <t>BN112</t>
+  </si>
+  <si>
+    <t>DHS Pháp, về 18/3 (ghế 22V), làm hàng phở tại Pháp có tiếp xúc người có biểu hiện</t>
+  </si>
+  <si>
+    <t>BN113</t>
+  </si>
+  <si>
+    <t>22/3: 19 ca</t>
+  </si>
+  <si>
+    <t>TT</t>
   </si>
 </sst>
 </file>
@@ -806,7 +986,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -834,8 +1014,23 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,13 +1051,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -994,28 +1195,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1036,6 +1249,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1200,16 +1422,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:L97" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="B2:L97"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="T" dataDxfId="10"/>
-    <tableColumn id="2" name="Tuổi" dataDxfId="9"/>
-    <tableColumn id="3" name="Giới tính" dataDxfId="8"/>
-    <tableColumn id="4" name="Quốc tịch" dataDxfId="7"/>
-    <tableColumn id="5" name="Nơi mắc" dataDxfId="6"/>
-    <tableColumn id="11" name="F " dataDxfId="5"/>
-    <tableColumn id="6" name="Hạng bay" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:M122" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="B2:M122"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="TT" dataDxfId="11"/>
+    <tableColumn id="2" name="Tuổi" dataDxfId="10"/>
+    <tableColumn id="3" name="Giới tính" dataDxfId="9"/>
+    <tableColumn id="4" name="Quốc tịch" dataDxfId="8"/>
+    <tableColumn id="5" name="Nơi mắc" dataDxfId="7"/>
+    <tableColumn id="11" name="F " dataDxfId="6"/>
+    <tableColumn id="6" name="Hạng bay" dataDxfId="5"/>
+    <tableColumn id="12" name="Nc ngoài" dataDxfId="4"/>
     <tableColumn id="7" name="Chuyến bay" dataDxfId="3"/>
     <tableColumn id="8" name="Ngày mắc" dataDxfId="2"/>
     <tableColumn id="9" name="Nơi điều trị" dataDxfId="1"/>
@@ -1482,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W97"/>
+  <dimension ref="B1:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="136" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="136" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,41 +1721,50 @@
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.83203125" style="21" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
-    <col min="16" max="16" width="17.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="26"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" style="21" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="14.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="M1">
+      <c r="N1">
         <v>14</v>
       </c>
-      <c r="N1">
-        <f>SUM(N3:N19)</f>
-        <v>94</v>
-      </c>
-      <c r="S1" s="26" t="s">
+      <c r="O1">
+        <f>SUM(O3:O39)</f>
+        <v>113</v>
+      </c>
+      <c r="P1" s="1">
+        <f>SUM(P3:P18)</f>
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1">
+        <f>SUM(I3:I136)</f>
+        <v>85</v>
+      </c>
+      <c r="T1" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>136</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>140</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>0</v>
@@ -1553,26 +1785,35 @@
         <v>2</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="S2" s="27"/>
-    </row>
-    <row r="3" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="T2" s="27"/>
+    </row>
+    <row r="3" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>51</v>
       </c>
@@ -1592,26 +1833,31 @@
         <v>119</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="18">
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="18">
         <v>43852</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="29">
-        <f t="shared" ref="N3:N16" si="0">COUNTIF(F$3:F$200,M3)</f>
-        <v>29</v>
-      </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="28"/>
-      <c r="S3" s="27"/>
-    </row>
-    <row r="4" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="29">
+        <f>COUNTIF(F$3:F$200,N3)</f>
+        <v>35</v>
+      </c>
+      <c r="P3" s="35">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="28"/>
+      <c r="T3" s="27"/>
+    </row>
+    <row r="4" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>52</v>
       </c>
@@ -1631,26 +1877,31 @@
         <v>120</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="18">
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="18">
         <v>43853</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="23"/>
+      <c r="N4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="29">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="S4" s="27"/>
-    </row>
-    <row r="5" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="29">
+        <f>COUNTIF(F$3:F$200,N4)</f>
+        <v>27</v>
+      </c>
+      <c r="P4" s="28">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="28"/>
+      <c r="T4" s="27"/>
+    </row>
+    <row r="5" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>53</v>
       </c>
@@ -1668,24 +1919,27 @@
         <v>120</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="18">
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="18">
         <v>43862</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="23"/>
+      <c r="N5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="29">
-        <f t="shared" si="0"/>
+      <c r="O5" s="29">
+        <f>COUNTIF(F$3:F$200,N5)</f>
         <v>11</v>
       </c>
-      <c r="S5" s="27"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T5" s="27"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>54</v>
       </c>
@@ -1703,37 +1957,40 @@
         <v>119</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14">
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14">
         <v>43862</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="24"/>
+      <c r="N6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="29">
-        <f t="shared" si="0"/>
+      <c r="O6" s="29">
+        <f>COUNTIF(F$3:F$200,N6)</f>
         <v>9</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6"/>
-      <c r="S6" s="26">
+      <c r="P6" s="28"/>
+      <c r="Q6"/>
+      <c r="T6" s="26">
         <v>43900</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>139</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>60</v>
       </c>
-      <c r="W6" s="25">
+      <c r="X6" s="25">
         <v>43924</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
@@ -1751,32 +2008,38 @@
         <v>119</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14">
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14">
         <v>43860</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="29">
-        <f t="shared" si="0"/>
+      <c r="O7" s="29">
+        <f>COUNTIF(F$3:F$200,N7)</f>
         <v>6</v>
       </c>
-      <c r="S7" s="26">
+      <c r="P7" s="1">
+        <v>4</v>
+      </c>
+      <c r="T7" s="26">
         <v>43902</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>141</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>56</v>
       </c>
@@ -1794,24 +2057,29 @@
         <v>119</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14">
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14">
         <v>43860</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="29">
-        <f t="shared" si="0"/>
+      <c r="O8" s="29">
+        <f>COUNTIF(F$3:F$200,N8)</f>
         <v>4</v>
       </c>
-      <c r="O8" s="28"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P8" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
@@ -1831,24 +2099,29 @@
         <v>119</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14">
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14">
         <v>43861</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="29">
-        <f t="shared" si="0"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="O9" s="29">
+        <f>COUNTIF(F$3:F$200,N9)</f>
+        <v>4</v>
+      </c>
+      <c r="P9" s="28">
         <v>3</v>
       </c>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>58</v>
       </c>
@@ -1866,36 +2139,41 @@
         <v>119</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14">
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14">
         <v>43864</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O10" s="28"/>
-      <c r="S10" s="26">
+      <c r="M10" s="24"/>
+      <c r="N10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="29">
+        <f>COUNTIF(F$3:F$200,N10)</f>
+        <v>3</v>
+      </c>
+      <c r="P10" s="28">
+        <v>3</v>
+      </c>
+      <c r="T10" s="26">
         <v>43906</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>134</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>46</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>59</v>
       </c>
@@ -1913,24 +2191,29 @@
         <v>119</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14">
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14">
         <v>43865</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="24"/>
+      <c r="N11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="29">
-        <f t="shared" si="0"/>
+      <c r="O11" s="29">
+        <f>COUNTIF(F$3:F$200,N11)</f>
         <v>2</v>
       </c>
-      <c r="O11" s="28"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P11" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>60</v>
       </c>
@@ -1948,26 +2231,31 @@
         <v>120</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14">
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14">
         <v>43865</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="L12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="M12" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N12" s="29">
-        <f t="shared" si="0"/>
+      <c r="N12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="29">
+        <f>COUNTIF(F$3:F$200,N12)</f>
         <v>2</v>
       </c>
-      <c r="O12" s="28"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
@@ -1985,26 +2273,29 @@
         <v>120</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14">
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14">
         <v>43867</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="M13" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="N13" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="N13" s="29">
-        <f t="shared" si="0"/>
+      <c r="O13" s="29">
+        <f>COUNTIF(F$3:F$200,N13)</f>
         <v>2</v>
       </c>
-      <c r="O13" s="28"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>62</v>
       </c>
@@ -2022,26 +2313,29 @@
         <v>120</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14">
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14">
         <v>43867</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="L14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="M14" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="28"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="N14" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" s="29">
+        <f>COUNTIF(F$3:F$200,N14)</f>
+        <v>2</v>
+      </c>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>63</v>
       </c>
@@ -2059,23 +2353,26 @@
         <v>119</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14">
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14">
         <v>43868</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="L15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="M15" s="24"/>
+      <c r="N15" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="O15" s="29">
+        <f>COUNTIF(F$3:F$200,N15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>64</v>
       </c>
@@ -2093,25 +2390,28 @@
         <v>126</v>
       </c>
       <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14">
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14">
         <v>43870</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="M16" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="N16" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N16" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="O16" s="29">
+        <f>COUNTIF(F$3:F$200,N16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>65</v>
       </c>
@@ -2129,19 +2429,26 @@
         <v>125</v>
       </c>
       <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14">
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14">
         <v>43872</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="L17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M17" s="24"/>
+      <c r="N17" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O17" s="29">
+        <f>COUNTIF(F$3:F$200,N17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>66</v>
       </c>
@@ -2159,19 +2466,28 @@
         <v>120</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14">
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14">
         <v>43873</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="L18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="M18" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="29">
+        <f>COUNTIF(F$3:F$200,N18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2180,16 +2496,24 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="36">
+      <c r="J19" s="13"/>
+      <c r="K19" s="34">
         <v>43889</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L19" s="33"/>
+      <c r="M19" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="29">
+        <f>COUNTIF(F$3:F$200,N19)</f>
+        <v>1</v>
+      </c>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -2209,21 +2533,27 @@
       <c r="H20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="16">
+        <v>1</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="17">
+      <c r="K20" s="17">
         <v>43896</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="L20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M20" s="24"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="29">
+        <f>COUNTIF(F$3:F$200,N20)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2241,16 +2571,19 @@
         <v>119</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4">
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4">
         <v>43897</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
@@ -2268,18 +2601,21 @@
         <v>120</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4">
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4">
         <v>43897</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2297,18 +2633,21 @@
         <v>120</v>
       </c>
       <c r="H23" s="13"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
         <v>43897</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2328,20 +2667,23 @@
       <c r="H24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>43898</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="M24" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
@@ -2363,18 +2705,21 @@
       <c r="H25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <v>43898</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2396,18 +2741,21 @@
       <c r="H26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>43898</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
@@ -2429,18 +2777,21 @@
       <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <v>43898</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M27" s="24"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
@@ -2462,18 +2813,21 @@
       <c r="H28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>43898</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M28" s="24"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
@@ -2495,18 +2849,21 @@
       <c r="H29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <v>43898</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2528,18 +2885,21 @@
       <c r="H30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="6">
         <v>43898</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="L30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
@@ -2561,18 +2921,21 @@
       <c r="H31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <v>43898</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="L31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
@@ -2594,18 +2957,21 @@
       <c r="H32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="6">
         <v>43898</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="L32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2619,7 +2985,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>119</v>
@@ -2627,18 +2993,21 @@
       <c r="H33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="6">
+      <c r="K33" s="6">
         <v>43898</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="L33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
@@ -2660,18 +3029,21 @@
       <c r="H34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <v>43899</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="L34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
@@ -2691,18 +3063,21 @@
       <c r="H35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6">
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6">
         <v>43900</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="L35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="M35" s="24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>46</v>
       </c>
@@ -2722,18 +3097,21 @@
         <v>119</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <v>43900</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="L36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L36" s="24"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="24"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="s">
         <v>48</v>
       </c>
@@ -2751,16 +3129,19 @@
         <v>119</v>
       </c>
       <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20">
+      <c r="I37" s="19">
+        <v>1</v>
+      </c>
+      <c r="J37" s="19"/>
+      <c r="K37" s="20">
         <v>43900</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="L37" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L37" s="24"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>79</v>
       </c>
@@ -2778,18 +3159,21 @@
         <v>120</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14">
+      <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14">
         <v>43901</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="L38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="M38" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>80</v>
       </c>
@@ -2809,18 +3193,21 @@
       <c r="H39" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14">
+      <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14">
         <v>43901</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="L39" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="M39" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>84</v>
       </c>
@@ -2840,18 +3227,21 @@
       <c r="H40" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="14">
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14">
         <v>43901</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="L40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="M40" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="13" t="s">
         <v>83</v>
       </c>
@@ -2871,18 +3261,21 @@
       <c r="H41" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14">
+      <c r="I41" s="13">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14">
         <v>43901</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="L41" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="M41" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="13" t="s">
         <v>86</v>
       </c>
@@ -2900,18 +3293,21 @@
         <v>120</v>
       </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14">
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14">
         <v>43902</v>
       </c>
-      <c r="K42" s="13" t="s">
+      <c r="L42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="13" t="s">
+      <c r="M42" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
         <v>87</v>
       </c>
@@ -2931,16 +3327,19 @@
       <c r="H43" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="14">
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14">
         <v>43902</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="L43" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="13" t="s">
         <v>88</v>
       </c>
@@ -2960,16 +3359,19 @@
       <c r="H44" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="14">
+      <c r="I44" s="13">
+        <v>0</v>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14">
         <v>43902</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="L44" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L44" s="24"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="13" t="s">
         <v>90</v>
       </c>
@@ -2989,16 +3391,19 @@
       <c r="H45" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="14">
+      <c r="I45" s="13">
+        <v>0</v>
+      </c>
+      <c r="J45" s="13"/>
+      <c r="K45" s="14">
         <v>43902</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="L45" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L45" s="24"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
         <v>91</v>
       </c>
@@ -3018,18 +3423,21 @@
       <c r="H46" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="14">
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14">
         <v>43902</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="L46" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="24" t="s">
+      <c r="M46" s="24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
         <v>92</v>
       </c>
@@ -3049,16 +3457,19 @@
       <c r="H47" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="14">
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14">
         <v>43902</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="L47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L47" s="24"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="24"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
         <v>94</v>
       </c>
@@ -3078,16 +3489,19 @@
       <c r="H48" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="14">
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14">
         <v>43903</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="L48" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L48" s="24"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="24"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
         <v>97</v>
       </c>
@@ -3107,18 +3521,21 @@
       <c r="H49" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="14">
+      <c r="I49" s="13">
+        <v>1</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14">
         <v>43903</v>
       </c>
-      <c r="K49" s="13" t="s">
+      <c r="L49" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="24" t="s">
+      <c r="M49" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="13" t="s">
         <v>99</v>
       </c>
@@ -3138,16 +3555,19 @@
       <c r="H50" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14">
+      <c r="I50" s="13">
+        <v>0</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14">
         <v>43903</v>
       </c>
-      <c r="K50" s="13" t="s">
+      <c r="L50" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="24"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="24"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
         <v>102</v>
       </c>
@@ -3167,16 +3587,19 @@
       <c r="H51" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="14">
+      <c r="I51" s="13">
+        <v>0</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="14">
         <v>43904</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="L51" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L51" s="24"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="24"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
         <v>104</v>
       </c>
@@ -3190,7 +3613,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>120</v>
@@ -3198,20 +3621,23 @@
       <c r="H52" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="13">
+        <v>1</v>
+      </c>
+      <c r="J52" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="14">
+      <c r="K52" s="14">
         <v>43904</v>
       </c>
-      <c r="K52" s="13" t="s">
+      <c r="L52" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="L52" s="24" t="s">
+      <c r="M52" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>113</v>
       </c>
@@ -3231,20 +3657,23 @@
       <c r="H53" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I53" s="13"/>
-      <c r="J53" s="14">
+      <c r="I53" s="13">
+        <v>1</v>
+      </c>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14">
         <v>43904</v>
       </c>
-      <c r="K53" s="13" t="s">
+      <c r="L53" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L53" s="24" t="s">
+      <c r="M53" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="C54" s="13">
         <v>22</v>
@@ -3252,7 +3681,9 @@
       <c r="D54" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="13"/>
+      <c r="E54" s="13" t="s">
+        <v>269</v>
+      </c>
       <c r="F54" s="13" t="s">
         <v>27</v>
       </c>
@@ -3260,16 +3691,19 @@
         <v>119</v>
       </c>
       <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="14">
+      <c r="I54" s="13">
+        <v>1</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="14">
         <v>43904</v>
       </c>
-      <c r="K54" s="13" t="s">
+      <c r="L54" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L54" s="24"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="24"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
         <v>114</v>
       </c>
@@ -3279,7 +3713,9 @@
       <c r="D55" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="13"/>
+      <c r="E55" s="13" t="s">
+        <v>251</v>
+      </c>
       <c r="F55" s="13" t="s">
         <v>40</v>
       </c>
@@ -3287,16 +3723,19 @@
         <v>119</v>
       </c>
       <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="14">
+      <c r="I55" s="13">
+        <v>1</v>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="14">
         <v>43904</v>
       </c>
-      <c r="K55" s="13" t="s">
+      <c r="L55" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="L55" s="24"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="24"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
         <v>115</v>
       </c>
@@ -3316,20 +3755,23 @@
         <v>119</v>
       </c>
       <c r="H56" s="13"/>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="13">
+        <v>1</v>
+      </c>
+      <c r="J56" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="J56" s="14">
+      <c r="K56" s="14">
         <v>43904</v>
       </c>
-      <c r="K56" s="13" t="s">
+      <c r="L56" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L56" s="24" t="s">
+      <c r="M56" s="24" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="13" t="s">
         <v>143</v>
       </c>
@@ -3349,18 +3791,21 @@
         <v>119</v>
       </c>
       <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14">
+      <c r="I57" s="13">
+        <v>1</v>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="14">
         <v>43905</v>
       </c>
-      <c r="K57" s="13" t="s">
+      <c r="L57" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L57" s="24" t="s">
+      <c r="M57" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="13" t="s">
         <v>145</v>
       </c>
@@ -3380,20 +3825,23 @@
         <v>119</v>
       </c>
       <c r="H58" s="13"/>
-      <c r="I58" s="13" t="s">
+      <c r="I58" s="13">
+        <v>1</v>
+      </c>
+      <c r="J58" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="14">
+      <c r="K58" s="14">
         <v>43905</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="L58" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L58" s="24" t="s">
+      <c r="M58" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
         <v>149</v>
       </c>
@@ -3413,18 +3861,21 @@
         <v>119</v>
       </c>
       <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="14">
+      <c r="I59" s="13">
+        <v>1</v>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="14">
         <v>43905</v>
       </c>
-      <c r="K59" s="13" t="s">
+      <c r="L59" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L59" s="35" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="13" t="s">
         <v>150</v>
       </c>
@@ -3444,18 +3895,21 @@
         <v>119</v>
       </c>
       <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14">
+      <c r="I60" s="13">
+        <v>1</v>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="14">
         <v>43905</v>
       </c>
-      <c r="K60" s="13" t="s">
+      <c r="L60" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L60" s="24" t="s">
+      <c r="M60" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="13" t="s">
         <v>153</v>
       </c>
@@ -3465,7 +3919,9 @@
       <c r="D61" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="13"/>
+      <c r="E61" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="F61" s="13" t="s">
         <v>27</v>
       </c>
@@ -3473,18 +3929,21 @@
         <v>119</v>
       </c>
       <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="14">
+      <c r="I61" s="13">
+        <v>1</v>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="14">
         <v>43906</v>
       </c>
-      <c r="K61" s="13" t="s">
+      <c r="L61" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="L61" s="24" t="s">
+      <c r="M61" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
         <v>154</v>
       </c>
@@ -3502,20 +3961,23 @@
         <v>119</v>
       </c>
       <c r="H62" s="13"/>
-      <c r="I62" s="13" t="s">
+      <c r="I62" s="13">
+        <v>1</v>
+      </c>
+      <c r="J62" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J62" s="14">
+      <c r="K62" s="14">
         <v>43906</v>
       </c>
-      <c r="K62" s="13" t="s">
+      <c r="L62" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L62" s="24" t="s">
+      <c r="M62" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
         <v>155</v>
       </c>
@@ -3535,16 +3997,19 @@
         <v>119</v>
       </c>
       <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="14">
+      <c r="I63" s="13">
+        <v>1</v>
+      </c>
+      <c r="J63" s="13"/>
+      <c r="K63" s="14">
         <v>43906</v>
       </c>
-      <c r="K63" s="13" t="s">
+      <c r="L63" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="24"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="24"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="13" t="s">
         <v>160</v>
       </c>
@@ -3562,22 +4027,25 @@
         <v>119</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="I64" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="I64" s="13">
+        <v>1</v>
+      </c>
+      <c r="J64" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="J64" s="14">
+      <c r="K64" s="14">
         <v>43906</v>
       </c>
-      <c r="K64" s="13" t="s">
+      <c r="L64" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="L64" s="30" t="s">
+      <c r="M64" s="30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
         <v>168</v>
       </c>
@@ -3587,7 +4055,9 @@
       <c r="D65" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E65" s="13"/>
+      <c r="E65" s="13" t="s">
+        <v>251</v>
+      </c>
       <c r="F65" s="13" t="s">
         <v>40</v>
       </c>
@@ -3595,18 +4065,21 @@
         <v>119</v>
       </c>
       <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="14">
+      <c r="I65" s="13">
+        <v>1</v>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="14">
         <v>43907</v>
       </c>
-      <c r="K65" s="13" t="s">
+      <c r="L65" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="24" t="s">
+      <c r="M65" s="24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
         <v>169</v>
       </c>
@@ -3616,7 +4089,9 @@
       <c r="D66" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="13"/>
+      <c r="E66" s="13" t="s">
+        <v>251</v>
+      </c>
       <c r="F66" s="13" t="s">
         <v>27</v>
       </c>
@@ -3624,18 +4099,21 @@
         <v>119</v>
       </c>
       <c r="H66" s="13"/>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="13">
+        <v>1</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="J66" s="14">
+      <c r="K66" s="14">
         <v>43907</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="L66" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L66" s="24"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="24"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="13" t="s">
         <v>172</v>
       </c>
@@ -3653,20 +4131,23 @@
         <v>119</v>
       </c>
       <c r="H67" s="13"/>
-      <c r="I67" s="13" t="s">
+      <c r="I67" s="13">
+        <v>1</v>
+      </c>
+      <c r="J67" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J67" s="14">
+      <c r="K67" s="14">
         <v>43907</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="L67" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L67" s="24" t="s">
+      <c r="M67" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
         <v>176</v>
       </c>
@@ -3684,18 +4165,21 @@
         <v>126</v>
       </c>
       <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="14">
+      <c r="I68" s="13">
+        <v>0</v>
+      </c>
+      <c r="J68" s="13"/>
+      <c r="K68" s="14">
         <v>43907</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="L68" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L68" s="24" t="s">
+      <c r="M68" s="24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="13" t="s">
         <v>179</v>
       </c>
@@ -3713,22 +4197,25 @@
         <v>119</v>
       </c>
       <c r="H69" s="13"/>
-      <c r="I69" s="13" t="s">
+      <c r="I69" s="13">
+        <v>1</v>
+      </c>
+      <c r="J69" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="J69" s="14">
+      <c r="K69" s="14">
         <v>43907</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="L69" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L69" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C70" s="13">
         <v>36</v>
@@ -3744,22 +4231,25 @@
         <v>119</v>
       </c>
       <c r="H70" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I70" s="13">
+        <v>1</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K70" s="14">
+        <v>43908</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="M70" s="24"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J70" s="14">
-        <v>43908</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="L70" s="24"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B71" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="C71" s="13">
         <v>41</v>
@@ -3777,18 +4267,21 @@
         <v>119</v>
       </c>
       <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="14">
+      <c r="I71" s="13">
+        <v>1</v>
+      </c>
+      <c r="J71" s="13"/>
+      <c r="K71" s="14">
         <v>43908</v>
       </c>
-      <c r="K71" s="13" t="s">
+      <c r="L71" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L71" s="24"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="24"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72" s="13">
         <v>30</v>
@@ -3806,20 +4299,23 @@
         <v>119</v>
       </c>
       <c r="H72" s="13"/>
-      <c r="I72" s="13" t="s">
+      <c r="I72" s="13">
+        <v>1</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K72" s="14">
+        <v>43908</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="24"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B73" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="J72" s="14">
-        <v>43908</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="24"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B73" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="C73" s="13">
         <v>19</v>
@@ -3835,22 +4331,25 @@
         <v>119</v>
       </c>
       <c r="H73" s="13"/>
-      <c r="I73" s="13" t="s">
+      <c r="I73" s="13">
+        <v>1</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K73" s="14">
+        <v>43908</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="J73" s="14">
-        <v>43908</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" s="24" t="s">
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B74" s="13" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B74" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="C74" s="13">
         <v>19</v>
@@ -3866,22 +4365,25 @@
         <v>119</v>
       </c>
       <c r="H74" s="13"/>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="13">
+        <v>1</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K74" s="14">
+        <v>43908</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="J74" s="14">
-        <v>43908</v>
-      </c>
-      <c r="K74" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C75" s="13">
         <v>25</v>
@@ -3899,20 +4401,23 @@
         <v>119</v>
       </c>
       <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="14">
+      <c r="I75" s="13">
+        <v>1</v>
+      </c>
+      <c r="J75" s="13"/>
+      <c r="K75" s="14">
         <v>43908</v>
       </c>
-      <c r="K75" s="13" t="s">
+      <c r="L75" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L75" s="24" t="s">
+      <c r="M75" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B76" s="13" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B76" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="C76" s="13">
         <v>11</v>
@@ -3922,30 +4427,31 @@
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" s="32"/>
+      <c r="I76" s="36">
+        <v>1</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K76" s="14">
+        <v>43908</v>
+      </c>
+      <c r="L76" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="G76" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H76" s="34">
-        <v>43899</v>
-      </c>
-      <c r="I76" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J76" s="14">
-        <v>43908</v>
-      </c>
-      <c r="K76" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="L76" s="24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C77" s="13">
         <v>23</v>
@@ -3955,26 +4461,31 @@
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="14">
+      <c r="H77" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="I77" s="13">
+        <v>1</v>
+      </c>
+      <c r="J77" s="13"/>
+      <c r="K77" s="14">
         <v>43908</v>
       </c>
-      <c r="K77" s="13" t="s">
+      <c r="L77" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="M77" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B78" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="L77" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B78" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="C78" s="13">
         <v>40</v>
@@ -3990,22 +4501,25 @@
         <v>119</v>
       </c>
       <c r="H78" s="13"/>
-      <c r="I78" s="13" t="s">
+      <c r="I78" s="13">
+        <v>1</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="K78" s="14">
+        <v>43908</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="M78" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B79" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="J78" s="14">
-        <v>43908</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="L78" s="24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="C79" s="13">
         <v>52</v>
@@ -4023,22 +4537,25 @@
         <v>119</v>
       </c>
       <c r="H79" s="13"/>
-      <c r="I79" s="13" t="s">
+      <c r="I79" s="13">
+        <v>1</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K79" s="14">
+        <v>43908</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B80" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="J79" s="14">
-        <v>43908</v>
-      </c>
-      <c r="K79" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L79" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B80" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="C80" s="13">
         <v>25</v>
@@ -4054,22 +4571,25 @@
         <v>119</v>
       </c>
       <c r="H80" s="13"/>
-      <c r="I80" s="13" t="s">
+      <c r="I80" s="13">
+        <v>1</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K80" s="14">
+        <v>43909</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B81" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="J80" s="14">
-        <v>43909</v>
-      </c>
-      <c r="K80" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L80" s="24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="13" t="s">
-        <v>210</v>
       </c>
       <c r="C81" s="13">
         <v>22</v>
@@ -4085,22 +4605,25 @@
         <v>119</v>
       </c>
       <c r="H81" s="13"/>
-      <c r="I81" s="13" t="s">
+      <c r="I81" s="13">
+        <v>1</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K81" s="14">
+        <v>43909</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B82" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="J81" s="14">
-        <v>43909</v>
-      </c>
-      <c r="K81" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" s="24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B82" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="C82" s="13">
         <v>48</v>
@@ -4116,22 +4639,27 @@
         <v>119</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="I82" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I82" s="13">
+        <v>1</v>
+      </c>
+      <c r="J82" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J82" s="14">
+      <c r="K82" s="14">
         <v>43909</v>
       </c>
-      <c r="K82" s="13" t="s">
+      <c r="L82" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L82" s="24"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C83" s="13">
         <v>18</v>
@@ -4147,24 +4675,27 @@
         <v>120</v>
       </c>
       <c r="H83" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I83" s="13">
+        <v>1</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="K83" s="14">
+        <v>43909</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="M83" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="I83" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="J83" s="14">
-        <v>43909</v>
-      </c>
-      <c r="K83" s="13" t="s">
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B84" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="L83" s="24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B84" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="C84" s="13">
         <v>20</v>
@@ -4180,24 +4711,27 @@
         <v>119</v>
       </c>
       <c r="H84" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I84" s="13">
+        <v>1</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="K84" s="14">
+        <v>43909</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="M84" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B85" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="J84" s="14">
-        <v>43909</v>
-      </c>
-      <c r="K84" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="L84" s="24" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B85" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="C85" s="13">
         <v>16</v>
@@ -4213,20 +4747,23 @@
         <v>119</v>
       </c>
       <c r="H85" s="13"/>
-      <c r="I85" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J85" s="14">
+      <c r="I85" s="13">
+        <v>1</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="K85" s="14">
         <v>43909</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="24" t="s">
+      <c r="L85" s="13"/>
+      <c r="M85" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B86" s="13" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B86" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="C86" s="13">
         <v>50</v>
@@ -4244,20 +4781,23 @@
         <v>119</v>
       </c>
       <c r="H86" s="13"/>
-      <c r="I86" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="J86" s="14">
+      <c r="I86" s="13">
+        <v>1</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K86" s="14">
         <v>43909</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="13"/>
+      <c r="M86" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C87" s="13">
         <v>21</v>
@@ -4273,22 +4813,25 @@
         <v>119</v>
       </c>
       <c r="H87" s="13"/>
-      <c r="I87" s="13" t="s">
+      <c r="I87" s="13">
+        <v>1</v>
+      </c>
+      <c r="J87" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J87" s="14">
+      <c r="K87" s="14">
         <v>43909</v>
       </c>
-      <c r="K87" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L87" s="24" t="s">
+      <c r="L87" s="13" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C88" s="13">
         <v>20</v>
@@ -4304,22 +4847,25 @@
         <v>119</v>
       </c>
       <c r="H88" s="13"/>
-      <c r="I88" s="13" t="s">
+      <c r="I88" s="13">
+        <v>1</v>
+      </c>
+      <c r="J88" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J88" s="14">
+      <c r="K88" s="14">
         <v>43909</v>
       </c>
-      <c r="K88" s="13" t="s">
+      <c r="L88" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L88" s="24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C89" s="13">
         <v>54</v>
@@ -4335,22 +4881,25 @@
         <v>119</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I89" s="13"/>
-      <c r="J89" s="14">
+        <v>234</v>
+      </c>
+      <c r="I89" s="13">
+        <v>0</v>
+      </c>
+      <c r="J89" s="13"/>
+      <c r="K89" s="14">
         <v>43910</v>
       </c>
-      <c r="K89" s="13" t="s">
+      <c r="L89" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L89" s="24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C90" s="13">
         <v>34</v>
@@ -4366,20 +4915,23 @@
         <v>120</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="I90" s="13"/>
-      <c r="J90" s="14">
+        <v>235</v>
+      </c>
+      <c r="I90" s="13">
+        <v>0</v>
+      </c>
+      <c r="J90" s="13"/>
+      <c r="K90" s="14">
         <v>43910</v>
       </c>
-      <c r="K90" s="13" t="s">
+      <c r="L90" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L90" s="24"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="24"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C91" s="13">
         <v>25</v>
@@ -4395,20 +4947,23 @@
         <v>119</v>
       </c>
       <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="14">
+      <c r="I91" s="13">
+        <v>1</v>
+      </c>
+      <c r="J91" s="13"/>
+      <c r="K91" s="14">
         <v>43910</v>
       </c>
-      <c r="K91" s="13" t="s">
+      <c r="L91" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L91" s="24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C92" s="13">
         <v>22</v>
@@ -4424,20 +4979,25 @@
         <v>119</v>
       </c>
       <c r="H92" s="13"/>
-      <c r="I92" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="J92" s="14">
+      <c r="I92" s="13">
+        <v>1</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="K92" s="14">
         <v>43910</v>
       </c>
-      <c r="K92" s="13" t="s">
+      <c r="L92" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L92" s="24"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C93" s="13">
         <v>21</v>
@@ -4453,20 +5013,25 @@
         <v>119</v>
       </c>
       <c r="H93" s="13"/>
-      <c r="I93" s="13" t="s">
+      <c r="I93" s="13">
+        <v>1</v>
+      </c>
+      <c r="J93" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J93" s="14">
+      <c r="K93" s="14">
         <v>43910</v>
       </c>
-      <c r="K93" s="13" t="s">
+      <c r="L93" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L93" s="24"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C94" s="13">
         <v>43</v>
@@ -4474,7 +5039,9 @@
       <c r="D94" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E94" s="13"/>
+      <c r="E94" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="F94" s="13" t="s">
         <v>43</v>
       </c>
@@ -4482,20 +5049,23 @@
         <v>119</v>
       </c>
       <c r="H94" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I94" s="13">
+        <v>1</v>
+      </c>
+      <c r="J94" s="13"/>
+      <c r="K94" s="14">
+        <v>43910</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M94" s="24"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B95" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="I94" s="13"/>
-      <c r="J94" s="14">
-        <v>43910</v>
-      </c>
-      <c r="K94" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L94" s="24"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B95" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="C95" s="13">
         <v>21</v>
@@ -4513,24 +5083,25 @@
         <v>119</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="I95" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="I95" s="13">
+        <v>1</v>
+      </c>
+      <c r="J95" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="J95" s="14">
+      <c r="K95" s="14">
         <v>43911</v>
       </c>
-      <c r="K95" s="13" t="s">
+      <c r="L95" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L95" s="35" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="24"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C96" s="13">
         <v>20</v>
@@ -4539,7 +5110,7 @@
         <v>31</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>27</v>
@@ -4548,20 +5119,23 @@
         <v>119</v>
       </c>
       <c r="H96" s="13"/>
-      <c r="I96" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J96" s="14">
+      <c r="I96" s="13">
+        <v>1</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K96" s="14">
         <v>43911</v>
       </c>
-      <c r="K96" s="13" t="s">
+      <c r="L96" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L96" s="24"/>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="24"/>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B97" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C97" s="13">
         <v>64</v>
@@ -4577,22 +5151,829 @@
         <v>120</v>
       </c>
       <c r="H97" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I97" s="13">
+        <v>1</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K97" s="14">
+        <v>43911</v>
+      </c>
+      <c r="L97" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" s="24"/>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B98" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="13">
+        <v>20</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13">
+        <v>1</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="K98" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="M98" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="I97" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J97" s="14">
-        <v>43911</v>
-      </c>
-      <c r="K97" s="13" t="s">
+      <c r="N98" s="42"/>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B99" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" s="13">
+        <v>21</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13">
+        <v>1</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="K99" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L99" s="13"/>
+      <c r="M99" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N99" s="42"/>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B100" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" s="13">
+        <v>34</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I100" s="13">
+        <v>0</v>
+      </c>
+      <c r="J100" s="13"/>
+      <c r="K100" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M100" s="24"/>
+      <c r="N100" s="42"/>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B101" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" s="13">
+        <v>34</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I101" s="13">
+        <v>0</v>
+      </c>
+      <c r="J101" s="13"/>
+      <c r="K101" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L101" s="13"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="42"/>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B102" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C102" s="13">
+        <v>29</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13">
+        <v>1</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="K102" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L102" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="M102" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="N102" s="42"/>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B103" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" s="13">
+        <v>55</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="I103" s="13">
+        <v>1</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="K103" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L103" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M103" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="N103" s="42"/>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B104" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="13">
+        <v>26</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="I104" s="13">
+        <v>1</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="K104" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L104" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="M104" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="N104" s="42"/>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B105" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" s="13">
+        <v>9</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="I105" s="13">
+        <v>1</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K105" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="M105" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="N105" s="42"/>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B106" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" s="13">
+        <v>22</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I106" s="13">
+        <v>1</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K106" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="M106" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="N106" s="42"/>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B107" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" s="13">
+        <v>33</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I107" s="13">
+        <v>1</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K107" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L107" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="M107" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="N107" s="42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B108" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" s="13">
+        <v>35</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="I108" s="13">
+        <v>1</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K108" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="M108" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="N108" s="42"/>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B109" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C109" s="13">
         <v>20</v>
       </c>
-      <c r="L97" s="24"/>
+      <c r="D109" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="I109" s="13">
+        <v>1</v>
+      </c>
+      <c r="J109" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K109" s="14">
+        <v>43912</v>
+      </c>
+      <c r="L109" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="M109" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="N109" s="42"/>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B110" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" s="38">
+        <v>25</v>
+      </c>
+      <c r="D110" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H110" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="I110" s="38">
+        <v>0</v>
+      </c>
+      <c r="J110" s="38"/>
+      <c r="K110" s="40">
+        <v>43912</v>
+      </c>
+      <c r="L110" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M110" s="41"/>
+      <c r="N110" s="43"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="38"/>
+      <c r="Q110" s="38"/>
+      <c r="R110" s="39"/>
+      <c r="S110" s="39"/>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B111" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="C111" s="38">
+        <v>19</v>
+      </c>
+      <c r="D111" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H111" s="38"/>
+      <c r="I111" s="38">
+        <v>1</v>
+      </c>
+      <c r="J111" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K111" s="40">
+        <v>43912</v>
+      </c>
+      <c r="L111" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="N111" s="43"/>
+      <c r="O111" s="39"/>
+      <c r="P111" s="38"/>
+      <c r="Q111" s="38"/>
+      <c r="R111" s="39"/>
+      <c r="S111" s="39"/>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B112" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C112" s="38">
+        <v>42</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H112" s="38"/>
+      <c r="I112" s="38">
+        <v>1</v>
+      </c>
+      <c r="J112" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="K112" s="40">
+        <v>43912</v>
+      </c>
+      <c r="L112" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="N112" s="43"/>
+      <c r="O112" s="39"/>
+      <c r="P112" s="38"/>
+      <c r="Q112" s="38"/>
+      <c r="R112" s="39"/>
+      <c r="S112" s="39"/>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B113" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="C113" s="38">
+        <v>19</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H113" s="38"/>
+      <c r="I113" s="38">
+        <v>1</v>
+      </c>
+      <c r="J113" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K113" s="40">
+        <v>43912</v>
+      </c>
+      <c r="L113" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M113" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="N113" s="43"/>
+      <c r="O113" s="39"/>
+      <c r="P113" s="38"/>
+      <c r="Q113" s="38"/>
+      <c r="R113" s="39"/>
+      <c r="S113" s="39"/>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B114" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C114" s="38">
+        <v>25</v>
+      </c>
+      <c r="D114" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="I114" s="38">
+        <v>1</v>
+      </c>
+      <c r="J114" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="K114" s="40">
+        <v>43912</v>
+      </c>
+      <c r="L114" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M114" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="N114" s="43"/>
+      <c r="O114" s="39"/>
+      <c r="P114" s="38"/>
+      <c r="Q114" s="38"/>
+      <c r="R114" s="39"/>
+      <c r="S114" s="39"/>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B115" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="C115" s="38">
+        <v>30</v>
+      </c>
+      <c r="D115" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H115" s="38"/>
+      <c r="I115" s="38">
+        <v>1</v>
+      </c>
+      <c r="J115" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="K115" s="40">
+        <v>43912</v>
+      </c>
+      <c r="L115" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="N115" s="43"/>
+      <c r="O115" s="39"/>
+      <c r="P115" s="38"/>
+      <c r="Q115" s="38"/>
+      <c r="R115" s="39"/>
+      <c r="S115" s="39"/>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B116" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C116" s="38">
+        <v>18</v>
+      </c>
+      <c r="D116" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38">
+        <v>1</v>
+      </c>
+      <c r="J116" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K116" s="40">
+        <v>43912</v>
+      </c>
+      <c r="L116" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M116" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="N116" s="43"/>
+      <c r="O116" s="39"/>
+      <c r="P116" s="38"/>
+      <c r="Q116" s="38"/>
+      <c r="R116" s="39"/>
+      <c r="S116" s="39"/>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="38"/>
+      <c r="K117" s="40"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="39"/>
+      <c r="O117" s="39"/>
+      <c r="P117" s="38"/>
+      <c r="Q117" s="38"/>
+      <c r="R117" s="39"/>
+      <c r="S117" s="39"/>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="24"/>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="24"/>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="24"/>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="24"/>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="M3:N16">
-    <sortCondition descending="1" ref="N3:N16"/>
+  <sortState ref="N3:P24">
+    <sortCondition descending="1" ref="O3:O24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Covid-19.xlsx
+++ b/Covid-19.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="26220" windowHeight="12920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$F$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$F$137</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$N$2</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="373">
   <si>
     <t>Tuổi</t>
   </si>
@@ -777,18 +777,12 @@
     <t>BN93</t>
   </si>
   <si>
-    <t>Du học sinh Hungary</t>
-  </si>
-  <si>
     <t>BN94</t>
   </si>
   <si>
     <t>quê Bắc Giang</t>
   </si>
   <si>
-    <t>du học sinh Anh</t>
-  </si>
-  <si>
     <t>Bắc Ninh</t>
   </si>
   <si>
@@ -840,9 +834,6 @@
     <t>BN51</t>
   </si>
   <si>
-    <t>du học sinh</t>
-  </si>
-  <si>
     <t>Đi Mỹ, Canad, Đài Loan - VN</t>
   </si>
   <si>
@@ -945,9 +936,6 @@
     <t>BN110</t>
   </si>
   <si>
-    <t>JL571</t>
-  </si>
-  <si>
     <t>DHS Mỹ, về 19/3 (transit Nhật, ghế 1A), tiếp xúc F0 Mỹ 8/3.</t>
   </si>
   <si>
@@ -972,10 +960,196 @@
     <t>BN113</t>
   </si>
   <si>
-    <t>22/3: 19 ca</t>
-  </si>
-  <si>
     <t>TT</t>
+  </si>
+  <si>
+    <t>JL751</t>
+  </si>
+  <si>
+    <t>BN114</t>
+  </si>
+  <si>
+    <t>DHS</t>
+  </si>
+  <si>
+    <t>SQ176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS Hà Lan </t>
+  </si>
+  <si>
+    <t>BN115</t>
+  </si>
+  <si>
+    <t>BN116</t>
+  </si>
+  <si>
+    <t>Bác sĩ BV Nhiệt đới</t>
+  </si>
+  <si>
+    <t>con BN94</t>
+  </si>
+  <si>
+    <t>con BN115</t>
+  </si>
+  <si>
+    <t>DHS Hungary</t>
+  </si>
+  <si>
+    <t>BN117</t>
+  </si>
+  <si>
+    <t>BN118</t>
+  </si>
+  <si>
+    <t>BN119</t>
+  </si>
+  <si>
+    <t>BN120</t>
+  </si>
+  <si>
+    <t>Tây Ninh</t>
+  </si>
+  <si>
+    <t>quê Long An</t>
+  </si>
+  <si>
+    <t>BV đa khoa Tây Ninh</t>
+  </si>
+  <si>
+    <t>Từ Campuchia về</t>
+  </si>
+  <si>
+    <t>BV FV</t>
+  </si>
+  <si>
+    <t>đi nhiều nước</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>TX B91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BV Dã chiến Củ chi </t>
+  </si>
+  <si>
+    <t>BN121</t>
+  </si>
+  <si>
+    <t>TTYT Cần Giờ</t>
+  </si>
+  <si>
+    <t>từ Mỹ về</t>
+  </si>
+  <si>
+    <t>quê Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>TG947</t>
+  </si>
+  <si>
+    <t>BN122</t>
+  </si>
+  <si>
+    <t>BN123</t>
+  </si>
+  <si>
+    <t>Bến Tre</t>
+  </si>
+  <si>
+    <t>BI381</t>
+  </si>
+  <si>
+    <t>Từ Malaysia về</t>
+  </si>
+  <si>
+    <t>Từ Thái Lan về</t>
+  </si>
+  <si>
+    <t>độ tuổi TB</t>
+  </si>
+  <si>
+    <t>Bar Buddha</t>
+  </si>
+  <si>
+    <t>BN124</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>BN125</t>
+  </si>
+  <si>
+    <t>Nam Phi</t>
+  </si>
+  <si>
+    <t>Huyện Cần Giờ</t>
+  </si>
+  <si>
+    <t>BN126</t>
+  </si>
+  <si>
+    <t>sống tại TP.HCM</t>
+  </si>
+  <si>
+    <t>BN127</t>
+  </si>
+  <si>
+    <t>BN128</t>
+  </si>
+  <si>
+    <t>quê Hải Phòng</t>
+  </si>
+  <si>
+    <t>BN129</t>
+  </si>
+  <si>
+    <t>Từ Anh về Nội Bài 22/3</t>
+  </si>
+  <si>
+    <t>BN130</t>
+  </si>
+  <si>
+    <t>Bắc Giang</t>
+  </si>
+  <si>
+    <t>Đi Nga-TBN-HN 22/3</t>
+  </si>
+  <si>
+    <t>BN131</t>
+  </si>
+  <si>
+    <t>BN132</t>
+  </si>
+  <si>
+    <t>BN133</t>
+  </si>
+  <si>
+    <t>Lai Châu</t>
+  </si>
+  <si>
+    <t>Đtri Bạch Mai</t>
+  </si>
+  <si>
+    <t>BV đa khoa Lai Châu</t>
+  </si>
+  <si>
+    <t>BN134</t>
+  </si>
+  <si>
+    <t>BV Bỉm Sơn</t>
+  </si>
+  <si>
+    <t>Về HN ngày 18/3</t>
+  </si>
+  <si>
+    <t>Tạm dừng cấp visa cho all trong 30 ngày</t>
+  </si>
+  <si>
+    <t>ko rõ nguồn lây</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1064,6 +1238,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,6 +1422,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,8 +1635,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:M122" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="B2:M122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:M137" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="B2:M137"/>
   <tableColumns count="12">
     <tableColumn id="1" name="TT" dataDxfId="11"/>
     <tableColumn id="2" name="Tuổi" dataDxfId="10"/>
@@ -1705,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X122"/>
+  <dimension ref="B1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="136" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="136" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1734,20 +1947,24 @@
     <row r="1" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="N1">
+      <c r="N1" s="46">
         <v>14</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="46">
         <f>SUM(O3:O39)</f>
-        <v>113</v>
-      </c>
-      <c r="P1" s="1">
+        <v>134</v>
+      </c>
+      <c r="P1" s="47">
         <f>SUM(P3:P18)</f>
-        <v>30</v>
-      </c>
-      <c r="Q1" s="1">
-        <f>SUM(I3:I136)</f>
-        <v>85</v>
+        <v>34</v>
+      </c>
+      <c r="Q1" s="47">
+        <f>SUM(I3:I139)</f>
+        <v>99</v>
+      </c>
+      <c r="R1" s="46">
+        <f>AVERAGE(C3:C200)</f>
+        <v>34.496240601503757</v>
       </c>
       <c r="T1" s="26" t="s">
         <v>135</v>
@@ -1764,7 +1981,7 @@
     </row>
     <row r="2" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>0</v>
@@ -1785,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>36</v>
@@ -1803,13 +2020,16 @@
         <v>42</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q2" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>266</v>
+      <c r="R2" s="48" t="s">
+        <v>345</v>
       </c>
       <c r="T2" s="27"/>
     </row>
@@ -1848,10 +2068,10 @@
         <v>27</v>
       </c>
       <c r="O3" s="29">
-        <f>COUNTIF(F$3:F$200,N3)</f>
-        <v>35</v>
-      </c>
-      <c r="P3" s="35">
+        <f>COUNTIF(F$3:F$203,N3)</f>
+        <v>40</v>
+      </c>
+      <c r="P3" s="28">
         <v>5</v>
       </c>
       <c r="Q3" s="28"/>
@@ -1892,11 +2112,11 @@
         <v>43</v>
       </c>
       <c r="O4" s="29">
-        <f>COUNTIF(F$3:F$200,N4)</f>
-        <v>27</v>
+        <f>COUNTIF(F$3:F$203,N4)</f>
+        <v>34</v>
       </c>
       <c r="P4" s="28">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="28"/>
       <c r="T4" s="27"/>
@@ -1934,9 +2154,10 @@
         <v>67</v>
       </c>
       <c r="O5" s="29">
-        <f>COUNTIF(F$3:F$200,N5)</f>
+        <f>COUNTIF(F$3:F$203,N5)</f>
         <v>11</v>
       </c>
+      <c r="P5" s="1"/>
       <c r="T5" s="27"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
@@ -1972,7 +2193,7 @@
         <v>49</v>
       </c>
       <c r="O6" s="29">
-        <f>COUNTIF(F$3:F$200,N6)</f>
+        <f>COUNTIF(F$3:F$203,N6)</f>
         <v>9</v>
       </c>
       <c r="P6" s="28"/>
@@ -2023,10 +2244,10 @@
         <v>40</v>
       </c>
       <c r="O7" s="29">
-        <f>COUNTIF(F$3:F$200,N7)</f>
+        <f>COUNTIF(F$3:F$203,N7)</f>
         <v>6</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="28">
         <v>4</v>
       </c>
       <c r="T7" s="26">
@@ -2072,8 +2293,8 @@
         <v>38</v>
       </c>
       <c r="O8" s="29">
-        <f>COUNTIF(F$3:F$200,N8)</f>
-        <v>4</v>
+        <f>COUNTIF(F$3:F$203,N8)</f>
+        <v>5</v>
       </c>
       <c r="P8" s="28">
         <v>3</v>
@@ -2111,15 +2332,13 @@
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O9" s="29">
-        <f>COUNTIF(F$3:F$200,N9)</f>
+        <f>COUNTIF(F$3:F$203,N9)</f>
         <v>4</v>
       </c>
-      <c r="P9" s="28">
-        <v>3</v>
-      </c>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
@@ -2150,14 +2369,11 @@
         <v>20</v>
       </c>
       <c r="M10" s="24"/>
-      <c r="N10" s="5" t="s">
-        <v>41</v>
+      <c r="N10" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="O10" s="29">
-        <f>COUNTIF(F$3:F$200,N10)</f>
-        <v>3</v>
-      </c>
-      <c r="P10" s="28">
+        <f>COUNTIF(F$3:F$203,N10)</f>
         <v>3</v>
       </c>
       <c r="T10" s="26">
@@ -2203,14 +2419,14 @@
       </c>
       <c r="M11" s="24"/>
       <c r="N11" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O11" s="29">
-        <f>COUNTIF(F$3:F$200,N11)</f>
-        <v>2</v>
-      </c>
-      <c r="P11" s="28">
-        <v>2</v>
+        <f>COUNTIF(F$3:F$203,N11)</f>
+        <v>3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
@@ -2244,15 +2460,15 @@
       <c r="M12" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>28</v>
+      <c r="N12" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="O12" s="29">
-        <f>COUNTIF(F$3:F$200,N12)</f>
+        <f>COUNTIF(F$3:F$203,N12)</f>
         <v>2</v>
       </c>
       <c r="P12" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
@@ -2286,14 +2502,16 @@
       <c r="M13" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>161</v>
+      <c r="N13" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="O13" s="29">
-        <f>COUNTIF(F$3:F$200,N13)</f>
+        <f>COUNTIF(F$3:F$203,N13)</f>
         <v>2</v>
       </c>
-      <c r="P13" s="28"/>
+      <c r="P13" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
@@ -2326,14 +2544,14 @@
       <c r="M14" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>181</v>
+      <c r="N14" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="O14" s="29">
-        <f>COUNTIF(F$3:F$200,N14)</f>
+        <f>COUNTIF(F$3:F$203,N14)</f>
         <v>2</v>
       </c>
-      <c r="P14" s="28"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
@@ -2365,10 +2583,10 @@
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="13" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O15" s="29">
-        <f>COUNTIF(F$3:F$200,N15)</f>
+        <f>COUNTIF(F$3:F$203,N15)</f>
         <v>2</v>
       </c>
     </row>
@@ -2404,12 +2622,13 @@
         <v>127</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="O16" s="29">
-        <f>COUNTIF(F$3:F$200,N16)</f>
-        <v>1</v>
-      </c>
+        <f>COUNTIF(F$3:F$203,N16)</f>
+        <v>2</v>
+      </c>
+      <c r="P16" s="28"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
@@ -2440,12 +2659,15 @@
         <v>69</v>
       </c>
       <c r="M17" s="24"/>
-      <c r="N17" s="13" t="s">
-        <v>195</v>
+      <c r="N17" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="O17" s="29">
-        <f>COUNTIF(F$3:F$200,N17)</f>
-        <v>1</v>
+        <f>COUNTIF(F$3:F$203,N17)</f>
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
@@ -2479,13 +2701,14 @@
       <c r="M18" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="N18" s="15" t="s">
-        <v>73</v>
+      <c r="N18" s="13" t="s">
+        <v>290</v>
       </c>
       <c r="O18" s="29">
-        <f>COUNTIF(F$3:F$200,N18)</f>
-        <v>1</v>
-      </c>
+        <f>COUNTIF(F$3:F$203,N18)</f>
+        <v>2</v>
+      </c>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
@@ -2505,13 +2728,12 @@
         <v>244</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="O19" s="29">
-        <f>COUNTIF(F$3:F$200,N19)</f>
-        <v>1</v>
-      </c>
-      <c r="P19" s="13"/>
+        <f>COUNTIF(F$3:F$203,N19)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -2546,12 +2768,13 @@
         <v>20</v>
       </c>
       <c r="M20" s="24"/>
-      <c r="N20" s="13"/>
+      <c r="N20" s="13" t="s">
+        <v>341</v>
+      </c>
       <c r="O20" s="29">
-        <f>COUNTIF(F$3:F$200,N20)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="13"/>
+        <f>COUNTIF(F$3:F$203,N20)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
@@ -2582,6 +2805,13 @@
         <v>32</v>
       </c>
       <c r="M21" s="24"/>
+      <c r="N21" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" s="29">
+        <f>COUNTIF(F$3:F$203,N21)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
@@ -2614,6 +2844,14 @@
       <c r="M22" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="N22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O22" s="29">
+        <f>COUNTIF(F$3:F$203,N22)</f>
+        <v>1</v>
+      </c>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
@@ -2646,6 +2884,13 @@
       <c r="M23" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="N23" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="O23" s="29">
+        <f>COUNTIF(F$3:F$203,N23)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
@@ -2682,6 +2927,12 @@
       <c r="M24" s="24" t="s">
         <v>128</v>
       </c>
+      <c r="N24" s="13"/>
+      <c r="O24" s="29">
+        <f>COUNTIF(F$3:F$203,N24)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="28"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
@@ -3673,7 +3924,7 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C54" s="13">
         <v>22</v>
@@ -3682,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>27</v>
@@ -3714,7 +3965,7 @@
         <v>30</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>40</v>
@@ -3920,7 +4171,7 @@
         <v>30</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>27</v>
@@ -4056,7 +4307,7 @@
         <v>31</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>40</v>
@@ -4090,7 +4341,7 @@
         <v>30</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>27</v>
@@ -4210,7 +4461,7 @@
         <v>174</v>
       </c>
       <c r="M69" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
@@ -4245,7 +4496,9 @@
       <c r="L70" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="M70" s="24"/>
+      <c r="M70" s="33" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="13" t="s">
@@ -4461,13 +4714,13 @@
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I77" s="13">
         <v>1</v>
@@ -4654,7 +4907,7 @@
         <v>177</v>
       </c>
       <c r="M82" s="24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.2">
@@ -4880,7 +5133,7 @@
       <c r="G89" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H89" s="13" t="s">
+      <c r="H89" s="49" t="s">
         <v>234</v>
       </c>
       <c r="I89" s="13">
@@ -4914,7 +5167,7 @@
       <c r="G90" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H90" s="13" t="s">
+      <c r="H90" s="49" t="s">
         <v>235</v>
       </c>
       <c r="I90" s="13">
@@ -4992,7 +5245,7 @@
         <v>174</v>
       </c>
       <c r="M92" s="24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.2">
@@ -5026,7 +5279,7 @@
         <v>177</v>
       </c>
       <c r="M93" s="24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.2">
@@ -5061,7 +5314,9 @@
       <c r="L94" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M94" s="24"/>
+      <c r="M94" s="24" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="13" t="s">
@@ -5074,7 +5329,7 @@
         <v>31</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>43</v>
@@ -5110,7 +5365,7 @@
         <v>31</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>27</v>
@@ -5118,7 +5373,9 @@
       <c r="G96" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H96" s="13"/>
+      <c r="H96" s="13" t="s">
+        <v>319</v>
+      </c>
       <c r="I96" s="13">
         <v>1</v>
       </c>
@@ -5135,7 +5392,7 @@
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B97" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C97" s="13">
         <v>64</v>
@@ -5151,7 +5408,7 @@
         <v>120</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I97" s="13">
         <v>1</v>
@@ -5165,11 +5422,13 @@
       <c r="L97" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M97" s="24"/>
+      <c r="M97" s="24" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B98" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C98" s="13">
         <v>20</v>
@@ -5178,7 +5437,7 @@
         <v>31</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>43</v>
@@ -5191,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K98" s="14">
         <v>43912</v>
@@ -5200,13 +5459,13 @@
         <v>174</v>
       </c>
       <c r="M98" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N98" s="42"/>
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B99" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C99" s="13">
         <v>21</v>
@@ -5239,7 +5498,7 @@
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C100" s="13">
         <v>34</v>
@@ -5257,7 +5516,7 @@
         <v>120</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
@@ -5274,7 +5533,7 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B101" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C101" s="13">
         <v>34</v>
@@ -5292,7 +5551,7 @@
         <v>126</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I101" s="13">
         <v>0</v>
@@ -5307,7 +5566,7 @@
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B102" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C102" s="13">
         <v>29</v>
@@ -5327,22 +5586,22 @@
         <v>1</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K102" s="14">
         <v>43912</v>
       </c>
       <c r="L102" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M102" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N102" s="42"/>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B103" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C103" s="13">
         <v>55</v>
@@ -5364,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K103" s="14">
         <v>43912</v>
@@ -5373,13 +5632,13 @@
         <v>45</v>
       </c>
       <c r="M103" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N103" s="42"/>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B104" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C104" s="13">
         <v>26</v>
@@ -5389,34 +5648,34 @@
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I104" s="13">
         <v>1</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K104" s="14">
         <v>43912</v>
       </c>
       <c r="L104" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M104" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N104" s="42"/>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B105" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C105" s="13">
         <v>9</v>
@@ -5426,13 +5685,13 @@
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I105" s="13">
         <v>1</v>
@@ -5444,16 +5703,16 @@
         <v>43912</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M105" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N105" s="42"/>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B106" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C106" s="13">
         <v>22</v>
@@ -5463,13 +5722,13 @@
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I106" s="13">
         <v>1</v>
@@ -5481,16 +5740,16 @@
         <v>43912</v>
       </c>
       <c r="L106" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M106" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N106" s="42"/>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B107" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C107" s="13">
         <v>33</v>
@@ -5500,13 +5759,13 @@
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I107" s="13">
         <v>1</v>
@@ -5518,18 +5777,16 @@
         <v>43912</v>
       </c>
       <c r="L107" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M107" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="N107" s="42" t="s">
-        <v>313</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N107" s="44"/>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B108" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C108" s="13">
         <v>35</v>
@@ -5539,34 +5796,34 @@
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G108" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I108" s="13">
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K108" s="14">
         <v>43912</v>
       </c>
       <c r="L108" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M108" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N108" s="42"/>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B109" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C109" s="13">
         <v>20</v>
@@ -5576,34 +5833,34 @@
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G109" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I109" s="13">
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K109" s="14">
         <v>43912</v>
       </c>
       <c r="L109" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M109" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N109" s="42"/>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B110" s="38" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C110" s="38">
         <v>25</v>
@@ -5619,7 +5876,7 @@
         <v>120</v>
       </c>
       <c r="H110" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I110" s="38">
         <v>0</v>
@@ -5641,7 +5898,7 @@
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B111" s="38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C111" s="38">
         <v>19</v>
@@ -5649,7 +5906,9 @@
       <c r="D111" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E111" s="38"/>
+      <c r="E111" s="38" t="s">
+        <v>312</v>
+      </c>
       <c r="F111" s="38" t="s">
         <v>27</v>
       </c>
@@ -5670,7 +5929,7 @@
         <v>20</v>
       </c>
       <c r="M111" s="41" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N111" s="43"/>
       <c r="O111" s="39"/>
@@ -5681,7 +5940,7 @@
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B112" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C112" s="38">
         <v>42</v>
@@ -5701,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K112" s="40">
         <v>43912</v>
@@ -5710,7 +5969,7 @@
         <v>20</v>
       </c>
       <c r="M112" s="41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N112" s="43"/>
       <c r="O112" s="39"/>
@@ -5721,15 +5980,17 @@
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B113" s="38" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C113" s="38">
         <v>19</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="E113" s="38" t="s">
+        <v>312</v>
+      </c>
       <c r="F113" s="38" t="s">
         <v>27</v>
       </c>
@@ -5741,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="38" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K113" s="40">
         <v>43912</v>
@@ -5750,7 +6011,7 @@
         <v>20</v>
       </c>
       <c r="M113" s="41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N113" s="43"/>
       <c r="O113" s="39"/>
@@ -5761,7 +6022,7 @@
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B114" s="38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C114" s="38">
         <v>25</v>
@@ -5769,7 +6030,9 @@
       <c r="D114" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E114" s="38"/>
+      <c r="E114" s="38" t="s">
+        <v>312</v>
+      </c>
       <c r="F114" s="38" t="s">
         <v>27</v>
       </c>
@@ -5777,13 +6040,13 @@
         <v>119</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I114" s="38">
         <v>1</v>
       </c>
       <c r="J114" s="38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K114" s="40">
         <v>43912</v>
@@ -5792,7 +6055,7 @@
         <v>20</v>
       </c>
       <c r="M114" s="41" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N114" s="43"/>
       <c r="O114" s="39"/>
@@ -5803,7 +6066,7 @@
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B115" s="38" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C115" s="38">
         <v>30</v>
@@ -5811,7 +6074,9 @@
       <c r="D115" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="38"/>
+      <c r="E115" s="38" t="s">
+        <v>312</v>
+      </c>
       <c r="F115" s="38" t="s">
         <v>27</v>
       </c>
@@ -5823,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K115" s="40">
         <v>43912</v>
@@ -5832,7 +6097,7 @@
         <v>20</v>
       </c>
       <c r="M115" s="41" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N115" s="43"/>
       <c r="O115" s="39"/>
@@ -5843,7 +6108,7 @@
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B116" s="38" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C116" s="38">
         <v>18</v>
@@ -5851,7 +6116,9 @@
       <c r="D116" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E116" s="38"/>
+      <c r="E116" s="38" t="s">
+        <v>312</v>
+      </c>
       <c r="F116" s="38" t="s">
         <v>27</v>
       </c>
@@ -5872,7 +6139,7 @@
         <v>20</v>
       </c>
       <c r="M116" s="41" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N116" s="43"/>
       <c r="O116" s="39"/>
@@ -5882,18 +6149,40 @@
       <c r="S116" s="39"/>
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="38"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="40"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="41"/>
+      <c r="B117" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C117" s="38">
+        <v>19</v>
+      </c>
+      <c r="D117" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H117" s="13"/>
+      <c r="I117" s="38">
+        <v>1</v>
+      </c>
+      <c r="J117" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K117" s="40">
+        <v>43913</v>
+      </c>
+      <c r="L117" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M117" s="41" t="s">
+        <v>314</v>
+      </c>
       <c r="N117" s="39"/>
       <c r="O117" s="39"/>
       <c r="P117" s="38"/>
@@ -5902,74 +6191,698 @@
       <c r="S117" s="39"/>
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
+      <c r="B118" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C118" s="13">
+        <v>44</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="14"/>
-      <c r="L118" s="13"/>
+      <c r="F118" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H118" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="I118" s="13">
+        <v>1</v>
+      </c>
+      <c r="J118" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K118" s="14">
+        <v>43913</v>
+      </c>
+      <c r="L118" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="M118" s="24"/>
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
+      <c r="B119" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="13">
+        <v>29</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
+      <c r="F119" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H119" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="I119" s="13">
+        <v>0</v>
+      </c>
       <c r="J119" s="13"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="13"/>
+      <c r="K119" s="14">
+        <v>43913</v>
+      </c>
+      <c r="L119" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="M119" s="24"/>
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
+      <c r="B120" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C120" s="13">
+        <v>30</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
+      <c r="F120" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I120" s="13">
+        <v>1</v>
+      </c>
       <c r="J120" s="13"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="24"/>
+      <c r="K120" s="14">
+        <v>43913</v>
+      </c>
+      <c r="L120" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="M120" s="24" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
+      <c r="B121" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" s="13">
+        <v>23</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
+      <c r="F121" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="I121" s="13">
+        <v>1</v>
+      </c>
       <c r="J121" s="13"/>
-      <c r="K121" s="14"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="24"/>
+      <c r="K121" s="14">
+        <v>43913</v>
+      </c>
+      <c r="L121" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="M121" s="24" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
+      <c r="B122" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122" s="13">
+        <v>29</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
+      <c r="I122" s="13">
+        <v>1</v>
+      </c>
       <c r="J122" s="13"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="24"/>
+      <c r="K122" s="14">
+        <v>43913</v>
+      </c>
+      <c r="L122" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="M122" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B123" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C123" s="13">
+        <v>27</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="I123" s="13">
+        <v>0</v>
+      </c>
+      <c r="J123" s="13"/>
+      <c r="K123" s="14">
+        <v>43913</v>
+      </c>
+      <c r="L123" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="M123" s="24"/>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B124" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C124" s="13">
+        <v>58</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I124" s="13">
+        <v>1</v>
+      </c>
+      <c r="J124" s="13"/>
+      <c r="K124" s="14">
+        <v>43913</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="M124" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B125" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C125" s="13">
+        <v>24</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I125" s="13">
+        <v>1</v>
+      </c>
+      <c r="J125" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="K125" s="14">
+        <v>43913</v>
+      </c>
+      <c r="L125" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M125" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B126" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C126" s="13">
+        <v>17</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13">
+        <v>1</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="K126" s="14">
+        <v>43913</v>
+      </c>
+      <c r="L126" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="M126" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B127" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127" s="13">
+        <v>52</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I127" s="13">
+        <v>0</v>
+      </c>
+      <c r="J127" s="13"/>
+      <c r="K127" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L127" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="M127" s="24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B128" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C128" s="13">
+        <v>22</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I128" s="13">
+        <v>0</v>
+      </c>
+      <c r="J128" s="13"/>
+      <c r="K128" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L128" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="M128" s="24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B129" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C129" s="13">
+        <v>28</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I129" s="13">
+        <v>0</v>
+      </c>
+      <c r="J129" s="13"/>
+      <c r="K129" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L129" s="13"/>
+      <c r="M129" s="24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B130" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" s="13">
+        <v>23</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I130" s="13">
+        <v>0</v>
+      </c>
+      <c r="J130" s="13"/>
+      <c r="K130" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L130" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="M130" s="24"/>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B131" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C131" s="13">
+        <v>20</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I131" s="13">
+        <v>1</v>
+      </c>
+      <c r="J131" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K131" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L131" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M131" s="24"/>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B132" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C132" s="13">
+        <v>20</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13">
+        <v>1</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K132" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L132" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M132" s="24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B133" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C133" s="13">
+        <v>30</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I133" s="13">
+        <v>1</v>
+      </c>
+      <c r="J133" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K133" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L133" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M133" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B134" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C134" s="13">
+        <v>23</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I134" s="13">
+        <v>1</v>
+      </c>
+      <c r="J134" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K134" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L134" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M134" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B135" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C135" s="13">
+        <v>25</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="I135" s="13">
+        <v>1</v>
+      </c>
+      <c r="J135" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K135" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L135" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M135" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B136" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" s="13">
+        <v>66</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H136" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="I136" s="13">
+        <v>0</v>
+      </c>
+      <c r="J136" s="13"/>
+      <c r="K136" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L136" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="M136" s="50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B137" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C137" s="13">
+        <v>10</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="I137" s="13">
+        <v>1</v>
+      </c>
+      <c r="J137" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K137" s="14">
+        <v>43914</v>
+      </c>
+      <c r="L137" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="M137" s="24" t="s">
+        <v>370</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="N3:P24">

--- a/Covid-19.xlsx
+++ b/Covid-19.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="26220" windowHeight="12920" tabRatio="500"/>
+    <workbookView xWindow="3940" yWindow="1220" windowWidth="19320" windowHeight="12580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$F$137</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$F$251</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$O$2</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="599">
   <si>
     <t>Tuổi</t>
   </si>
@@ -435,33 +436,9 @@
     <t>BV dã chiến Quảng Ninh</t>
   </si>
   <si>
-    <t>Tây Ban Nha</t>
-  </si>
-  <si>
-    <t>Ngày</t>
-  </si>
-  <si>
-    <t>Quốc gia</t>
-  </si>
-  <si>
-    <t>ghi chú</t>
-  </si>
-  <si>
-    <t>cả nước</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>dân số (triệu)</t>
-  </si>
-  <si>
     <t>Đan Mạch</t>
   </si>
   <si>
-    <t>5.6</t>
-  </si>
-  <si>
     <t>BN54</t>
   </si>
   <si>
@@ -759,9 +736,6 @@
     <t>BN91</t>
   </si>
   <si>
-    <t>phi công VNA</t>
-  </si>
-  <si>
     <t>15/3 Cách ly tập trung 31 nước</t>
   </si>
   <si>
@@ -1029,9 +1003,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>TX B91</t>
-  </si>
-  <si>
     <t xml:space="preserve">BV Dã chiến Củ chi </t>
   </si>
   <si>
@@ -1065,9 +1036,6 @@
     <t>Từ Malaysia về</t>
   </si>
   <si>
-    <t>Từ Thái Lan về</t>
-  </si>
-  <si>
     <t>độ tuổi TB</t>
   </si>
   <si>
@@ -1086,9 +1054,6 @@
     <t>Nam Phi</t>
   </si>
   <si>
-    <t>Huyện Cần Giờ</t>
-  </si>
-  <si>
     <t>BN126</t>
   </si>
   <si>
@@ -1150,6 +1115,720 @@
   </si>
   <si>
     <t>ko rõ nguồn lây</t>
+  </si>
+  <si>
+    <t>TX BN24</t>
+  </si>
+  <si>
+    <t>BN135</t>
+  </si>
+  <si>
+    <t>PG947</t>
+  </si>
+  <si>
+    <t>BN136</t>
+  </si>
+  <si>
+    <t>Từ Mỹ - HN ngày 16/3, tự cách ly</t>
+  </si>
+  <si>
+    <t>BN137</t>
+  </si>
+  <si>
+    <t>nguy cơ cộng đồng</t>
+  </si>
+  <si>
+    <t>từng khám FV, nguy cơ cộng đồng</t>
+  </si>
+  <si>
+    <t>quê Nghệ An</t>
+  </si>
+  <si>
+    <t>BN138</t>
+  </si>
+  <si>
+    <t>Từ Anh - Nội Bài 21/3</t>
+  </si>
+  <si>
+    <t>Từ Đức - HN 15/3</t>
+  </si>
+  <si>
+    <t>BN139</t>
+  </si>
+  <si>
+    <t>vợ bn</t>
+  </si>
+  <si>
+    <t>BN140</t>
+  </si>
+  <si>
+    <t>BN141</t>
+  </si>
+  <si>
+    <t>BS Nhiệt đới</t>
+  </si>
+  <si>
+    <t>BN142</t>
+  </si>
+  <si>
+    <t>BR395</t>
+  </si>
+  <si>
+    <t>BV Dã chiến Cần Giờ</t>
+  </si>
+  <si>
+    <t>Từ Mỹ về 8/3, đi đám ma, gặp nhiều</t>
+  </si>
+  <si>
+    <t>BN143</t>
+  </si>
+  <si>
+    <t>TỪ Mỹ về 21/3</t>
+  </si>
+  <si>
+    <t>BN144</t>
+  </si>
+  <si>
+    <t>BN145</t>
+  </si>
+  <si>
+    <t>VN0050 từ Anh ngày 22/3</t>
+  </si>
+  <si>
+    <t>BN146</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Tĩnh </t>
+  </si>
+  <si>
+    <t>VN0050 từ Anh ngày 22/3, không triệu chứng</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>BN147</t>
+  </si>
+  <si>
+    <t>Từ Anh về HN 21/3</t>
+  </si>
+  <si>
+    <t>BN148</t>
+  </si>
+  <si>
+    <t>VN0018 từ Pháp - NB 12/3</t>
+  </si>
+  <si>
+    <t>Từ Thái Lan - Đà Nẵng 20/3, ko triệu chứng</t>
+  </si>
+  <si>
+    <t>BN149</t>
+  </si>
+  <si>
+    <t>VN36</t>
+  </si>
+  <si>
+    <t>BV số 2 Quảng Ninh</t>
+  </si>
+  <si>
+    <t>BN150</t>
+  </si>
+  <si>
+    <t>Đức - Vân Đồn 23/3, ko triệu chứng</t>
+  </si>
+  <si>
+    <t>BN151</t>
+  </si>
+  <si>
+    <t>BV Cần Giờ</t>
+  </si>
+  <si>
+    <t>Mỹ-SG 13/3, đi nhiều nơi, ngày 23 đau họng</t>
+  </si>
+  <si>
+    <t>đến quán ăn, sthi, nhà máy</t>
+  </si>
+  <si>
+    <t>BN152</t>
+  </si>
+  <si>
+    <t>tx nhiều đồng nghiệp, đi ăn</t>
+  </si>
+  <si>
+    <t>BN153</t>
+  </si>
+  <si>
+    <t>VN772</t>
+  </si>
+  <si>
+    <t>Từ Úc - SG 21/3</t>
+  </si>
+  <si>
+    <t>chung phòng BN143</t>
+  </si>
+  <si>
+    <t>chị gái BN127, bar Buddha</t>
+  </si>
+  <si>
+    <t>TX BN124, Bar Buddha</t>
+  </si>
+  <si>
+    <t>BN154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cần Thơ </t>
+  </si>
+  <si>
+    <t>quê Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Anh về Cần Thơ 22/3</t>
+  </si>
+  <si>
+    <t>BN155</t>
+  </si>
+  <si>
+    <t>Bạc Liêu</t>
+  </si>
+  <si>
+    <t>quê Hưng Yên</t>
+  </si>
+  <si>
+    <t>BV đa khoa tỉnh Bạc Liêu</t>
+  </si>
+  <si>
+    <t>Anh về Cần Thơ 22/3, ko triệu chứng</t>
+  </si>
+  <si>
+    <t>BN156</t>
+  </si>
+  <si>
+    <t>quê Trà Vinh</t>
+  </si>
+  <si>
+    <t>BN157</t>
+  </si>
+  <si>
+    <t>Không triệu chứng</t>
+  </si>
+  <si>
+    <t>BN158</t>
+  </si>
+  <si>
+    <t>giáo viênTX bn Buddha</t>
+  </si>
+  <si>
+    <t>ktv, tx bn Buddha</t>
+  </si>
+  <si>
+    <t>BN159</t>
+  </si>
+  <si>
+    <t>TX Bn Buddha</t>
+  </si>
+  <si>
+    <t>BN160</t>
+  </si>
+  <si>
+    <t>quê Hưng Yên, cùng phòng BN133</t>
+  </si>
+  <si>
+    <t>Cùng khoa, phòng Thần kinh BN133</t>
+  </si>
+  <si>
+    <t>BN161</t>
+  </si>
+  <si>
+    <t>SU292</t>
+  </si>
+  <si>
+    <t>Sống ở TBN - SG ngày 22/3</t>
+  </si>
+  <si>
+    <t>BN162</t>
+  </si>
+  <si>
+    <t>con dâu BN161</t>
+  </si>
+  <si>
+    <t>BN163</t>
+  </si>
+  <si>
+    <t>cháu Bn161</t>
+  </si>
+  <si>
+    <t>TX B91, bar Buddha</t>
+  </si>
+  <si>
+    <t>phi công VNA, bar Budhha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN164 </t>
+  </si>
+  <si>
+    <t>quê Kiên Giang</t>
+  </si>
+  <si>
+    <t>từ Anh về Vân Đồn 23/3</t>
+  </si>
+  <si>
+    <t>BN165</t>
+  </si>
+  <si>
+    <t>BN166</t>
+  </si>
+  <si>
+    <t>từ Anh về Vân Đồn 23/3, quê BG</t>
+  </si>
+  <si>
+    <t>BN167</t>
+  </si>
+  <si>
+    <t>QR0976</t>
+  </si>
+  <si>
+    <t>Đến Nội Bài 8/3, đi 4 tỉnh, bạn trai ko bị</t>
+  </si>
+  <si>
+    <t>BN168</t>
+  </si>
+  <si>
+    <t>BN169</t>
+  </si>
+  <si>
+    <t>BN170</t>
+  </si>
+  <si>
+    <t>BN171</t>
+  </si>
+  <si>
+    <t>BN172</t>
+  </si>
+  <si>
+    <t>BN173</t>
+  </si>
+  <si>
+    <t>BN174</t>
+  </si>
+  <si>
+    <t>ăn tại BV Bạch Mai</t>
+  </si>
+  <si>
+    <t>BV Kim Sơn</t>
+  </si>
+  <si>
+    <t>đi khắp nơi, tx nhiều người</t>
+  </si>
+  <si>
+    <t>cách ly tại nhà</t>
+  </si>
+  <si>
+    <t>con dâu BN133</t>
+  </si>
+  <si>
+    <t>từ Nga về Nội Bài 25/3</t>
+  </si>
+  <si>
+    <t>TX nhiều người</t>
+  </si>
+  <si>
+    <t>BN175</t>
+  </si>
+  <si>
+    <t>BN177</t>
+  </si>
+  <si>
+    <t>BN178</t>
+  </si>
+  <si>
+    <t>BN179</t>
+  </si>
+  <si>
+    <t>BN176</t>
+  </si>
+  <si>
+    <t>Cty Trường Sinh</t>
+  </si>
+  <si>
+    <t>Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Đại Từ, Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Về Nội Bài 18/3</t>
+  </si>
+  <si>
+    <t>BN180</t>
+  </si>
+  <si>
+    <t>Từ Thái Lan - Nội Bài 20/3</t>
+  </si>
+  <si>
+    <t>BN181</t>
+  </si>
+  <si>
+    <t>BN182</t>
+  </si>
+  <si>
+    <t>VN618</t>
+  </si>
+  <si>
+    <t>từ Thụy Sĩ - Nội Bài 20/3</t>
+  </si>
+  <si>
+    <t>BV đa khoa tỉnh Ninh Bình</t>
+  </si>
+  <si>
+    <t>BN183</t>
+  </si>
+  <si>
+    <t>PV TX B148</t>
+  </si>
+  <si>
+    <t>BN184</t>
+  </si>
+  <si>
+    <t>BN185</t>
+  </si>
+  <si>
+    <t>BN186</t>
+  </si>
+  <si>
+    <t>BN187</t>
+  </si>
+  <si>
+    <t>BN188</t>
+  </si>
+  <si>
+    <t>BN189</t>
+  </si>
+  <si>
+    <t>BN190</t>
+  </si>
+  <si>
+    <t>BN191</t>
+  </si>
+  <si>
+    <t>BN192</t>
+  </si>
+  <si>
+    <t>BN193</t>
+  </si>
+  <si>
+    <t>BN194</t>
+  </si>
+  <si>
+    <t>BN195</t>
+  </si>
+  <si>
+    <t>BN196</t>
+  </si>
+  <si>
+    <t>BN197</t>
+  </si>
+  <si>
+    <t>BN198</t>
+  </si>
+  <si>
+    <t>BN199</t>
+  </si>
+  <si>
+    <t>BN200</t>
+  </si>
+  <si>
+    <t>BN201</t>
+  </si>
+  <si>
+    <t>BN202</t>
+  </si>
+  <si>
+    <t>BN203</t>
+  </si>
+  <si>
+    <t>BN204</t>
+  </si>
+  <si>
+    <t>BN205</t>
+  </si>
+  <si>
+    <t>BN206</t>
+  </si>
+  <si>
+    <t>BN207</t>
+  </si>
+  <si>
+    <t>BN208</t>
+  </si>
+  <si>
+    <t>BN209</t>
+  </si>
+  <si>
+    <t>BN210</t>
+  </si>
+  <si>
+    <t>BN211</t>
+  </si>
+  <si>
+    <t>BN212</t>
+  </si>
+  <si>
+    <t>BN213</t>
+  </si>
+  <si>
+    <t>BN214</t>
+  </si>
+  <si>
+    <t>BN215</t>
+  </si>
+  <si>
+    <t>BN216</t>
+  </si>
+  <si>
+    <t>BN217</t>
+  </si>
+  <si>
+    <t>BN218</t>
+  </si>
+  <si>
+    <t>BN219</t>
+  </si>
+  <si>
+    <t>BN220</t>
+  </si>
+  <si>
+    <t>BN221</t>
+  </si>
+  <si>
+    <t>BN222</t>
+  </si>
+  <si>
+    <t>BN223</t>
+  </si>
+  <si>
+    <t>BN224</t>
+  </si>
+  <si>
+    <t>BN225</t>
+  </si>
+  <si>
+    <t>BN226</t>
+  </si>
+  <si>
+    <t>BN227</t>
+  </si>
+  <si>
+    <t>BN228</t>
+  </si>
+  <si>
+    <t>BN229</t>
+  </si>
+  <si>
+    <t>BN230</t>
+  </si>
+  <si>
+    <t>BN231</t>
+  </si>
+  <si>
+    <t>BN232</t>
+  </si>
+  <si>
+    <t>BN233</t>
+  </si>
+  <si>
+    <t>BN234</t>
+  </si>
+  <si>
+    <t>BN235</t>
+  </si>
+  <si>
+    <t>BN236</t>
+  </si>
+  <si>
+    <t>BN237</t>
+  </si>
+  <si>
+    <t>BN238</t>
+  </si>
+  <si>
+    <t>BN239</t>
+  </si>
+  <si>
+    <t>BN240</t>
+  </si>
+  <si>
+    <t>BN241</t>
+  </si>
+  <si>
+    <t>BN242</t>
+  </si>
+  <si>
+    <t>BN243</t>
+  </si>
+  <si>
+    <t>BN244</t>
+  </si>
+  <si>
+    <t>BN245</t>
+  </si>
+  <si>
+    <t>BN246</t>
+  </si>
+  <si>
+    <t>BN247</t>
+  </si>
+  <si>
+    <t>BN248</t>
+  </si>
+  <si>
+    <t>Từ Pháp - TSN 10/3, đi Huế, Hội An, Cần Thơ, Ninh Bình</t>
+  </si>
+  <si>
+    <t>Về Nội Bài 13/3, tx 5 người nước ngoài, 4 người Việt cùng toà</t>
+  </si>
+  <si>
+    <t>Cty Trường Sinh, TX 169</t>
+  </si>
+  <si>
+    <t>Về quê Chương Mỹ ăn giỗ</t>
+  </si>
+  <si>
+    <t>Khỏi</t>
+  </si>
+  <si>
+    <t>Khỏi bệnh</t>
+  </si>
+  <si>
+    <t>Quê Nghệ An</t>
+  </si>
+  <si>
+    <t>chăm anh khoa TK</t>
+  </si>
+  <si>
+    <t>Chăm anh rể 4 ngày, ăn tại căng tin</t>
+  </si>
+  <si>
+    <t>Trường Sinh</t>
+  </si>
+  <si>
+    <t>Ở cùng 2 bn khác</t>
+  </si>
+  <si>
+    <t>Khám bệnh Bạch Mai</t>
+  </si>
+  <si>
+    <t>cùng vợ đi khám tại TT Nhiệt đới 12/3</t>
+  </si>
+  <si>
+    <t>Lái xe BN124</t>
+  </si>
+  <si>
+    <t>chồng BN151</t>
+  </si>
+  <si>
+    <t>Củ Chi</t>
+  </si>
+  <si>
+    <t>Thổ Nhĩ Kỳ - TP.HCM 15/3, ban đầu ko triệu chứng, xn âm tính ngày 18/3, 27/3 dương</t>
+  </si>
+  <si>
+    <t>Ăn tối cùng BN34</t>
+  </si>
+  <si>
+    <t>TX Bn34 cùng Bn 45</t>
+  </si>
+  <si>
+    <t>Con trai BN37</t>
+  </si>
+  <si>
+    <t>TX BN 163</t>
+  </si>
+  <si>
+    <t>TX BN 146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BV đa khoa Ninh Bình </t>
+  </si>
+  <si>
+    <t>Từ Mỹ về HN 20/3</t>
+  </si>
+  <si>
+    <t>quê Thái Bình</t>
+  </si>
+  <si>
+    <t>Từ Nga về 27/3</t>
+  </si>
+  <si>
+    <t>63 khỏi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Nội </t>
+  </si>
+  <si>
+    <t>Từ Đức - HN 23/3</t>
+  </si>
+  <si>
+    <t>NH857</t>
+  </si>
+  <si>
+    <t>Từ Nhật - HN 25/3</t>
+  </si>
+  <si>
+    <t>quê Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Về HN 25/3</t>
+  </si>
+  <si>
+    <t>Cùng phòng BN133</t>
+  </si>
+  <si>
+    <t>chăm bệnh nhân BM 16/3, ko triệu chứng</t>
+  </si>
+  <si>
+    <t>Từ PHáp về 17/3</t>
+  </si>
+  <si>
+    <t>Từ Canada về 24/3</t>
+  </si>
+  <si>
+    <t>Từ Mỹ về 20/3</t>
+  </si>
+  <si>
+    <t>Từ Thái Lan về, ko triệu chứng</t>
+  </si>
+  <si>
+    <t>BM 42, TS 26</t>
+  </si>
+  <si>
+    <t>chăm BN tại Bạch Mai</t>
+  </si>
+  <si>
+    <t>quê Hải Hậu</t>
+  </si>
+  <si>
+    <t>Chăm BN khoa Phục hồi chức năng 11-24/3</t>
+  </si>
+  <si>
+    <t>TX 158, bar Buddha</t>
+  </si>
+  <si>
+    <t>Ở cùng phòng BN 158</t>
+  </si>
+  <si>
+    <t>Từ Nga về 25/3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Con BN 209</t>
+  </si>
+  <si>
+    <t>Mẹ là BN209, tx với BN163 ở Bmai</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1839,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1203,8 +1882,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1243,12 +1938,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1263,6 +1952,48 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1310,10 +2041,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,12 +2110,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1392,7 +2119,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1419,34 +2145,106 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1618,10 +2416,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFB7FF00"/>
       <color rgb="FF1F86FF"/>
       <color rgb="FF00F6C1"/>
       <color rgb="FFF28400"/>
-      <color rgb="FFB7FF00"/>
       <color rgb="FF9D95FF"/>
       <color rgb="FFFEFD9C"/>
     </mruColors>
@@ -1635,20 +2433,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:M137" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="B2:M137"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="TT" dataDxfId="11"/>
-    <tableColumn id="2" name="Tuổi" dataDxfId="10"/>
-    <tableColumn id="3" name="Giới tính" dataDxfId="9"/>
-    <tableColumn id="4" name="Quốc tịch" dataDxfId="8"/>
-    <tableColumn id="5" name="Nơi mắc" dataDxfId="7"/>
-    <tableColumn id="11" name="F " dataDxfId="6"/>
-    <tableColumn id="6" name="Hạng bay" dataDxfId="5"/>
-    <tableColumn id="12" name="Nc ngoài" dataDxfId="4"/>
-    <tableColumn id="7" name="Chuyến bay" dataDxfId="3"/>
-    <tableColumn id="8" name="Ngày mắc" dataDxfId="2"/>
-    <tableColumn id="9" name="Nơi điều trị" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:N251" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <tableColumns count="13">
+    <tableColumn id="1" name="TT" dataDxfId="12"/>
+    <tableColumn id="2" name="Tuổi" dataDxfId="11"/>
+    <tableColumn id="3" name="Giới tính" dataDxfId="10"/>
+    <tableColumn id="4" name="Quốc tịch" dataDxfId="9"/>
+    <tableColumn id="5" name="Nơi mắc" dataDxfId="8"/>
+    <tableColumn id="11" name="F " dataDxfId="7"/>
+    <tableColumn id="6" name="Hạng bay" dataDxfId="6"/>
+    <tableColumn id="12" name="Nc ngoài" dataDxfId="5"/>
+    <tableColumn id="7" name="Chuyến bay" dataDxfId="4"/>
+    <tableColumn id="8" name="Ngày mắc" dataDxfId="3"/>
+    <tableColumn id="9" name="Nơi điều trị" dataDxfId="2"/>
+    <tableColumn id="13" name="Khỏi" dataDxfId="1"/>
     <tableColumn id="10" name="Ghi chú" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1918,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X137"/>
+  <dimension ref="B1:Y251"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="136" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="M1" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="136" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1933,55 +2731,51 @@
     <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.83203125" style="21" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="14.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="26"/>
+    <col min="13" max="13" width="6.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.83203125" style="21" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="14.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="N1" s="46">
+      <c r="O1" s="41">
         <v>14</v>
       </c>
-      <c r="O1" s="46">
-        <f>SUM(O3:O39)</f>
-        <v>134</v>
-      </c>
-      <c r="P1" s="47">
-        <f>SUM(P3:P18)</f>
-        <v>34</v>
-      </c>
-      <c r="Q1" s="47">
-        <f>SUM(I3:I139)</f>
-        <v>99</v>
-      </c>
-      <c r="R1" s="46">
-        <f>AVERAGE(C3:C200)</f>
-        <v>34.496240601503757</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="U1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="41">
+        <f>SUM(P3:P39)</f>
+        <v>227</v>
+      </c>
+      <c r="Q1" s="42">
+        <f>SUM(Q3:Q58)</f>
+        <v>45</v>
+      </c>
+      <c r="R1" s="42">
+        <f>SUM(I3:I291)</f>
+        <v>142</v>
+      </c>
+      <c r="S1" s="41">
+        <f>AVERAGE(C3:C291)</f>
+        <v>35.633928571428569</v>
+      </c>
+      <c r="T1">
+        <f>SUM(M3:M299)</f>
+        <v>72</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>0</v>
@@ -2002,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>36</v>
@@ -2013,27 +2807,33 @@
       <c r="L2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="T2" s="27"/>
-    </row>
-    <row r="3" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="T2" s="66" t="s">
+        <v>555</v>
+      </c>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>51</v>
       </c>
@@ -2063,21 +2863,24 @@
       <c r="L3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="15">
+        <v>1</v>
+      </c>
+      <c r="N3" s="56"/>
+      <c r="O3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="29">
-        <f>COUNTIF(F$3:F$203,N3)</f>
-        <v>40</v>
-      </c>
-      <c r="P3" s="28">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="28"/>
-      <c r="T3" s="27"/>
-    </row>
-    <row r="4" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="27">
+        <f t="shared" ref="P3:P31" si="0">COUNTIF(F$3:F$294,O3)</f>
+        <v>97</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>8</v>
+      </c>
+      <c r="R3" s="26"/>
+      <c r="U3" s="25"/>
+    </row>
+    <row r="4" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>52</v>
       </c>
@@ -2107,21 +2910,24 @@
       <c r="L4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="15">
+        <v>1</v>
+      </c>
+      <c r="N4" s="56"/>
+      <c r="O4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="29">
-        <f>COUNTIF(F$3:F$203,N4)</f>
-        <v>34</v>
-      </c>
-      <c r="P4" s="28">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="28"/>
-      <c r="T4" s="27"/>
-    </row>
-    <row r="5" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="27">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>20</v>
+      </c>
+      <c r="R4" s="26"/>
+      <c r="U4" s="25"/>
+    </row>
+    <row r="5" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>53</v>
       </c>
@@ -2149,18 +2955,21 @@
       <c r="L5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="13" t="s">
+      <c r="M5" s="15">
+        <v>1</v>
+      </c>
+      <c r="N5" s="56"/>
+      <c r="O5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="29">
-        <f>COUNTIF(F$3:F$203,N5)</f>
+      <c r="P5" s="27">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="T5" s="27"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1"/>
+      <c r="U5" s="25"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>54</v>
       </c>
@@ -2188,30 +2997,22 @@
       <c r="L6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="29">
-        <f>COUNTIF(F$3:F$203,N6)</f>
-        <v>9</v>
-      </c>
-      <c r="P6" s="28"/>
-      <c r="Q6"/>
-      <c r="T6" s="26">
-        <v>43900</v>
-      </c>
-      <c r="U6" t="s">
-        <v>139</v>
-      </c>
-      <c r="V6">
-        <v>60</v>
-      </c>
-      <c r="X6" s="25">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="57"/>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q6" s="26"/>
+      <c r="R6"/>
+      <c r="Y6" s="23"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
@@ -2239,28 +3040,19 @@
       <c r="L7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="29">
-        <f>COUNTIF(F$3:F$203,N7)</f>
-        <v>6</v>
-      </c>
-      <c r="P7" s="28">
-        <v>4</v>
-      </c>
-      <c r="T7" s="26">
-        <v>43902</v>
-      </c>
-      <c r="U7" t="s">
-        <v>141</v>
-      </c>
-      <c r="V7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="M7" s="15">
+        <v>1</v>
+      </c>
+      <c r="N7" s="57"/>
+      <c r="O7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>56</v>
       </c>
@@ -2288,19 +3080,22 @@
       <c r="L8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="29">
-        <f>COUNTIF(F$3:F$203,N8)</f>
-        <v>5</v>
-      </c>
-      <c r="P8" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="M8" s="15">
+        <v>1</v>
+      </c>
+      <c r="N8" s="57"/>
+      <c r="O8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
@@ -2330,17 +3125,22 @@
       <c r="L9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="O9" s="29">
-        <f>COUNTIF(F$3:F$203,N9)</f>
-        <v>4</v>
-      </c>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="M9" s="15">
+        <v>1</v>
+      </c>
+      <c r="N9" s="57"/>
+      <c r="O9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>58</v>
       </c>
@@ -2368,28 +3168,22 @@
       <c r="L10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="O10" s="29">
-        <f>COUNTIF(F$3:F$203,N10)</f>
+      <c r="M10" s="13">
+        <v>1</v>
+      </c>
+      <c r="N10" s="57"/>
+      <c r="O10" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="P10" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="1">
         <v>3</v>
       </c>
-      <c r="T10" s="26">
-        <v>43906</v>
-      </c>
-      <c r="U10" t="s">
-        <v>134</v>
-      </c>
-      <c r="V10">
-        <v>46</v>
-      </c>
-      <c r="W10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>59</v>
       </c>
@@ -2417,19 +3211,19 @@
       <c r="L11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="29">
-        <f>COUNTIF(F$3:F$203,N11)</f>
+      <c r="M11" s="15">
+        <v>1</v>
+      </c>
+      <c r="N11" s="57"/>
+      <c r="O11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>60</v>
       </c>
@@ -2457,21 +3251,21 @@
       <c r="L12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="15">
+        <v>1</v>
+      </c>
+      <c r="N12" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="29">
-        <f>COUNTIF(F$3:F$203,N12)</f>
-        <v>2</v>
-      </c>
-      <c r="P12" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="O12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
@@ -2499,21 +3293,24 @@
       <c r="L13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="15">
+        <v>1</v>
+      </c>
+      <c r="N13" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="29">
-        <f>COUNTIF(F$3:F$203,N13)</f>
+      <c r="O13" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="P13" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q13" s="26">
         <v>2</v>
       </c>
-      <c r="P13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>62</v>
       </c>
@@ -2541,19 +3338,22 @@
       <c r="L14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="15">
+        <v>1</v>
+      </c>
+      <c r="N14" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="O14" s="29">
-        <f>COUNTIF(F$3:F$203,N14)</f>
-        <v>2</v>
-      </c>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="O14" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="P14" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="32"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>63</v>
       </c>
@@ -2581,16 +3381,19 @@
       <c r="L15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="O15" s="29">
-        <f>COUNTIF(F$3:F$203,N15)</f>
+      <c r="M15" s="13">
+        <v>1</v>
+      </c>
+      <c r="N15" s="57"/>
+      <c r="O15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="27">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>64</v>
       </c>
@@ -2618,19 +3421,24 @@
       <c r="L16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="13">
+        <v>1</v>
+      </c>
+      <c r="N16" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="29">
-        <f>COUNTIF(F$3:F$203,N16)</f>
+      <c r="O16" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" s="27">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P16" s="28"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>65</v>
       </c>
@@ -2658,19 +3466,19 @@
       <c r="L17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O17" s="29">
-        <f>COUNTIF(F$3:F$203,N17)</f>
+      <c r="M17" s="13">
+        <v>1</v>
+      </c>
+      <c r="N17" s="57"/>
+      <c r="O17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="27">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>66</v>
       </c>
@@ -2698,19 +3506,24 @@
       <c r="L18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="13">
+        <v>1</v>
+      </c>
+      <c r="N18" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="N18" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="O18" s="29">
-        <f>COUNTIF(F$3:F$203,N18)</f>
+      <c r="O18" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="P18" s="27">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2720,23 +3533,29 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="34">
+      <c r="K19" s="31">
         <v>43889</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="O19" s="29">
-        <f>COUNTIF(F$3:F$203,N19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
+      <c r="L19" s="30"/>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="P19" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="16">
@@ -2767,16 +3586,20 @@
       <c r="L20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="O20" s="29">
-        <f>COUNTIF(F$3:F$203,N20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M20" s="16">
+        <v>1</v>
+      </c>
+      <c r="N20" s="57"/>
+      <c r="O20" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="P20" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q20" s="26"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2804,16 +3627,20 @@
       <c r="L21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="O21" s="29">
-        <f>COUNTIF(F$3:F$203,N21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="57"/>
+      <c r="O21" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="P21" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
@@ -2841,19 +3668,19 @@
       <c r="L22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3"/>
+      <c r="N22" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="N22" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O22" s="29">
-        <f>COUNTIF(F$3:F$203,N22)</f>
-        <v>1</v>
-      </c>
-      <c r="P22" s="35"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="P22" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2881,18 +3708,22 @@
       <c r="L23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="N23" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="O23" s="29">
-        <f>COUNTIF(F$3:F$203,N23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="26"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2924,17 +3755,19 @@
       <c r="L24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="3"/>
+      <c r="N24" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="29">
-        <f>COUNTIF(F$3:F$203,N24)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="28"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O24" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="P24" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
@@ -2968,9 +3801,19 @@
       <c r="L25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="24"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+      <c r="N25" s="57"/>
+      <c r="O25" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="P25" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
@@ -3004,9 +3847,19 @@
       <c r="L26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+      <c r="N26" s="57"/>
+      <c r="O26" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="P26" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
@@ -3040,9 +3893,19 @@
       <c r="L27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="24"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="57"/>
+      <c r="O27" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
@@ -3076,9 +3939,17 @@
       <c r="L28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="24"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M28" s="5"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
@@ -3112,9 +3983,15 @@
       <c r="L29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="24"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M29" s="5"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
@@ -3148,9 +4025,16 @@
       <c r="L30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="N30" s="57"/>
+      <c r="P30" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
@@ -3184,9 +4068,14 @@
       <c r="L31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M31" s="5"/>
+      <c r="N31" s="57"/>
+      <c r="P31" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
@@ -3220,9 +4109,10 @@
       <c r="L32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M32" s="24"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="5"/>
+      <c r="N32" s="57"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>12</v>
       </c>
@@ -3236,7 +4126,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>119</v>
@@ -3256,9 +4146,10 @@
       <c r="L33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="24"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="5"/>
+      <c r="N33" s="57"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
@@ -3292,9 +4183,10 @@
       <c r="L34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M34" s="24"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="5"/>
+      <c r="N34" s="57"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
@@ -3324,46 +4216,52 @@
       <c r="L35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M35" s="24" t="s">
+      <c r="M35" s="5">
+        <v>1</v>
+      </c>
+      <c r="N35" s="57" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="52">
         <v>58</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5" t="s">
+      <c r="G36" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52">
+        <v>1</v>
+      </c>
+      <c r="J36" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="53">
         <v>43900</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="M36" s="24"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="s">
+      <c r="M36" s="52">
+        <v>1</v>
+      </c>
+      <c r="N36" s="57"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="49" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="19">
@@ -3390,9 +4288,10 @@
       <c r="L37" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="M37" s="24"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M37" s="19"/>
+      <c r="N37" s="57"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>79</v>
       </c>
@@ -3420,11 +4319,14 @@
       <c r="L38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="24" t="s">
+      <c r="M38" s="13">
+        <v>1</v>
+      </c>
+      <c r="N38" s="57" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>80</v>
       </c>
@@ -3435,7 +4337,7 @@
         <v>30</v>
       </c>
       <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="68" t="s">
         <v>49</v>
       </c>
       <c r="G39" s="13" t="s">
@@ -3454,11 +4356,12 @@
       <c r="L39" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="M39" s="13"/>
+      <c r="N39" s="60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>84</v>
       </c>
@@ -3469,7 +4372,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="68" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="13" t="s">
@@ -3488,11 +4391,12 @@
       <c r="L40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M40" s="13" t="s">
+      <c r="M40" s="13"/>
+      <c r="N40" s="60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="13" t="s">
         <v>83</v>
       </c>
@@ -3503,7 +4407,7 @@
         <v>30</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="68" t="s">
         <v>49</v>
       </c>
       <c r="G41" s="13" t="s">
@@ -3522,11 +4426,12 @@
       <c r="L41" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="13" t="s">
+      <c r="M41" s="13"/>
+      <c r="N41" s="60" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="13" t="s">
         <v>86</v>
       </c>
@@ -3547,18 +4452,23 @@
       <c r="I42" s="13">
         <v>0</v>
       </c>
-      <c r="J42" s="13"/>
+      <c r="J42" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="K42" s="14">
         <v>43902</v>
       </c>
       <c r="L42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="13" t="s">
+      <c r="M42" s="13">
+        <v>1</v>
+      </c>
+      <c r="N42" s="60" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
         <v>87</v>
       </c>
@@ -3569,7 +4479,7 @@
         <v>30</v>
       </c>
       <c r="E43" s="13"/>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="68" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="13" t="s">
@@ -3588,9 +4498,10 @@
       <c r="L43" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M43" s="24"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="13"/>
+      <c r="N43" s="57"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="13" t="s">
         <v>88</v>
       </c>
@@ -3601,7 +4512,7 @@
         <v>89</v>
       </c>
       <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="68" t="s">
         <v>49</v>
       </c>
       <c r="G44" s="13" t="s">
@@ -3620,9 +4531,12 @@
       <c r="L44" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="13"/>
+      <c r="N44" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="13" t="s">
         <v>90</v>
       </c>
@@ -3633,7 +4547,7 @@
         <v>31</v>
       </c>
       <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="68" t="s">
         <v>49</v>
       </c>
       <c r="G45" s="13" t="s">
@@ -3652,9 +4566,10 @@
       <c r="L45" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M45" s="24"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="13"/>
+      <c r="N45" s="57"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
         <v>91</v>
       </c>
@@ -3665,7 +4580,7 @@
         <v>30</v>
       </c>
       <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="68" t="s">
         <v>49</v>
       </c>
       <c r="G46" s="13" t="s">
@@ -3684,11 +4599,12 @@
       <c r="L46" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M46" s="24" t="s">
+      <c r="M46" s="13"/>
+      <c r="N46" s="57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
         <v>92</v>
       </c>
@@ -3699,7 +4615,7 @@
         <v>31</v>
       </c>
       <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="68" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="13" t="s">
@@ -3718,9 +4634,12 @@
       <c r="L47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M47" s="24"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="13"/>
+      <c r="N47" s="57" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
         <v>94</v>
       </c>
@@ -3731,7 +4650,7 @@
         <v>31</v>
       </c>
       <c r="E48" s="13"/>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="68" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="13" t="s">
@@ -3750,9 +4669,14 @@
       <c r="L48" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M48" s="24"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="13">
+        <v>1</v>
+      </c>
+      <c r="N48" s="57" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
         <v>97</v>
       </c>
@@ -3782,11 +4706,14 @@
       <c r="L49" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="13">
+        <v>1</v>
+      </c>
+      <c r="N49" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="13" t="s">
         <v>99</v>
       </c>
@@ -3816,9 +4743,12 @@
       <c r="L50" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="24"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="13">
+        <v>1</v>
+      </c>
+      <c r="N50" s="57"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
         <v>102</v>
       </c>
@@ -3829,7 +4759,7 @@
         <v>31</v>
       </c>
       <c r="E51" s="13"/>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="68" t="s">
         <v>43</v>
       </c>
       <c r="G51" s="13" t="s">
@@ -3848,9 +4778,14 @@
       <c r="L51" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M51" s="24"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="13">
+        <v>1</v>
+      </c>
+      <c r="N51" s="57" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
         <v>104</v>
       </c>
@@ -3864,7 +4799,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>120</v>
@@ -3884,11 +4819,14 @@
       <c r="L52" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="M52" s="24" t="s">
+      <c r="M52" s="13">
+        <v>1</v>
+      </c>
+      <c r="N52" s="57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>113</v>
       </c>
@@ -3918,13 +4856,14 @@
       <c r="L53" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="24" t="s">
+      <c r="M53" s="13"/>
+      <c r="N53" s="57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C54" s="13">
         <v>22</v>
@@ -3933,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>27</v>
@@ -3952,9 +4891,12 @@
       <c r="L54" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="24"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="13">
+        <v>1</v>
+      </c>
+      <c r="N54" s="57"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
         <v>114</v>
       </c>
@@ -3965,7 +4907,7 @@
         <v>30</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>40</v>
@@ -3984,9 +4926,10 @@
       <c r="L55" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="M55" s="24"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M55" s="13"/>
+      <c r="N55" s="57"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
         <v>115</v>
       </c>
@@ -4010,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K56" s="14">
         <v>43904</v>
@@ -4018,13 +4961,16 @@
       <c r="L56" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M56" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M56" s="13">
+        <v>1</v>
+      </c>
+      <c r="N56" s="57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C57" s="13">
         <v>33</v>
@@ -4033,7 +4979,7 @@
         <v>31</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>43</v>
@@ -4052,13 +4998,16 @@
       <c r="L57" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M57" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="13">
+        <v>1</v>
+      </c>
+      <c r="N57" s="57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C58" s="13">
         <v>35</v>
@@ -4067,7 +5016,7 @@
         <v>31</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>27</v>
@@ -4080,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K58" s="14">
         <v>43905</v>
@@ -4088,13 +5037,16 @@
       <c r="L58" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="13">
+        <v>1</v>
+      </c>
+      <c r="N58" s="57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C59" s="13">
         <v>30</v>
@@ -4122,13 +5074,16 @@
       <c r="L59" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M59" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="13">
+        <v>1</v>
+      </c>
+      <c r="N59" s="58" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C60" s="13">
         <v>66</v>
@@ -4156,13 +5111,14 @@
       <c r="L60" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M60" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="13"/>
+      <c r="N60" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="13" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C61" s="13">
         <v>26</v>
@@ -4171,7 +5127,7 @@
         <v>30</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>27</v>
@@ -4188,15 +5144,18 @@
         <v>43906</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="M61" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="M61" s="13">
+        <v>1</v>
+      </c>
+      <c r="N61" s="57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C62" s="13">
         <v>30</v>
@@ -4224,13 +5183,16 @@
       <c r="L62" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="13">
+        <v>1</v>
+      </c>
+      <c r="N62" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C63" s="13">
         <v>29</v>
@@ -4239,7 +5201,7 @@
         <v>31</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>27</v>
@@ -4258,11 +5220,14 @@
       <c r="L63" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M63" s="24"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="13">
+        <v>1</v>
+      </c>
+      <c r="N63" s="57"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C64" s="13">
         <v>42</v>
@@ -4272,33 +5237,36 @@
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I64" s="13">
         <v>1</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K64" s="14">
         <v>43906</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="M64" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="M64" s="13">
+        <v>1</v>
+      </c>
+      <c r="N64" s="61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C65" s="13">
         <v>18</v>
@@ -4307,7 +5275,7 @@
         <v>31</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>40</v>
@@ -4326,13 +5294,16 @@
       <c r="L65" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M65" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="13">
+        <v>1</v>
+      </c>
+      <c r="N65" s="57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C66" s="13">
         <v>20</v>
@@ -4341,7 +5312,7 @@
         <v>30</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>27</v>
@@ -4354,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K66" s="14">
         <v>43907</v>
@@ -4362,11 +5333,14 @@
       <c r="L66" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M66" s="24"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="13">
+        <v>1</v>
+      </c>
+      <c r="N66" s="57"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C67" s="13">
         <v>36</v>
@@ -4386,21 +5360,24 @@
         <v>1</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K67" s="14">
         <v>43907</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="M67" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="M67" s="13">
+        <v>1</v>
+      </c>
+      <c r="N67" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C68" s="13">
         <v>28</v>
@@ -4409,7 +5386,7 @@
         <v>30</v>
       </c>
       <c r="E68" s="13"/>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="68" t="s">
         <v>43</v>
       </c>
       <c r="G68" s="13" t="s">
@@ -4424,21 +5401,24 @@
         <v>43907</v>
       </c>
       <c r="L68" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="M68" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="M68" s="13">
+        <v>1</v>
+      </c>
+      <c r="N68" s="57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="13" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C69" s="13">
         <v>21</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13" t="s">
@@ -4452,57 +5432,63 @@
         <v>1</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K69" s="14">
         <v>43907</v>
       </c>
       <c r="L69" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="M69" s="24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="M69" s="13">
+        <v>1</v>
+      </c>
+      <c r="N69" s="57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="13" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C70" s="13">
         <v>36</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="32" t="s">
         <v>31</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I70" s="13">
         <v>1</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K70" s="14">
         <v>43908</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="M70" s="33" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="M70" s="13">
+        <v>1</v>
+      </c>
+      <c r="N70" s="58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C71" s="13">
         <v>41</v>
@@ -4530,11 +5516,12 @@
       <c r="L71" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M71" s="24"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="13"/>
+      <c r="N71" s="57"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="13" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C72" s="13">
         <v>30</v>
@@ -4543,7 +5530,7 @@
         <v>31</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>27</v>
@@ -4556,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K72" s="14">
         <v>43908</v>
@@ -4564,11 +5551,14 @@
       <c r="L72" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M72" s="24"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="13">
+        <v>1</v>
+      </c>
+      <c r="N72" s="57"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C73" s="13">
         <v>19</v>
@@ -4588,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K73" s="14">
         <v>43908</v>
@@ -4596,13 +5586,16 @@
       <c r="L73" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M73" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="13">
+        <v>1</v>
+      </c>
+      <c r="N73" s="57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C74" s="13">
         <v>19</v>
@@ -4622,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K74" s="14">
         <v>43908</v>
@@ -4630,13 +5623,16 @@
       <c r="L74" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="13">
+        <v>1</v>
+      </c>
+      <c r="N74" s="57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C75" s="13">
         <v>25</v>
@@ -4645,7 +5641,7 @@
         <v>30</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>27</v>
@@ -4664,13 +5660,14 @@
       <c r="L75" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M75" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="13"/>
+      <c r="N75" s="57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="13" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C76" s="13">
         <v>11</v>
@@ -4678,33 +5675,38 @@
       <c r="D76" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="13"/>
+      <c r="E76" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="F76" s="13" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H76" s="32"/>
-      <c r="I76" s="36">
-        <v>1</v>
-      </c>
-      <c r="J76" s="31" t="s">
+      <c r="H76" s="29"/>
+      <c r="I76" s="33">
+        <v>1</v>
+      </c>
+      <c r="J76" s="28" t="s">
         <v>35</v>
       </c>
       <c r="K76" s="14">
         <v>43908</v>
       </c>
       <c r="L76" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="M76" s="24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="M76" s="13">
+        <v>1</v>
+      </c>
+      <c r="N76" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C77" s="13">
         <v>23</v>
@@ -4714,13 +5716,13 @@
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I77" s="13">
         <v>1</v>
@@ -4730,15 +5732,16 @@
         <v>43908</v>
       </c>
       <c r="L77" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="M77" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M77" s="13"/>
+      <c r="N77" s="57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="13" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C78" s="13">
         <v>40</v>
@@ -4758,21 +5761,24 @@
         <v>1</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K78" s="14">
         <v>43908</v>
       </c>
       <c r="L78" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="M78" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="M78" s="13">
+        <v>1</v>
+      </c>
+      <c r="N78" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="13" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C79" s="13">
         <v>52</v>
@@ -4781,7 +5787,7 @@
         <v>31</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>28</v>
@@ -4794,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K79" s="14">
         <v>43908</v>
@@ -4802,13 +5808,16 @@
       <c r="L79" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M79" s="24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M79" s="13">
+        <v>1</v>
+      </c>
+      <c r="N79" s="57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="13" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C80" s="13">
         <v>25</v>
@@ -4828,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K80" s="14">
         <v>43909</v>
@@ -4836,13 +5845,16 @@
       <c r="L80" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M80" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="13">
+        <v>1</v>
+      </c>
+      <c r="N80" s="57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="13" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C81" s="13">
         <v>22</v>
@@ -4862,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K81" s="14">
         <v>43909</v>
@@ -4870,13 +5882,16 @@
       <c r="L81" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M81" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="13">
+        <v>1</v>
+      </c>
+      <c r="N81" s="57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C82" s="13">
         <v>48</v>
@@ -4892,27 +5907,30 @@
         <v>119</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I82" s="13">
         <v>1</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K82" s="14">
         <v>43909</v>
       </c>
       <c r="L82" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="M82" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="M82" s="13">
+        <v>1</v>
+      </c>
+      <c r="N82" s="57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="13" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C83" s="13">
         <v>18</v>
@@ -4928,27 +5946,28 @@
         <v>120</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I83" s="13">
         <v>1</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K83" s="14">
         <v>43909</v>
       </c>
       <c r="L83" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="M83" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="M83" s="13"/>
+      <c r="N83" s="57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="13" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C84" s="13">
         <v>20</v>
@@ -4964,27 +5983,28 @@
         <v>119</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I84" s="13">
         <v>1</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K84" s="14">
         <v>43909</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="M84" s="24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="M84" s="13"/>
+      <c r="N84" s="57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C85" s="13">
         <v>16</v>
@@ -5004,19 +6024,20 @@
         <v>1</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K85" s="14">
         <v>43909</v>
       </c>
       <c r="L85" s="13"/>
-      <c r="M85" s="24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="13"/>
+      <c r="N85" s="57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="13" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C86" s="13">
         <v>50</v>
@@ -5038,19 +6059,20 @@
         <v>1</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K86" s="14">
         <v>43909</v>
       </c>
       <c r="L86" s="13"/>
-      <c r="M86" s="24" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="13"/>
+      <c r="N86" s="57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="13" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C87" s="13">
         <v>21</v>
@@ -5076,15 +6098,16 @@
         <v>43909</v>
       </c>
       <c r="L87" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="M87" s="24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="M87" s="13"/>
+      <c r="N87" s="57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="13" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C88" s="13">
         <v>20</v>
@@ -5112,13 +6135,16 @@
       <c r="L88" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M88" s="24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B89" s="13" t="s">
-        <v>231</v>
+      <c r="M88" s="13">
+        <v>1</v>
+      </c>
+      <c r="N88" s="57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B89" s="47" t="s">
+        <v>223</v>
       </c>
       <c r="C89" s="13">
         <v>54</v>
@@ -5133,8 +6159,8 @@
       <c r="G89" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H89" s="49" t="s">
-        <v>234</v>
+      <c r="H89" s="44" t="s">
+        <v>226</v>
       </c>
       <c r="I89" s="13">
         <v>0</v>
@@ -5146,13 +6172,14 @@
       <c r="L89" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M89" s="24" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="13"/>
+      <c r="N89" s="57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="13" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C90" s="13">
         <v>34</v>
@@ -5167,8 +6194,8 @@
       <c r="G90" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H90" s="49" t="s">
-        <v>235</v>
+      <c r="H90" s="44" t="s">
+        <v>227</v>
       </c>
       <c r="I90" s="13">
         <v>0</v>
@@ -5180,11 +6207,12 @@
       <c r="L90" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M90" s="24"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M90" s="13"/>
+      <c r="N90" s="57"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="13" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C91" s="13">
         <v>25</v>
@@ -5210,13 +6238,16 @@
       <c r="L91" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M91" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="13">
+        <v>1</v>
+      </c>
+      <c r="N91" s="57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="13" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C92" s="13">
         <v>22</v>
@@ -5236,21 +6267,24 @@
         <v>1</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K92" s="14">
         <v>43910</v>
       </c>
       <c r="L92" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="M92" s="24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="M92" s="13">
+        <v>1</v>
+      </c>
+      <c r="N92" s="57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C93" s="13">
         <v>21</v>
@@ -5270,21 +6304,24 @@
         <v>1</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K93" s="14">
         <v>43910</v>
       </c>
       <c r="L93" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="M93" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B94" s="13" t="s">
-        <v>241</v>
+        <v>169</v>
+      </c>
+      <c r="M93" s="13">
+        <v>1</v>
+      </c>
+      <c r="N93" s="57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B94" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C94" s="13">
         <v>43</v>
@@ -5302,7 +6339,7 @@
         <v>119</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>242</v>
+        <v>443</v>
       </c>
       <c r="I94" s="13">
         <v>1</v>
@@ -5314,13 +6351,14 @@
       <c r="L94" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M94" s="24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="13"/>
+      <c r="N94" s="57" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="13" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C95" s="13">
         <v>21</v>
@@ -5329,7 +6367,7 @@
         <v>31</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>43</v>
@@ -5338,25 +6376,26 @@
         <v>119</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I95" s="13">
         <v>1</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K95" s="14">
         <v>43911</v>
       </c>
       <c r="L95" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="M95" s="24"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="M95" s="13"/>
+      <c r="N95" s="57"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="13" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C96" s="13">
         <v>20</v>
@@ -5365,7 +6404,7 @@
         <v>31</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>27</v>
@@ -5374,13 +6413,13 @@
         <v>119</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I96" s="13">
         <v>1</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K96" s="14">
         <v>43911</v>
@@ -5388,11 +6427,14 @@
       <c r="L96" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M96" s="24"/>
-    </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M96" s="13">
+        <v>1</v>
+      </c>
+      <c r="N96" s="57"/>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B97" s="13" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C97" s="13">
         <v>64</v>
@@ -5408,13 +6450,13 @@
         <v>120</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I97" s="13">
         <v>1</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K97" s="14">
         <v>43911</v>
@@ -5422,13 +6464,14 @@
       <c r="L97" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M97" s="24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M97" s="13"/>
+      <c r="N97" s="57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B98" s="13" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C98" s="13">
         <v>20</v>
@@ -5437,7 +6480,7 @@
         <v>31</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>43</v>
@@ -5450,22 +6493,23 @@
         <v>1</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="K98" s="14">
         <v>43912</v>
       </c>
       <c r="L98" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="M98" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="N98" s="42"/>
-    </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="M98" s="13"/>
+      <c r="N98" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="O98" s="38"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B99" s="13" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C99" s="13">
         <v>21</v>
@@ -5485,20 +6529,21 @@
         <v>1</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K99" s="14">
         <v>43912</v>
       </c>
       <c r="L99" s="13"/>
-      <c r="M99" s="24" t="s">
+      <c r="M99" s="13"/>
+      <c r="N99" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="N99" s="42"/>
-    </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B100" s="13" t="s">
-        <v>255</v>
+      <c r="O99" s="38"/>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B100" s="47" t="s">
+        <v>246</v>
       </c>
       <c r="C100" s="13">
         <v>34</v>
@@ -5516,7 +6561,7 @@
         <v>120</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
@@ -5528,12 +6573,15 @@
       <c r="L100" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M100" s="24"/>
-      <c r="N100" s="42"/>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B101" s="13" t="s">
-        <v>256</v>
+      <c r="M100" s="13"/>
+      <c r="N100" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="O100" s="38"/>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B101" s="47" t="s">
+        <v>247</v>
       </c>
       <c r="C101" s="13">
         <v>34</v>
@@ -5551,7 +6599,7 @@
         <v>126</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I101" s="13">
         <v>0</v>
@@ -5561,12 +6609,15 @@
         <v>43912</v>
       </c>
       <c r="L101" s="13"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="42"/>
-    </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M101" s="13"/>
+      <c r="N101" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="O101" s="38"/>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B102" s="13" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C102" s="13">
         <v>29</v>
@@ -5586,22 +6637,23 @@
         <v>1</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="K102" s="14">
         <v>43912</v>
       </c>
       <c r="L102" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="M102" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="N102" s="42"/>
-    </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B103" s="13" t="s">
-        <v>271</v>
+        <v>251</v>
+      </c>
+      <c r="M102" s="13"/>
+      <c r="N102" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="O102" s="38"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="47" t="s">
+        <v>262</v>
       </c>
       <c r="C103" s="13">
         <v>55</v>
@@ -5617,13 +6669,13 @@
         <v>119</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I103" s="13">
         <v>1</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K103" s="14">
         <v>43912</v>
@@ -5631,14 +6683,15 @@
       <c r="L103" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M103" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="N103" s="42"/>
-    </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M103" s="13"/>
+      <c r="N103" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="O103" s="46"/>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B104" s="13" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C104" s="13">
         <v>26</v>
@@ -5648,34 +6701,35 @@
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I104" s="13">
         <v>1</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K104" s="14">
         <v>43912</v>
       </c>
       <c r="L104" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="M104" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="N104" s="42"/>
-    </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="M104" s="13"/>
+      <c r="N104" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="O104" s="38"/>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B105" s="13" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C105" s="13">
         <v>9</v>
@@ -5685,13 +6739,13 @@
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I105" s="13">
         <v>1</v>
@@ -5703,16 +6757,17 @@
         <v>43912</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="M105" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="N105" s="42"/>
-    </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="M105" s="13"/>
+      <c r="N105" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="O105" s="38"/>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B106" s="13" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C106" s="13">
         <v>22</v>
@@ -5722,13 +6777,13 @@
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I106" s="13">
         <v>1</v>
@@ -5740,16 +6795,17 @@
         <v>43912</v>
       </c>
       <c r="L106" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="M106" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="N106" s="42"/>
-    </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="M106" s="13"/>
+      <c r="N106" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="O106" s="38"/>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B107" s="13" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C107" s="13">
         <v>33</v>
@@ -5759,13 +6815,13 @@
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I107" s="13">
         <v>1</v>
@@ -5777,16 +6833,17 @@
         <v>43912</v>
       </c>
       <c r="L107" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="M107" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="N107" s="44"/>
-    </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="M107" s="13"/>
+      <c r="N107" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="O107" s="40"/>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B108" s="13" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C108" s="13">
         <v>35</v>
@@ -5796,34 +6853,35 @@
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="13" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G108" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I108" s="13">
         <v>1</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K108" s="14">
         <v>43912</v>
       </c>
       <c r="L108" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="M108" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="N108" s="42"/>
-    </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="M108" s="13"/>
+      <c r="N108" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="O108" s="38"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B109" s="13" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C109" s="13">
         <v>20</v>
@@ -5833,366 +6891,383 @@
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G109" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I109" s="13">
         <v>1</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K109" s="14">
         <v>43912</v>
       </c>
       <c r="L109" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="M109" s="13"/>
+      <c r="N109" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="O109" s="38"/>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B110" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C110" s="35">
+        <v>25</v>
+      </c>
+      <c r="D110" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H110" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="I110" s="35">
+        <v>0</v>
+      </c>
+      <c r="J110" s="35"/>
+      <c r="K110" s="37">
+        <v>43912</v>
+      </c>
+      <c r="L110" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M110" s="35">
+        <v>1</v>
+      </c>
+      <c r="N110" s="63"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="36"/>
+      <c r="Q110" s="35"/>
+      <c r="R110" s="35"/>
+      <c r="S110" s="36"/>
+      <c r="T110" s="36"/>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B111" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="35">
+        <v>19</v>
+      </c>
+      <c r="D111" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F111" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35">
+        <v>1</v>
+      </c>
+      <c r="J111" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K111" s="37">
+        <v>43912</v>
+      </c>
+      <c r="L111" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" s="35"/>
+      <c r="N111" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="O111" s="39"/>
+      <c r="P111" s="36"/>
+      <c r="Q111" s="35"/>
+      <c r="R111" s="35"/>
+      <c r="S111" s="36"/>
+      <c r="T111" s="36"/>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B112" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="C112" s="35">
+        <v>42</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35">
+        <v>1</v>
+      </c>
+      <c r="J112" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="M109" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="N109" s="42"/>
-    </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B110" s="38" t="s">
+      <c r="K112" s="37">
+        <v>43912</v>
+      </c>
+      <c r="L112" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" s="35"/>
+      <c r="N112" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="O112" s="39"/>
+      <c r="P112" s="36"/>
+      <c r="Q112" s="35"/>
+      <c r="R112" s="35"/>
+      <c r="S112" s="36"/>
+      <c r="T112" s="36"/>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B113" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C113" s="35">
+        <v>19</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F113" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35">
+        <v>1</v>
+      </c>
+      <c r="J113" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="K113" s="37">
+        <v>43912</v>
+      </c>
+      <c r="L113" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M113" s="35">
+        <v>1</v>
+      </c>
+      <c r="N113" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="O113" s="39"/>
+      <c r="P113" s="36"/>
+      <c r="Q113" s="35"/>
+      <c r="R113" s="35"/>
+      <c r="S113" s="36"/>
+      <c r="T113" s="36"/>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B114" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="C110" s="38">
+      <c r="C114" s="35">
         <v>25</v>
       </c>
-      <c r="D110" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38" t="s">
+      <c r="D114" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F114" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G110" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="H110" s="38" t="s">
+      <c r="G114" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="I110" s="38">
-        <v>0</v>
-      </c>
-      <c r="J110" s="38"/>
-      <c r="K110" s="40">
+      <c r="I114" s="35">
+        <v>1</v>
+      </c>
+      <c r="J114" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K114" s="37">
         <v>43912</v>
       </c>
-      <c r="L110" s="38" t="s">
+      <c r="L114" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="M110" s="41"/>
-      <c r="N110" s="43"/>
-      <c r="O110" s="39"/>
-      <c r="P110" s="38"/>
-      <c r="Q110" s="38"/>
-      <c r="R110" s="39"/>
-      <c r="S110" s="39"/>
-    </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B111" s="38" t="s">
+      <c r="M114" s="35"/>
+      <c r="N114" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="O114" s="39"/>
+      <c r="P114" s="36"/>
+      <c r="Q114" s="35"/>
+      <c r="R114" s="35"/>
+      <c r="S114" s="36"/>
+      <c r="T114" s="36"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B115" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C115" s="35">
+        <v>30</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F115" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35">
+        <v>1</v>
+      </c>
+      <c r="J115" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C111" s="38">
+      <c r="K115" s="37">
+        <v>43912</v>
+      </c>
+      <c r="L115" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115" s="35">
+        <v>1</v>
+      </c>
+      <c r="N115" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="O115" s="39"/>
+      <c r="P115" s="36"/>
+      <c r="Q115" s="35"/>
+      <c r="R115" s="35"/>
+      <c r="S115" s="36"/>
+      <c r="T115" s="36"/>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B116" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C116" s="35">
+        <v>18</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F116" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35">
+        <v>1</v>
+      </c>
+      <c r="J116" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K116" s="37">
+        <v>43912</v>
+      </c>
+      <c r="L116" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M116" s="35">
+        <v>1</v>
+      </c>
+      <c r="N116" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="O116" s="39"/>
+      <c r="P116" s="36"/>
+      <c r="Q116" s="35"/>
+      <c r="R116" s="35"/>
+      <c r="S116" s="36"/>
+      <c r="T116" s="36"/>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B117" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C117" s="35">
         <v>19</v>
       </c>
-      <c r="D111" s="38" t="s">
+      <c r="D117" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E111" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="F111" s="38" t="s">
+      <c r="E117" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F117" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G111" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38">
-        <v>1</v>
-      </c>
-      <c r="J111" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="K111" s="40">
-        <v>43912</v>
-      </c>
-      <c r="L111" s="38" t="s">
+      <c r="G117" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H117" s="13"/>
+      <c r="I117" s="35">
+        <v>1</v>
+      </c>
+      <c r="J117" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K117" s="37">
+        <v>43913</v>
+      </c>
+      <c r="L117" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="M111" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="N111" s="43"/>
-      <c r="O111" s="39"/>
-      <c r="P111" s="38"/>
-      <c r="Q111" s="38"/>
-      <c r="R111" s="39"/>
-      <c r="S111" s="39"/>
-    </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B112" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="C112" s="38">
-        <v>42</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38">
-        <v>1</v>
-      </c>
-      <c r="J112" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="K112" s="40">
-        <v>43912</v>
-      </c>
-      <c r="L112" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M112" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="N112" s="43"/>
-      <c r="O112" s="39"/>
-      <c r="P112" s="38"/>
-      <c r="Q112" s="38"/>
-      <c r="R112" s="39"/>
-      <c r="S112" s="39"/>
-    </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B113" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="C113" s="38">
-        <v>19</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E113" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="F113" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38">
-        <v>1</v>
-      </c>
-      <c r="J113" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="K113" s="40">
-        <v>43912</v>
-      </c>
-      <c r="L113" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M113" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="N113" s="43"/>
-      <c r="O113" s="39"/>
-      <c r="P113" s="38"/>
-      <c r="Q113" s="38"/>
-      <c r="R113" s="39"/>
-      <c r="S113" s="39"/>
-    </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B114" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="C114" s="38">
-        <v>25</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E114" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="F114" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H114" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="I114" s="38">
-        <v>1</v>
-      </c>
-      <c r="J114" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="K114" s="40">
-        <v>43912</v>
-      </c>
-      <c r="L114" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M114" s="41" t="s">
+      <c r="M117" s="35"/>
+      <c r="N117" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="N114" s="43"/>
-      <c r="O114" s="39"/>
-      <c r="P114" s="38"/>
-      <c r="Q114" s="38"/>
-      <c r="R114" s="39"/>
-      <c r="S114" s="39"/>
-    </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B115" s="38" t="s">
+      <c r="O117" s="36"/>
+      <c r="P117" s="36"/>
+      <c r="Q117" s="35"/>
+      <c r="R117" s="35"/>
+      <c r="S117" s="36"/>
+      <c r="T117" s="36"/>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B118" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="C115" s="38">
-        <v>30</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E115" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="F115" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38">
-        <v>1</v>
-      </c>
-      <c r="J115" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="K115" s="40">
-        <v>43912</v>
-      </c>
-      <c r="L115" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M115" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="N115" s="43"/>
-      <c r="O115" s="39"/>
-      <c r="P115" s="38"/>
-      <c r="Q115" s="38"/>
-      <c r="R115" s="39"/>
-      <c r="S115" s="39"/>
-    </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B116" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="C116" s="38">
-        <v>18</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E116" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="F116" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38">
-        <v>1</v>
-      </c>
-      <c r="J116" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="K116" s="40">
-        <v>43912</v>
-      </c>
-      <c r="L116" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M116" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="N116" s="43"/>
-      <c r="O116" s="39"/>
-      <c r="P116" s="38"/>
-      <c r="Q116" s="38"/>
-      <c r="R116" s="39"/>
-      <c r="S116" s="39"/>
-    </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B117" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="C117" s="38">
-        <v>19</v>
-      </c>
-      <c r="D117" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E117" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="F117" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G117" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H117" s="13"/>
-      <c r="I117" s="38">
-        <v>1</v>
-      </c>
-      <c r="J117" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="K117" s="40">
-        <v>43913</v>
-      </c>
-      <c r="L117" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M117" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="N117" s="39"/>
-      <c r="O117" s="39"/>
-      <c r="P117" s="38"/>
-      <c r="Q117" s="38"/>
-      <c r="R117" s="39"/>
-      <c r="S117" s="39"/>
-    </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B118" s="13" t="s">
-        <v>315</v>
       </c>
       <c r="C118" s="13">
         <v>44</v>
@@ -6207,26 +7282,27 @@
       <c r="G118" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H118" s="38" t="s">
-        <v>318</v>
+      <c r="H118" s="35" t="s">
+        <v>309</v>
       </c>
       <c r="I118" s="13">
         <v>1</v>
       </c>
       <c r="J118" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K118" s="14">
         <v>43913</v>
       </c>
-      <c r="L118" s="38" t="s">
+      <c r="L118" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="M118" s="24"/>
-    </row>
-    <row r="119" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M118" s="35"/>
+      <c r="N118" s="57"/>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B119" s="13" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C119" s="13">
         <v>29</v>
@@ -6241,8 +7317,8 @@
       <c r="G119" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H119" s="45" t="s">
-        <v>317</v>
+      <c r="H119" s="44" t="s">
+        <v>308</v>
       </c>
       <c r="I119" s="13">
         <v>0</v>
@@ -6251,14 +7327,15 @@
       <c r="K119" s="14">
         <v>43913</v>
       </c>
-      <c r="L119" s="38" t="s">
+      <c r="L119" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="M119" s="24"/>
-    </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M119" s="35"/>
+      <c r="N119" s="57"/>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B120" s="13" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C120" s="13">
         <v>30</v>
@@ -6268,13 +7345,13 @@
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G120" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I120" s="13">
         <v>1</v>
@@ -6284,15 +7361,16 @@
         <v>43913</v>
       </c>
       <c r="L120" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="M120" s="24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="121" spans="2:19" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="M120" s="13"/>
+      <c r="N120" s="57" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B121" s="13" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C121" s="13">
         <v>23</v>
@@ -6302,13 +7380,13 @@
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G121" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I121" s="13">
         <v>1</v>
@@ -6318,15 +7396,16 @@
         <v>43913</v>
       </c>
       <c r="L121" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="M121" s="24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="M121" s="13"/>
+      <c r="N121" s="57" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B122" s="13" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C122" s="13">
         <v>29</v>
@@ -6352,15 +7431,16 @@
         <v>43913</v>
       </c>
       <c r="L122" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="M122" s="24" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="M122" s="13"/>
+      <c r="N122" s="57" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B123" s="13" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C123" s="13">
         <v>27</v>
@@ -6369,7 +7449,7 @@
         <v>31</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F123" s="13" t="s">
         <v>43</v>
@@ -6378,7 +7458,7 @@
         <v>120</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>332</v>
+        <v>442</v>
       </c>
       <c r="I123" s="13">
         <v>0</v>
@@ -6388,13 +7468,14 @@
         <v>43913</v>
       </c>
       <c r="L123" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="M123" s="24"/>
-    </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="M123" s="13"/>
+      <c r="N123" s="57"/>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B124" s="13" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C124" s="13">
         <v>58</v>
@@ -6409,26 +7490,27 @@
       <c r="G124" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H124" s="13" t="s">
-        <v>239</v>
-      </c>
+      <c r="H124" s="13"/>
       <c r="I124" s="13">
         <v>1</v>
       </c>
-      <c r="J124" s="13"/>
+      <c r="J124" s="13" t="s">
+        <v>231</v>
+      </c>
       <c r="K124" s="14">
         <v>43913</v>
       </c>
       <c r="L124" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="M124" s="24" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="M124" s="13"/>
+      <c r="N124" s="57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B125" s="13" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C125" s="13">
         <v>24</v>
@@ -6444,13 +7526,13 @@
         <v>119</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="I125" s="13">
         <v>1</v>
       </c>
       <c r="J125" s="13" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="K125" s="14">
         <v>43913</v>
@@ -6458,13 +7540,14 @@
       <c r="L125" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M125" s="24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M125" s="13"/>
+      <c r="N125" s="57" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B126" s="13" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C126" s="13">
         <v>17</v>
@@ -6474,7 +7557,7 @@
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G126" s="13" t="s">
         <v>119</v>
@@ -6484,21 +7567,22 @@
         <v>1</v>
       </c>
       <c r="J126" s="13" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K126" s="14">
         <v>43913</v>
       </c>
       <c r="L126" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="M126" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="127" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B127" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
+      </c>
+      <c r="M126" s="13"/>
+      <c r="N126" s="57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B127" s="47" t="s">
+        <v>336</v>
       </c>
       <c r="C127" s="13">
         <v>52</v>
@@ -6507,7 +7591,7 @@
         <v>31</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>43</v>
@@ -6516,7 +7600,7 @@
         <v>120</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="I127" s="13">
         <v>0</v>
@@ -6526,15 +7610,16 @@
         <v>43914</v>
       </c>
       <c r="L127" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="M127" s="24" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B128" s="32" t="s">
-        <v>349</v>
+        <v>166</v>
+      </c>
+      <c r="M127" s="13"/>
+      <c r="N127" s="57" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B128" s="29" t="s">
+        <v>338</v>
       </c>
       <c r="C128" s="13">
         <v>22</v>
@@ -6543,7 +7628,7 @@
         <v>30</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F128" s="13" t="s">
         <v>43</v>
@@ -6552,7 +7637,7 @@
         <v>120</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="I128" s="13">
         <v>0</v>
@@ -6562,15 +7647,16 @@
         <v>43914</v>
       </c>
       <c r="L128" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="M128" s="24" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="M128" s="13"/>
+      <c r="N128" s="57" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129" s="13" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C129" s="13">
         <v>28</v>
@@ -6579,7 +7665,7 @@
         <v>31</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>43</v>
@@ -6588,7 +7674,7 @@
         <v>120</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="I129" s="13">
         <v>0</v>
@@ -6598,13 +7684,14 @@
         <v>43914</v>
       </c>
       <c r="L129" s="13"/>
-      <c r="M129" s="24" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B130" s="32" t="s">
-        <v>354</v>
+      <c r="M129" s="13"/>
+      <c r="N129" s="57" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B130" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="C130" s="13">
         <v>23</v>
@@ -6620,7 +7707,7 @@
         <v>120</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="I130" s="13">
         <v>0</v>
@@ -6630,13 +7717,14 @@
         <v>43914</v>
       </c>
       <c r="L130" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="M130" s="24"/>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B131" s="32" t="s">
-        <v>355</v>
+        <v>166</v>
+      </c>
+      <c r="M130" s="13"/>
+      <c r="N130" s="57"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B131" s="29" t="s">
+        <v>343</v>
       </c>
       <c r="C131" s="13">
         <v>20</v>
@@ -6645,7 +7733,7 @@
         <v>31</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F131" s="13" t="s">
         <v>27</v>
@@ -6654,7 +7742,7 @@
         <v>119</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I131" s="13">
         <v>1</v>
@@ -6668,11 +7756,12 @@
       <c r="L131" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M131" s="24"/>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M131" s="13"/>
+      <c r="N131" s="57"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132" s="13" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C132" s="13">
         <v>20</v>
@@ -6681,7 +7770,7 @@
         <v>31</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F132" s="13" t="s">
         <v>27</v>
@@ -6702,13 +7791,16 @@
       <c r="L132" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M132" s="24" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M132" s="13">
+        <v>1</v>
+      </c>
+      <c r="N132" s="57" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133" s="13" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C133" s="13">
         <v>30</v>
@@ -6718,19 +7810,19 @@
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="13" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G133" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I133" s="13">
         <v>1</v>
       </c>
       <c r="J133" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K133" s="14">
         <v>43914</v>
@@ -6738,13 +7830,16 @@
       <c r="L133" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M133" s="24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M133" s="13">
+        <v>1</v>
+      </c>
+      <c r="N133" s="57" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134" s="13" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C134" s="13">
         <v>23</v>
@@ -6754,19 +7849,19 @@
       </c>
       <c r="E134" s="13"/>
       <c r="F134" s="13" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G134" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I134" s="13">
         <v>1</v>
       </c>
       <c r="J134" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K134" s="14">
         <v>43914</v>
@@ -6774,13 +7869,16 @@
       <c r="L134" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M134" s="24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M134" s="13">
+        <v>1</v>
+      </c>
+      <c r="N134" s="57" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C135" s="13">
         <v>25</v>
@@ -6790,19 +7888,19 @@
       </c>
       <c r="E135" s="13"/>
       <c r="F135" s="13" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G135" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I135" s="13">
         <v>1</v>
       </c>
       <c r="J135" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K135" s="14">
         <v>43914</v>
@@ -6810,13 +7908,16 @@
       <c r="L135" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M135" s="24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B136" s="13" t="s">
-        <v>364</v>
+      <c r="M135" s="13">
+        <v>1</v>
+      </c>
+      <c r="N135" s="57" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B136" s="47" t="s">
+        <v>352</v>
       </c>
       <c r="C136" s="13">
         <v>66</v>
@@ -6826,13 +7927,13 @@
       </c>
       <c r="E136" s="13"/>
       <c r="F136" s="13" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G136" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H136" s="49" t="s">
-        <v>366</v>
+      <c r="H136" s="44" t="s">
+        <v>354</v>
       </c>
       <c r="I136" s="13">
         <v>0</v>
@@ -6842,15 +7943,16 @@
         <v>43914</v>
       </c>
       <c r="L136" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="M136" s="50" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="M136" s="13"/>
+      <c r="N136" s="64" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B137" s="13" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C137" s="13">
         <v>10</v>
@@ -6866,31 +7968,3681 @@
         <v>119</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I137" s="13">
         <v>1</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K137" s="14">
         <v>43914</v>
       </c>
       <c r="L137" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="M137" s="13"/>
+      <c r="N137" s="57" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B138" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C138" s="13">
+        <v>27</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="I138" s="13">
+        <v>1</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="K138" s="14">
+        <v>43915</v>
+      </c>
+      <c r="L138" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M138" s="13"/>
+      <c r="N138" s="65" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B139" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C139" s="13">
+        <v>23</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13">
+        <v>1</v>
+      </c>
+      <c r="J139" s="13"/>
+      <c r="K139" s="14">
+        <v>43915</v>
+      </c>
+      <c r="L139" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M139" s="13"/>
+      <c r="N139" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="O139" s="45"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B140" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C140" s="13">
+        <v>36</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="13"/>
+      <c r="F140" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H140" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="M137" s="24" t="s">
+      <c r="I140" s="13">
+        <v>1</v>
+      </c>
+      <c r="J140" s="13"/>
+      <c r="K140" s="14">
+        <v>43915</v>
+      </c>
+      <c r="L140" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M140" s="13"/>
+      <c r="N140" s="57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B141" s="13" t="s">
         <v>370</v>
       </c>
+      <c r="C141" s="13">
+        <v>23</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13">
+        <v>1</v>
+      </c>
+      <c r="J141" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K141" s="14">
+        <v>43915</v>
+      </c>
+      <c r="L141" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M141" s="13"/>
+      <c r="N141" s="57" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B142" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C142" s="13">
+        <v>24</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="I142" s="13">
+        <v>1</v>
+      </c>
+      <c r="J142" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K142" s="14">
+        <v>43915</v>
+      </c>
+      <c r="L142" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M142" s="13"/>
+      <c r="N142" s="57" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B143" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C143" s="13">
+        <v>21</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13">
+        <v>1</v>
+      </c>
+      <c r="J143" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K143" s="14">
+        <v>43915</v>
+      </c>
+      <c r="L143" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M143" s="13">
+        <v>1</v>
+      </c>
+      <c r="N143" s="57" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B144" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C144" s="13">
+        <v>29</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H144" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="I144" s="13">
+        <v>0</v>
+      </c>
+      <c r="J144" s="13"/>
+      <c r="K144" s="14">
+        <v>43915</v>
+      </c>
+      <c r="L144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M144" s="13"/>
+      <c r="N144" s="57"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B145" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="C145" s="13">
+        <v>26</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13">
+        <v>1</v>
+      </c>
+      <c r="J145" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="K145" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L145" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M145" s="13"/>
+      <c r="N145" s="57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B146" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C146" s="13">
+        <v>58</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13">
+        <v>1</v>
+      </c>
+      <c r="J146" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="K146" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L146" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M146" s="13"/>
+      <c r="N146" s="57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B147" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C147" s="13">
+        <v>22</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H147" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I147" s="13">
+        <v>1</v>
+      </c>
+      <c r="J147" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K147" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L147" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="M147" s="13"/>
+      <c r="N147" s="65" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B148" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C148" s="13">
+        <v>34</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H148" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I148" s="13">
+        <v>1</v>
+      </c>
+      <c r="J148" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K148" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L148" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="M148" s="13"/>
+      <c r="N148" s="57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B149" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C149" s="13">
+        <v>17</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="I149" s="13">
+        <v>1</v>
+      </c>
+      <c r="J149" s="13"/>
+      <c r="K149" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L149" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="M149" s="13"/>
+      <c r="N149" s="57"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B150" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" s="13">
+        <v>19</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13">
+        <v>1</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K150" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L150" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M150" s="13"/>
+      <c r="N150" s="57" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B151" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="C151" s="13">
+        <v>58</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13">
+        <v>1</v>
+      </c>
+      <c r="J151" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K151" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L151" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M151" s="13"/>
+      <c r="N151" s="57" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B152" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C152" s="13">
+        <v>40</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13">
+        <v>1</v>
+      </c>
+      <c r="J152" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="K152" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L152" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="M152" s="13"/>
+      <c r="N152" s="65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B153" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C153" s="13">
+        <v>55</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13">
+        <v>1</v>
+      </c>
+      <c r="J153" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="K153" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L153" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M153" s="13"/>
+      <c r="N153" s="57" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B154" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="C154" s="13">
+        <v>45</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="I154" s="13">
+        <v>0</v>
+      </c>
+      <c r="J154" s="13"/>
+      <c r="K154" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L154" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M154" s="13"/>
+      <c r="N154" s="57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B155" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="C155" s="13">
+        <v>27</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H155" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="I155" s="13">
+        <v>0</v>
+      </c>
+      <c r="J155" s="13"/>
+      <c r="K155" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L155" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M155" s="13"/>
+      <c r="N155" s="57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B156" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C156" s="13">
+        <v>60</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="I156" s="13">
+        <v>1</v>
+      </c>
+      <c r="J156" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="K156" s="14">
+        <v>43916</v>
+      </c>
+      <c r="L156" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M156" s="13"/>
+      <c r="N156" s="57" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B157" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C157" s="13">
+        <v>23</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I157" s="13">
+        <v>1</v>
+      </c>
+      <c r="J157" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K157" s="14">
+        <v>43917</v>
+      </c>
+      <c r="L157" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="M157" s="13"/>
+      <c r="N157" s="57" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B158" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C158" s="13">
+        <v>21</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="I158" s="13">
+        <v>1</v>
+      </c>
+      <c r="J158" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K158" s="14">
+        <v>43917</v>
+      </c>
+      <c r="L158" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="M158" s="13"/>
+      <c r="N158" s="65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B159" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C159" s="13">
+        <v>21</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H159" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="I159" s="13">
+        <v>1</v>
+      </c>
+      <c r="J159" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K159" s="14">
+        <v>43917</v>
+      </c>
+      <c r="L159" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="M159" s="13"/>
+      <c r="N159" s="65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B160" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C160" s="13">
+        <v>31</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="I160" s="13">
+        <v>0</v>
+      </c>
+      <c r="J160" s="13"/>
+      <c r="K160" s="14">
+        <v>43917</v>
+      </c>
+      <c r="L160" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="M160" s="13"/>
+      <c r="N160" s="57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B161" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C161" s="13">
+        <v>45</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="I161" s="13">
+        <v>0</v>
+      </c>
+      <c r="J161" s="13"/>
+      <c r="K161" s="14">
+        <v>43917</v>
+      </c>
+      <c r="L161" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M161" s="13"/>
+      <c r="N161" s="57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B162" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C162" s="13">
+        <v>33</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H162" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="I162" s="13">
+        <v>0</v>
+      </c>
+      <c r="J162" s="13"/>
+      <c r="K162" s="14">
+        <v>43917</v>
+      </c>
+      <c r="L162" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M162" s="13"/>
+      <c r="N162" s="57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B163" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C163" s="13">
+        <v>30</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13">
+        <v>1</v>
+      </c>
+      <c r="J163" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="K163" s="14">
+        <v>43917</v>
+      </c>
+      <c r="L163" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="M163" s="13"/>
+      <c r="N163" s="57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B164" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="C164" s="13">
+        <v>88</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H164" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="I164" s="13">
+        <v>0</v>
+      </c>
+      <c r="J164" s="13"/>
+      <c r="K164" s="14">
+        <v>43917</v>
+      </c>
+      <c r="L164" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M164" s="13"/>
+      <c r="N164" s="57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B165" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C165" s="13">
+        <v>61</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G165" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H165" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="I165" s="13">
+        <v>0</v>
+      </c>
+      <c r="J165" s="13"/>
+      <c r="K165" s="14">
+        <v>43917</v>
+      </c>
+      <c r="L165" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M165" s="13"/>
+      <c r="N165" s="57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B166" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C166" s="13">
+        <v>43</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H166" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="I166" s="13">
+        <v>0</v>
+      </c>
+      <c r="J166" s="13"/>
+      <c r="K166" s="14">
+        <v>43917</v>
+      </c>
+      <c r="L166" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M166" s="13"/>
+      <c r="N166" s="57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B167" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C167" s="13">
+        <v>23</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="I167" s="13">
+        <v>1</v>
+      </c>
+      <c r="J167" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K167" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L167" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M167" s="13"/>
+      <c r="N167" s="57" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B168" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C168" s="13">
+        <v>58</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I168" s="13">
+        <v>1</v>
+      </c>
+      <c r="J168" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K168" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L168" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M168" s="13"/>
+      <c r="N168" s="57" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B169" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C169" s="13">
+        <v>25</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="I169" s="13">
+        <v>1</v>
+      </c>
+      <c r="J169" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K169" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L169" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M169" s="13"/>
+      <c r="N169" s="57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B170" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="C170" s="13">
+        <v>20</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13">
+        <v>1</v>
+      </c>
+      <c r="J170" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="K170" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L170" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M170" s="13"/>
+      <c r="N170" s="57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B171" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C171" s="13">
+        <v>49</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G171" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H171" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="I171" s="13">
+        <v>0</v>
+      </c>
+      <c r="J171" s="13"/>
+      <c r="K171" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L171" s="13"/>
+      <c r="M171" s="13"/>
+      <c r="N171" s="57"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B172" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C172" s="13">
+        <v>49</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H172" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="I172" s="13">
+        <v>0</v>
+      </c>
+      <c r="J172" s="13"/>
+      <c r="K172" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L172" s="13"/>
+      <c r="M172" s="13"/>
+      <c r="N172" s="57"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B173" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="C173" s="13">
+        <v>27</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H173" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="I173" s="13">
+        <v>0</v>
+      </c>
+      <c r="J173" s="13"/>
+      <c r="K173" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L173" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="M173" s="13"/>
+      <c r="N173" s="57" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B174" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C174" s="13">
+        <v>19</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13">
+        <v>0</v>
+      </c>
+      <c r="J174" s="13"/>
+      <c r="K174" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L174" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="M174" s="13"/>
+      <c r="N174" s="57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B175" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H175" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="I175" s="13">
+        <v>0</v>
+      </c>
+      <c r="J175" s="13"/>
+      <c r="K175" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L175" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M175" s="13"/>
+      <c r="N175" s="57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B176" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C176" s="13">
+        <v>43</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13">
+        <v>1</v>
+      </c>
+      <c r="J176" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K176" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L176" s="13"/>
+      <c r="M176" s="13"/>
+      <c r="N176" s="57" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B177" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H177" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="I177" s="13">
+        <v>0</v>
+      </c>
+      <c r="J177" s="13"/>
+      <c r="K177" s="14">
+        <v>43918</v>
+      </c>
+      <c r="L177" s="13"/>
+      <c r="M177" s="13"/>
+      <c r="N177" s="57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B178" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="C178" s="13">
+        <v>57</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H178" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="I178" s="13">
+        <v>0</v>
+      </c>
+      <c r="J178" s="13"/>
+      <c r="K178" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L178" s="13"/>
+      <c r="M178" s="13"/>
+      <c r="N178" s="57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B179" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="C179" s="13">
+        <v>38</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H179" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="I179" s="13">
+        <v>0</v>
+      </c>
+      <c r="J179" s="13"/>
+      <c r="K179" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L179" s="13"/>
+      <c r="M179" s="13"/>
+      <c r="N179" s="57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B180" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="C180" s="13">
+        <v>49</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G180" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H180" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="I180" s="13">
+        <v>0</v>
+      </c>
+      <c r="J180" s="13"/>
+      <c r="K180" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L180" s="13"/>
+      <c r="M180" s="13"/>
+      <c r="N180" s="57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B181" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="C181" s="13">
+        <v>44</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H181" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="I181" s="13">
+        <v>0</v>
+      </c>
+      <c r="J181" s="13"/>
+      <c r="K181" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L181" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="M181" s="13"/>
+      <c r="N181" s="57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B182" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C182" s="13">
+        <v>62</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G182" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H182" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I182" s="13">
+        <v>1</v>
+      </c>
+      <c r="J182" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="K182" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L182" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M182" s="13">
+        <v>1</v>
+      </c>
+      <c r="N182" s="57" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B183" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C183" s="13">
+        <v>27</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F183" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H183" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I183" s="13">
+        <v>1</v>
+      </c>
+      <c r="J183" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K183" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L183" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="M183" s="13"/>
+      <c r="N183" s="57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B184" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="C184" s="13">
+        <v>33</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G184" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H184" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I184" s="13">
+        <v>1</v>
+      </c>
+      <c r="J184" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K184" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L184" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="M184" s="13"/>
+      <c r="N184" s="57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B185" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="C185" s="13">
+        <v>19</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F185" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G185" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H185" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I185" s="13">
+        <v>1</v>
+      </c>
+      <c r="J185" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="K185" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L185" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="M185" s="13"/>
+      <c r="N185" s="57" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="186" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B186" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="C186" s="13">
+        <v>43</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G186" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H186" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="I186" s="13">
+        <v>0</v>
+      </c>
+      <c r="J186" s="13"/>
+      <c r="K186" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L186" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M186" s="13"/>
+      <c r="N186" s="57"/>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B187" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C187" s="13">
+        <v>42</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G187" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H187" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="I187" s="13">
+        <v>0</v>
+      </c>
+      <c r="J187" s="13"/>
+      <c r="K187" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L187" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M187" s="13"/>
+      <c r="N187" s="57" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B188" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C188" s="13">
+        <v>38</v>
+      </c>
+      <c r="D188" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G188" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H188" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="I188" s="13">
+        <v>0</v>
+      </c>
+      <c r="J188" s="13"/>
+      <c r="K188" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L188" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M188" s="13"/>
+      <c r="N188" s="57" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B189" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="C189" s="13">
+        <v>52</v>
+      </c>
+      <c r="D189" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G189" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13">
+        <v>1</v>
+      </c>
+      <c r="J189" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="K189" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L189" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M189" s="13"/>
+      <c r="N189" s="57" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B190" s="54" t="s">
+        <v>488</v>
+      </c>
+      <c r="C190" s="13">
+        <v>30</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F190" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G190" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13">
+        <v>1</v>
+      </c>
+      <c r="J190" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K190" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L190" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M190" s="13">
+        <v>1</v>
+      </c>
+      <c r="N190" s="57" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B191" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="C191" s="13">
+        <v>44</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G191" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H191" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="I191" s="13">
+        <v>0</v>
+      </c>
+      <c r="J191" s="13"/>
+      <c r="K191" s="14">
+        <v>43919</v>
+      </c>
+      <c r="L191" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M191" s="13"/>
+      <c r="N191" s="57" t="s">
+        <v>553</v>
+      </c>
+      <c r="O191" s="67"/>
+    </row>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B192" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C192" s="13">
+        <v>46</v>
+      </c>
+      <c r="D192" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G192" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H192" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I192" s="13">
+        <v>0</v>
+      </c>
+      <c r="J192" s="13"/>
+      <c r="K192" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L192" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M192" s="13"/>
+      <c r="N192" s="57" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B193" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="C193" s="13">
+        <v>49</v>
+      </c>
+      <c r="D193" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G193" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H193" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I193" s="13">
+        <v>0</v>
+      </c>
+      <c r="J193" s="13"/>
+      <c r="K193" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L193" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M193" s="13"/>
+      <c r="N193" s="57"/>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B194" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C194" s="13">
+        <v>36</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G194" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H194" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I194" s="13">
+        <v>0</v>
+      </c>
+      <c r="J194" s="13"/>
+      <c r="K194" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L194" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M194" s="13"/>
+      <c r="N194" s="57"/>
+    </row>
+    <row r="195" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B195" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C195" s="13">
+        <v>23</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G195" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H195" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I195" s="13">
+        <v>0</v>
+      </c>
+      <c r="J195" s="13"/>
+      <c r="K195" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L195" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M195" s="13"/>
+      <c r="N195" s="57"/>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B196" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C196" s="13">
+        <v>21</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G196" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H196" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I196" s="13">
+        <v>0</v>
+      </c>
+      <c r="J196" s="13"/>
+      <c r="K196" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L196" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M196" s="13"/>
+      <c r="N196" s="57"/>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B197" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="C197" s="13">
+        <v>42</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G197" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H197" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I197" s="13">
+        <v>0</v>
+      </c>
+      <c r="J197" s="13"/>
+      <c r="K197" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L197" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M197" s="13"/>
+      <c r="N197" s="57"/>
+    </row>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B198" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C198" s="13">
+        <v>41</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G198" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H198" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I198" s="13">
+        <v>0</v>
+      </c>
+      <c r="J198" s="13"/>
+      <c r="K198" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L198" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M198" s="13"/>
+      <c r="N198" s="57"/>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B199" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C199" s="13">
+        <v>34</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G199" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H199" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I199" s="13">
+        <v>0</v>
+      </c>
+      <c r="J199" s="13"/>
+      <c r="K199" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L199" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M199" s="13"/>
+      <c r="N199" s="57"/>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B200" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C200" s="13">
+        <v>41</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G200" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H200" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="I200" s="13">
+        <v>0</v>
+      </c>
+      <c r="J200" s="13"/>
+      <c r="K200" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L200" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M200" s="13"/>
+      <c r="N200" s="57" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B201" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C201" s="13">
+        <v>53</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G201" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H201" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I201" s="13">
+        <v>0</v>
+      </c>
+      <c r="J201" s="13">
+        <v>1</v>
+      </c>
+      <c r="K201" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L201" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M201" s="13"/>
+      <c r="N201" s="57"/>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B202" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C202" s="13">
+        <v>57</v>
+      </c>
+      <c r="D202" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G202" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H202" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I202" s="13">
+        <v>0</v>
+      </c>
+      <c r="J202" s="13"/>
+      <c r="K202" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L202" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M202" s="13"/>
+      <c r="N202" s="57"/>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B203" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C203" s="13">
+        <v>61</v>
+      </c>
+      <c r="D203" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G203" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H203" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I203" s="13">
+        <v>0</v>
+      </c>
+      <c r="J203" s="13"/>
+      <c r="K203" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L203" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M203" s="13"/>
+      <c r="N203" s="57"/>
+    </row>
+    <row r="204" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B204" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="C204" s="13">
+        <v>23</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G204" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H204" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I204" s="13">
+        <v>0</v>
+      </c>
+      <c r="J204" s="13"/>
+      <c r="K204" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L204" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M204" s="13"/>
+      <c r="N204" s="57"/>
+    </row>
+    <row r="205" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B205" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C205" s="13">
+        <v>57</v>
+      </c>
+      <c r="D205" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G205" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H205" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I205" s="13">
+        <v>0</v>
+      </c>
+      <c r="J205" s="13"/>
+      <c r="K205" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L205" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M205" s="13"/>
+      <c r="N205" s="57"/>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B206" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C206" s="13">
+        <v>35</v>
+      </c>
+      <c r="D206" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G206" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H206" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I206" s="13">
+        <v>0</v>
+      </c>
+      <c r="J206" s="13"/>
+      <c r="K206" s="14">
+        <v>43920</v>
+      </c>
+      <c r="L206" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M206" s="13"/>
+      <c r="N206" s="57"/>
+      <c r="O206" s="67"/>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B207" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C207" s="13">
+        <v>10</v>
+      </c>
+      <c r="D207" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G207" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13">
+        <v>1</v>
+      </c>
+      <c r="J207" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="K207" s="14">
+        <v>43921</v>
+      </c>
+      <c r="L207" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="M207" s="13"/>
+      <c r="N207" s="65" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B208" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C208" s="13">
+        <v>41</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G208" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H208" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I208" s="13">
+        <v>0</v>
+      </c>
+      <c r="J208" s="13"/>
+      <c r="K208" s="14">
+        <v>43921</v>
+      </c>
+      <c r="L208" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M208" s="13"/>
+      <c r="N208" s="57"/>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B209" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C209" s="13">
+        <v>48</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G209" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H209" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="I209" s="13">
+        <v>0</v>
+      </c>
+      <c r="J209" s="13"/>
+      <c r="K209" s="14">
+        <v>43921</v>
+      </c>
+      <c r="L209" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="M209" s="13"/>
+      <c r="N209" s="57"/>
+    </row>
+    <row r="210" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B210" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C210" s="13">
+        <v>49</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G210" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H210" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="I210" s="13">
+        <v>0</v>
+      </c>
+      <c r="J210" s="13"/>
+      <c r="K210" s="14">
+        <v>43921</v>
+      </c>
+      <c r="L210" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="M210" s="13"/>
+      <c r="N210" s="57"/>
+    </row>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B211" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="C211" s="13">
+        <v>38</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G211" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H211" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="I211" s="13">
+        <v>0</v>
+      </c>
+      <c r="J211" s="13"/>
+      <c r="K211" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L211" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M211" s="13"/>
+      <c r="N211" s="57"/>
+    </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B212" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="C212" s="13">
+        <v>55</v>
+      </c>
+      <c r="D212" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G212" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H212" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="I212" s="13">
+        <v>0</v>
+      </c>
+      <c r="J212" s="13"/>
+      <c r="K212" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L212" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M212" s="13"/>
+      <c r="N212" s="57"/>
+    </row>
+    <row r="213" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B213" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C213" s="13">
+        <v>26</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="G213" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H213" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="I213" s="13">
+        <v>1</v>
+      </c>
+      <c r="J213" s="13"/>
+      <c r="K213" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L213" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="M213" s="13"/>
+      <c r="N213" s="57"/>
+    </row>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B214" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C214" s="13">
+        <v>23</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F214" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G214" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H214" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I214" s="13">
+        <v>1</v>
+      </c>
+      <c r="J214" s="13"/>
+      <c r="K214" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L214" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="M214" s="13"/>
+      <c r="N214" s="57" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B215" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C215" s="13">
+        <v>35</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G215" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H215" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="I215" s="13">
+        <v>1</v>
+      </c>
+      <c r="J215" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K215" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L215" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M215" s="13"/>
+      <c r="N215" s="57" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="216" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B216" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C216" s="13">
+        <v>40</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G216" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H216" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="I216" s="13">
+        <v>0</v>
+      </c>
+      <c r="J216" s="13"/>
+      <c r="K216" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L216" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M216" s="13"/>
+      <c r="N216" s="57"/>
+    </row>
+    <row r="217" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B217" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C217" s="13">
+        <v>45</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="G217" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H217" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I217" s="13">
+        <v>0</v>
+      </c>
+      <c r="J217" s="13"/>
+      <c r="K217" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L217" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M217" s="13"/>
+      <c r="N217" s="57"/>
+    </row>
+    <row r="218" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B218" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C218" s="13">
+        <v>31</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G218" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H218" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I218" s="13">
+        <v>0</v>
+      </c>
+      <c r="J218" s="13"/>
+      <c r="K218" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L218" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M218" s="13"/>
+      <c r="N218" s="57"/>
+    </row>
+    <row r="219" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B219" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="C219" s="13">
+        <v>48</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E219" s="13"/>
+      <c r="F219" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G219" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H219" s="13"/>
+      <c r="I219" s="13">
+        <v>1</v>
+      </c>
+      <c r="J219" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K219" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L219" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M219" s="13"/>
+      <c r="N219" s="57" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="220" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B220" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C220" s="13">
+        <v>25</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G220" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H220" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="I220" s="13">
+        <v>1</v>
+      </c>
+      <c r="J220" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="K220" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L220" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M220" s="13"/>
+      <c r="N220" s="57" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="221" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B221" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C221" s="13">
+        <v>43</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E221" s="13"/>
+      <c r="F221" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G221" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H221" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="I221" s="13">
+        <v>1</v>
+      </c>
+      <c r="J221" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K221" s="14">
+        <v>43922</v>
+      </c>
+      <c r="L221" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M221" s="13"/>
+      <c r="N221" s="57" t="s">
+        <v>582</v>
+      </c>
+      <c r="O221" s="67"/>
+    </row>
+    <row r="222" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B222" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C222" s="13">
+        <v>59</v>
+      </c>
+      <c r="D222" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G222" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H222" s="44" t="s">
+        <v>583</v>
+      </c>
+      <c r="I222" s="13">
+        <v>0</v>
+      </c>
+      <c r="J222" s="13"/>
+      <c r="K222" s="14">
+        <v>43923</v>
+      </c>
+      <c r="L222" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M222" s="13"/>
+      <c r="N222" s="65" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="223" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B223" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C223" s="13">
+        <v>20</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G223" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H223" s="13"/>
+      <c r="I223" s="13">
+        <v>1</v>
+      </c>
+      <c r="J223" s="13"/>
+      <c r="K223" s="14">
+        <v>43923</v>
+      </c>
+      <c r="L223" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M223" s="13"/>
+      <c r="N223" s="57" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="224" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B224" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C224" s="13">
+        <v>24</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F224" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G224" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H224" s="13"/>
+      <c r="I224" s="13">
+        <v>1</v>
+      </c>
+      <c r="J224" s="13"/>
+      <c r="K224" s="14">
+        <v>43923</v>
+      </c>
+      <c r="L224" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M224" s="13"/>
+      <c r="N224" s="57" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="225" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B225" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C225" s="13">
+        <v>28</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G225" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H225" s="13"/>
+      <c r="I225" s="13">
+        <v>1</v>
+      </c>
+      <c r="J225" s="13"/>
+      <c r="K225" s="14">
+        <v>43923</v>
+      </c>
+      <c r="L225" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M225" s="13"/>
+      <c r="N225" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="O225" s="69" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="226" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B226" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="C226" s="13">
+        <v>29</v>
+      </c>
+      <c r="D226" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G226" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H226" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="I226" s="13">
+        <v>0</v>
+      </c>
+      <c r="J226" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="K226" s="14">
+        <v>43923</v>
+      </c>
+      <c r="L226" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M226" s="13"/>
+      <c r="N226" s="57" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="227" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B227" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C227" s="13">
+        <v>39</v>
+      </c>
+      <c r="D227" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E227" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F227" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G227" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H227" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="I227" s="13">
+        <v>0</v>
+      </c>
+      <c r="J227" s="13"/>
+      <c r="K227" s="14">
+        <v>43923</v>
+      </c>
+      <c r="L227" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M227" s="13"/>
+      <c r="N227" s="57" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="228" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B228" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C228" s="13">
+        <v>35</v>
+      </c>
+      <c r="D228" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G228" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H228" s="13"/>
+      <c r="I228" s="13">
+        <v>1</v>
+      </c>
+      <c r="J228" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K228" s="14">
+        <v>43923</v>
+      </c>
+      <c r="L228" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M228" s="13"/>
+      <c r="N228" s="57" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="229" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B229" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="C229" s="13">
+        <v>22</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G229" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H229" s="13"/>
+      <c r="I229" s="13">
+        <v>1</v>
+      </c>
+      <c r="J229" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K229" s="14">
+        <v>43923</v>
+      </c>
+      <c r="L229" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M229" s="13"/>
+      <c r="N229" s="57" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="230" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B230" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="C230" s="13">
+        <v>31</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G230" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H230" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="I230" s="13">
+        <v>0</v>
+      </c>
+      <c r="J230" s="13"/>
+      <c r="K230" s="14">
+        <v>43923</v>
+      </c>
+      <c r="L230" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M230" s="13"/>
+      <c r="N230" s="57" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="231" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B231" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+      <c r="G231" s="13"/>
+      <c r="H231" s="13"/>
+      <c r="I231" s="13"/>
+      <c r="J231" s="13"/>
+      <c r="K231" s="14"/>
+      <c r="L231" s="13"/>
+      <c r="M231" s="13"/>
+      <c r="N231" s="57"/>
+    </row>
+    <row r="232" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B232" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="13"/>
+      <c r="H232" s="13"/>
+      <c r="I232" s="13"/>
+      <c r="J232" s="13"/>
+      <c r="K232" s="14"/>
+      <c r="L232" s="13"/>
+      <c r="M232" s="13"/>
+      <c r="N232" s="57"/>
+    </row>
+    <row r="233" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B233" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
+      <c r="G233" s="13"/>
+      <c r="H233" s="13"/>
+      <c r="I233" s="13"/>
+      <c r="J233" s="13"/>
+      <c r="K233" s="14"/>
+      <c r="L233" s="13"/>
+      <c r="M233" s="13"/>
+      <c r="N233" s="57"/>
+    </row>
+    <row r="234" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B234" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
+      <c r="G234" s="13"/>
+      <c r="H234" s="13"/>
+      <c r="I234" s="13"/>
+      <c r="J234" s="13"/>
+      <c r="K234" s="14"/>
+      <c r="L234" s="13"/>
+      <c r="M234" s="13"/>
+      <c r="N234" s="57"/>
+    </row>
+    <row r="235" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B235" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="13"/>
+      <c r="G235" s="13"/>
+      <c r="H235" s="13"/>
+      <c r="I235" s="13"/>
+      <c r="J235" s="13"/>
+      <c r="K235" s="14"/>
+      <c r="L235" s="13"/>
+      <c r="M235" s="13"/>
+      <c r="N235" s="57"/>
+    </row>
+    <row r="236" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B236" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+      <c r="G236" s="13"/>
+      <c r="H236" s="13"/>
+      <c r="I236" s="13"/>
+      <c r="J236" s="13"/>
+      <c r="K236" s="14"/>
+      <c r="L236" s="13"/>
+      <c r="M236" s="13"/>
+      <c r="N236" s="57"/>
+    </row>
+    <row r="237" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B237" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
+      <c r="G237" s="13"/>
+      <c r="H237" s="13"/>
+      <c r="I237" s="13"/>
+      <c r="J237" s="13"/>
+      <c r="K237" s="14"/>
+      <c r="L237" s="13"/>
+      <c r="M237" s="13"/>
+      <c r="N237" s="57"/>
+    </row>
+    <row r="238" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B238" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
+      <c r="G238" s="13"/>
+      <c r="H238" s="13"/>
+      <c r="I238" s="13"/>
+      <c r="J238" s="13"/>
+      <c r="K238" s="14"/>
+      <c r="L238" s="13"/>
+      <c r="M238" s="13"/>
+      <c r="N238" s="57"/>
+    </row>
+    <row r="239" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B239" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="13"/>
+      <c r="G239" s="13"/>
+      <c r="H239" s="13"/>
+      <c r="I239" s="13"/>
+      <c r="J239" s="13"/>
+      <c r="K239" s="14"/>
+      <c r="L239" s="13"/>
+      <c r="M239" s="13"/>
+      <c r="N239" s="57"/>
+    </row>
+    <row r="240" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B240" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13"/>
+      <c r="G240" s="13"/>
+      <c r="H240" s="13"/>
+      <c r="I240" s="13"/>
+      <c r="J240" s="13"/>
+      <c r="K240" s="14"/>
+      <c r="L240" s="13"/>
+      <c r="M240" s="13"/>
+      <c r="N240" s="57"/>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B241" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+      <c r="G241" s="13"/>
+      <c r="H241" s="13"/>
+      <c r="I241" s="13"/>
+      <c r="J241" s="13"/>
+      <c r="K241" s="14"/>
+      <c r="L241" s="13"/>
+      <c r="M241" s="13"/>
+      <c r="N241" s="57"/>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B242" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
+      <c r="G242" s="13"/>
+      <c r="H242" s="13"/>
+      <c r="I242" s="13"/>
+      <c r="J242" s="13"/>
+      <c r="K242" s="14"/>
+      <c r="L242" s="13"/>
+      <c r="M242" s="13"/>
+      <c r="N242" s="57"/>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B243" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="13"/>
+      <c r="G243" s="13"/>
+      <c r="H243" s="13"/>
+      <c r="I243" s="13"/>
+      <c r="J243" s="13"/>
+      <c r="K243" s="14"/>
+      <c r="L243" s="13"/>
+      <c r="M243" s="13"/>
+      <c r="N243" s="57"/>
+    </row>
+    <row r="244" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B244" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="13"/>
+      <c r="G244" s="13"/>
+      <c r="H244" s="13"/>
+      <c r="I244" s="13"/>
+      <c r="J244" s="13"/>
+      <c r="K244" s="14"/>
+      <c r="L244" s="13"/>
+      <c r="M244" s="13"/>
+      <c r="N244" s="57"/>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B245" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="C245" s="13"/>
+      <c r="D245" s="13"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="13"/>
+      <c r="G245" s="13"/>
+      <c r="H245" s="13"/>
+      <c r="I245" s="13"/>
+      <c r="J245" s="13"/>
+      <c r="K245" s="14"/>
+      <c r="L245" s="13"/>
+      <c r="M245" s="13"/>
+      <c r="N245" s="57"/>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B246" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="13"/>
+      <c r="G246" s="13"/>
+      <c r="H246" s="13"/>
+      <c r="I246" s="13"/>
+      <c r="J246" s="13"/>
+      <c r="K246" s="14"/>
+      <c r="L246" s="13"/>
+      <c r="M246" s="13"/>
+      <c r="N246" s="57"/>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B247" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="C247" s="13"/>
+      <c r="D247" s="13"/>
+      <c r="E247" s="13"/>
+      <c r="F247" s="13"/>
+      <c r="G247" s="13"/>
+      <c r="H247" s="13"/>
+      <c r="I247" s="13"/>
+      <c r="J247" s="13"/>
+      <c r="K247" s="14"/>
+      <c r="L247" s="13"/>
+      <c r="M247" s="13"/>
+      <c r="N247" s="57"/>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B248" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="C248" s="13"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
+      <c r="G248" s="13"/>
+      <c r="H248" s="13"/>
+      <c r="I248" s="13"/>
+      <c r="J248" s="13"/>
+      <c r="K248" s="14"/>
+      <c r="L248" s="13"/>
+      <c r="M248" s="13"/>
+      <c r="N248" s="57"/>
+    </row>
+    <row r="249" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B249" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="C249" s="13"/>
+      <c r="D249" s="13"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="13"/>
+      <c r="G249" s="13"/>
+      <c r="H249" s="13"/>
+      <c r="I249" s="13"/>
+      <c r="J249" s="13"/>
+      <c r="K249" s="14"/>
+      <c r="L249" s="13"/>
+      <c r="M249" s="13"/>
+      <c r="N249" s="57"/>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B250" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+      <c r="G250" s="13"/>
+      <c r="H250" s="13"/>
+      <c r="I250" s="13"/>
+      <c r="J250" s="13"/>
+      <c r="K250" s="14"/>
+      <c r="L250" s="13"/>
+      <c r="M250" s="13"/>
+      <c r="N250" s="57"/>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B251" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C251" s="13"/>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
+      <c r="G251" s="13"/>
+      <c r="H251" s="13"/>
+      <c r="I251" s="13"/>
+      <c r="J251" s="13"/>
+      <c r="K251" s="14"/>
+      <c r="L251" s="13"/>
+      <c r="M251" s="13"/>
+      <c r="N251" s="57"/>
     </row>
   </sheetData>
-  <sortState ref="N3:P24">
-    <sortCondition descending="1" ref="O3:O24"/>
+  <sortState ref="O2:Q31">
+    <sortCondition descending="1" ref="P3:P37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>